--- a/QALD9-Plus-testing/CoT-entity-aligned/CoT-dbpedia-wikidata-think/CoT_deepseek_wikidata_think_results_analysis.xlsx
+++ b/QALD9-Plus-testing/CoT-entity-aligned/CoT-dbpedia-wikidata-think/CoT_deepseek_wikidata_think_results_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\CoT-entity-aligned\CoT-dbpedia-wikidata-think\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6B15E3-B30C-46FB-B7EB-AC209A6B4076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0C34A0-6EBF-4D5D-BF21-D371784CB645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$101</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="450">
   <si>
     <t>Question</t>
   </si>
@@ -349,304 +349,904 @@
     <t>Who created Goofy?</t>
   </si>
   <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { { wd:Q1336200 wdt:P112 ?uri } UNION { wd:Q3374730 wdt:P112 ?uri } }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P57 wd:Q2001 }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q2743 ; p:P86 wd:Q2808 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?developer WHERE { &lt;http://www.wikidata.org/entity/Q40984&gt; wdt:P178 ?developer . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q476028 ; wdt:P118 wd:Q82595 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?actor WHERE { ?film wdt:P57 wd:Q16297 ; wdt:P161 ?actor . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502 ; p:P2044 ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?item) AS ?c) WHERE { ?item wdt:P31 wd:Q11424 ; wdt:P161 wd:Q38111 }</t>
-  </si>
-  <si>
-    <t>SELECT ?date WHERE { wd:Q53713 p:P570 ?statement . ?statement ps:P570 ?date . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item p:P161 ?statement_1 . ?statement_1 ps:P161 wd:Q34851 . ?item p:P161 ?statement_2 . ?statement_2 ps:P161 wd:Q151973 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q49740&gt; &lt;http://www.wikidata.org/entity/P178&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?n WHERE { wd:Q2608065 wdt:P2769 ?n }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?recordLabel WHERE { ?item wdt:P31 wd:Q482994 ; wdt:P175 wd:Q303 ; wdt:P577 ?releaseDate ; wdt:P264 ?recordLabel . } ORDER BY ASC(?releaseDate) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?runtime WHERE { wd:Q171048 wdt:P2047 ?runtime }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q5280538 ; wdt:P106 wd:Q806349 ; wdt:P1303 wd:Q119621 ; wdt:P1303 wd:Q8338 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 ; wdt:P161 wd:Q40523 ; wdt:P57 wd:Q315087 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q241665 wdt:P569 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?x WHERE { ?uri wdt:P509 ?x . } GROUP BY ?x ORDER BY DESC(COUNT(DISTINCT ?uri)) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { &lt;http://www.wikidata.org/entity/Q1207989&gt; wdt:P2048 ?num }</t>
-  </si>
-  <si>
-    <t>SELECT ?uri ?uriLabel MAX(?elevation) AS ?maxElevation WHERE { ?uri wdt:P31 wd:Q8502; wdt:P131 wd:Q38; wdt:P2044 ?elevation. SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } } GROUP BY ?uri ORDER BY DESC(?maxElevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q937 wdt:P184 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?owner WHERE { ?owner wdt:P127 wd:Q22686 }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { wd:Q37079 wdt:P26 ?item } ``` This query fetches all entities (?item) that are spouses of Tom Cruise (wd:Q37079) in Wikidata. &lt;sparql&gt; SELECT DISTINCT ?item WHERE { wd:Q37079 wdt:P26 ?item }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?item ?population ?populationEnd WHERE { ?item wd:P31 wd:Q5107 . ?item p:P1082 ?populationStatement . ?populationStatement ps:P1082 ?population . ?populationStatement pq:P582 ?populationEnd . FILTER(DATATYPE(?population) = &lt;http://www.w3.org/2001/XMLSchema#integer&gt;) }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?author ?authorLabel WHERE { wd:Q726382 wdt:P50 ?author . SERVICE wikibase:label { bd:serviceParam wikibase:language "en" . ?author rdfs:label ?authorLabel . } }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?date WHERE { wd:Q11806 wdt:P569 ?date }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?population WHERE { &lt;http://www.wikidata.org/entity/Q458&gt; wdt:P1082 ?population }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q148 wdt:P38 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wds: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?x WHERE { wd:Q692 wds:P570 ?x } LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?rocket WHERE { ?rocket wdt:P31 wd:Q41291 ; p:P448 [ps:P448 wd:Q177477]. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?developer WHERE { wd:Q131007 wdt:P178 ?developer }</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?item) AS ?c) WHERE { ?item wdt:P31 wd:Q4830453. ?item p:P452 ?stmt. ?stmt ps:P452 ?industry. ?industry rdfs:label ?industryLabel. FILTER(REGEX(LCASE(?industryLabel), "advertising")) }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?university WHERE { wd:Q567 wdt:P69 ?university . FILTER(CONTAINS(LCASE(str(wd:Q567)), "angela merkel")) }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q15416 . ?item wdt:P161 wd:Q485310 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P161 wd:Q37079 ; wdt:P31 wd:Q11424 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q513 wdt:P131 ?uri . ?uri wdt:P31 wd:Q6256 }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { wd:Q9696 wdt:P20 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { wd:Q125006 p:P177 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item p:P106 wd:Q10843402 ; p:P19 wd:Q649 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q11424. ?item pq:P161 wd:Q103894. ?item wdt:P577 ?date. } ORDER BY DESC(?date) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT ?item ?itemLabel WHERE { ?item wdt:P31 wd:Q8502; p:P2044 ?statement. ?statement ps:P2044 ?elevation. } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?pop WHERE { wd:Q85 wdt:P1082 ?pop }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri p:P19 ?statement. ?statement wdt:P19 wd:Q160544. VALUES ?type { wd:Q5 wd:Q215627 } ?uri wdt:P31 ?type. } ORDER BY ?uri</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT (COUNT(DISTINCT ?child) AS ?c) WHERE { wd:Q34969 wdt:P40 ?child }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?elevation WHERE { wd:Q58226 wdt:P2044 ?elevation. } LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q5806 wdt:P17 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdid: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?height WHERE { wdid:Q76717 wdt:P2048 ?height }</t>
-  </si>
-  <si>
-    <t>SELECT ?uri WHERE { wd:Q1163227 wdt:P50 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?val WHERE { wd:Q189080 wdt:P136 ?val }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?place WHERE { wd:Q40912 p:P19 ?place. }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?city ?cityLabel ?population WHERE { ?city wdt:P31 wd:Q515 . ?city wdt:P1082 ?population . SERVICE wikibase:label { bd:serviceParam wikibase:language "en" . } } ORDER BY ASC(?population) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q15416 . ?item wdt:P170 wd:Q8704 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q1445650 ; wdt:P17 wd:Q34 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?ni WHERE { &lt;http://www.wikidata.org/entity/Q312&gt; wdt:P2295 ?ni . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?value WHERE { wd:Q91 wdt:P20 ?value. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?capital WHERE { wd:Q5451 p:P17 ?countryStatement . ?countryStatement ps:P17 ?country . ?country p:P36 ?capitalStatement . ?capitalStatement ps:P36 ?capital . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q6386177 wdt:P17 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?height WHERE { wd:Q41421 wdt:P2048 ?height . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?film WHERE { ?film wdt:P57 wd:Q43203 ; wdt:P161 wd:Q43203 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P38 wd:Q861690 }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?population WHERE { wd:Q796 wdt:P1082 ?population }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q1445650 }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q7278 ; wdt:P17 wd:Q41 ; wdt:P1142 wd:Q3781399 }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?date WHERE { wd:Q162371 p:P161 ?actor . ?actor wdt:P569 ?date . }</t>
-  </si>
-  <si>
-    <t>PREFIX wds: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q3235867 wds:P50 ?person . ?person wds:P135 ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q33999 . ?item wdt:P19 wd:Q183 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q125006 wdt:P84 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?composer WHERE { wd:Q23572 wdt:P86 ?composer. }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q11424. ?item wdt:P57 wd:Q56094. }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?bn WHERE { wd:Q23215 wdt:P1477 ?bn }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?item ?itemLabel WHERE { ?item wdt:P31 wd:Q482994 ; wdt:P175 wd:Q15862 ; wdt:P577 ?date . SERVICE wikibase:label { bd:serviceParam wikibase:language "en" . } } ORDER BY ?date LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?currency WHERE { wd:Q213 wdt:P38 ?currency }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item p:P19 ?birthPlace; p:P20 ?deathPlace. FILTER NOT EXISTS { ?item p:P19/pwdt:P214 ?birthPlace_ } FILTER NOT EXISTS { ?item p:P20/pwdt:P214 ?deathPlace_ } FILTER(EXISTS { ?item p:P19/psdt:P569 ?birthTime }) FILTER(EXISTS { ?item p:P20/psdt:P570 ?deathTime }) BIND(wd:Q1741 AS ?birthPlace) VALUES ?deathPlace { wd:Q64 wd:Q31910788 wd:Q56036 wd:Q56037 } }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?bridge WHERE { ?bridge wdt:P31 wd:Q12280 . ?bridge p:P177 ?crosses . FILTER(wd:Q1471 = ?crosses || wd:Q1142326 = ?crosses) }</t>
-  </si>
-  <si>
-    <t>SELECT ?musician (COUNT(?book) AS ?count) WHERE { ?musician wdt:P106/wdt:Q639669. ?book wdt:P50 ?musician. ?book wdt:P31 wd:Q571. } GROUP BY ?musician ORDER BY DESC(?count) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q15416 ; wdt:P170 wd:Q25014 }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q36180 ; wdt:P166 wd:Q37922 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?discoverer WHERE { wd:Q596 wdt:P61 ?discoverer }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 [ UNION { &lt;http://www.wikidata.org/entity/Q5280538&gt; ; &lt;http://www.wikidata.org/entity/Q806349&gt; } ] ; wdt:P1303 [ UNION { &lt;http://www.wikidata.org/entity/Q119621&gt; ; &lt;http://www.wikidata.org/entity/Q8338&gt; } ] }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q3665646; p:P2048 ?height. FILTER (?height &gt; "2"^^&lt;http://www.wikidata.org/entities/quantity/2780&gt;) }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q11424. ?item wdt:P161 wd:Q40523. ?item wdt:P161 wd:Q48410. }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?capital WHERE { wd:Q16 wdt:P36 ?capital }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P106 wd:Q937857 ; wdt:P19 wd:Q233 }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?capital WHERE { wd:Q1009 wdt:P36 ?capital }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT (COUNT(DISTINCT ?item) AS ?c) WHERE { ?item wdt:P31 wd:Q9143 }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item p:P106 ps:P106 Q11631. { ?item p:P27 ps:P27 dbr:Q2184 } UNION { ?item p:P27 ps:P27 dbr:Q15180 } }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q5930 wdt:P170 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/direct/P&gt; SELECT ?population WHERE { wd:Q1489 p:1082 ?population }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?creatorUri WHERE { wd:Q2695156 wdt:P170 ?creatorUri. }</t>
-  </si>
-  <si>
-    <t>SELECT ?num WHERE { wd:Q408 wdt:P36 ?x . ?x wdt:P1082 ?num . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?area WHERE { wd:Q1198 wdt:P2046 ?area }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?number WHERE { &lt;http://www.wikidata.org/entity/Q37156&gt; &lt;http://www.wikidata.org/entity/P1128&gt; ?number }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?n WHERE { wd:Q104123 wdt:P2769 ?n }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; p:P161 [ps:P161 wd:Q219512] }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX bias: &lt;https://www.wikidata.org/wiki/Entity:&gt; SELECT DISTINCT ?item ?itemLabel WHERE { ?item p:P17/ps:P17 wd:Q35 . FILTER(bias:sttype(?item) = wd:Q11424) SERVICE wikibase:label { bd:serviceParam wikibase:language "en" } }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?country WHERE { VALUES ?hmt { wd:Q5451 wd:Q26235529 wd:Q105981852 } ?hmt wdt:P17 ?country }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q6256 . ?uri wdt:P2046 ?n . } ORDER BY DESC(?n) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT ?Almamater WHERE { wd:Q567 wdt:P69 ?Almamater } ``` &lt;sparql&gt; SELECT ?Almamater WHERE { wd:Q567 wdt:P69 ?Almamater }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { wd:Q111135 wdt:P170 ?uri }</t>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { { wd:Q1336200 wdt:P112 ?uri } UNION { wd:Q3374730 wdt:P112 ?uri } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P57 wd:Q2001 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q2743 ; p:P86 wd:Q2808 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?developer WHERE { &lt;http://www.wikidata.org/entity/Q40984&gt; wdt:P178 ?developer . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q476028 ; wdt:P118 wd:Q82595 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?actor WHERE { ?film wdt:P57 wd:Q16297 ; wdt:P161 ?actor . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502 ; p:P2044 ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT (COUNT(DISTINCT ?item) AS ?c) WHERE { ?item wdt:P31 wd:Q11424 ; wdt:P161 wd:Q38111 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?date WHERE { wd:Q53713 p:P570 ?statement . ?statement ps:P570 ?date . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item p:P161 ?statement_1 . ?statement_1 ps:P161 wd:Q34851 . ?item p:P161 ?statement_2 . ?statement_2 ps:P161 wd:Q151973 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q49740&gt; &lt;http://www.wikidata.org/entity/P178&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?n WHERE { wd:Q2608065 wdt:P2769 ?n }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?recordLabel WHERE { ?item wdt:P31 wd:Q482994 ; wdt:P175 wd:Q303 ; wdt:P577 ?releaseDate ; wdt:P264 ?recordLabel . } ORDER BY ASC(?releaseDate) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?runtime WHERE { wd:Q171048 wdt:P2047 ?runtime }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q5280538 ; wdt:P106 wd:Q806349 ; wdt:P1303 wd:Q119621 ; wdt:P1303 wd:Q8338 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 ; wdt:P161 wd:Q40523 ; wdt:P57 wd:Q315087 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q241665 wdt:P569 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?x WHERE { ?uri wdt:P509 ?x . } GROUP BY ?x ORDER BY DESC(COUNT(DISTINCT ?uri)) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { &lt;http://www.wikidata.org/entity/Q1207989&gt; wdt:P2048 ?num }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?uri ?uriLabel MAX(?elevation) AS ?maxElevation WHERE { ?uri wdt:P31 wd:Q8502; wdt:P131 wd:Q38; wdt:P2044 ?elevation. SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } } GROUP BY ?uri ORDER BY DESC(?maxElevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q937 wdt:P184 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?owner WHERE { ?owner wdt:P127 wd:Q22686 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { wd:Q37079 wdt:P26 ?item } ``` This query fetches all entities (?item) that are spouses of Tom Cruise (wd:Q37079) in Wikidata. &lt;sparql&gt; SELECT DISTINCT ?item WHERE { wd:Q37079 wdt:P26 ?item }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?item ?population ?populationEnd WHERE { ?item wd:P31 wd:Q5107 . ?item p:P1082 ?populationStatement . ?populationStatement ps:P1082 ?population . ?populationStatement pq:P582 ?populationEnd . FILTER(DATATYPE(?population) = &lt;http://www.w3.org/2001/XMLSchema#integer&gt;) }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?author ?authorLabel WHERE { wd:Q726382 wdt:P50 ?author . SERVICE wikibase:label { bd:serviceParam wikibase:language "en" . ?author rdfs:label ?authorLabel . } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?date WHERE { wd:Q11806 wdt:P569 ?date }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?population WHERE { &lt;http://www.wikidata.org/entity/Q458&gt; wdt:P1082 ?population }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q148 wdt:P38 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wds: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?x WHERE { wd:Q692 wds:P570 ?x } LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?rocket WHERE { ?rocket wdt:P31 wd:Q41291 ; p:P448 [ps:P448 wd:Q177477]. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?developer WHERE { wd:Q131007 wdt:P178 ?developer }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT (COUNT(DISTINCT ?item) AS ?c) WHERE { ?item wdt:P31 wd:Q4830453. ?item p:P452 ?stmt. ?stmt ps:P452 ?industry. ?industry rdfs:label ?industryLabel. FILTER(REGEX(LCASE(?industryLabel), "advertising")) }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?university WHERE { wd:Q567 wdt:P69 ?university . FILTER(CONTAINS(LCASE(str(wd:Q567)), "angela merkel")) }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q15416 . ?item wdt:P161 wd:Q485310 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P161 wd:Q37079 ; wdt:P31 wd:Q11424 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q513 wdt:P131 ?uri . ?uri wdt:P31 wd:Q6256 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { wd:Q9696 wdt:P20 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { wd:Q125006 p:P177 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item p:P106 wd:Q10843402 ; p:P19 wd:Q649 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q11424. ?item pq:P161 wd:Q103894. ?item wdt:P577 ?date. } ORDER BY DESC(?date) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?item ?itemLabel WHERE { ?item wdt:P31 wd:Q8502; p:P2044 ?statement. ?statement ps:P2044 ?elevation. } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?pop WHERE { wd:Q85 wdt:P1082 ?pop }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri p:P19 ?statement. ?statement wdt:P19 wd:Q160544. VALUES ?type { wd:Q5 wd:Q215627 } ?uri wdt:P31 ?type. } ORDER BY ?uri</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT (COUNT(DISTINCT ?child) AS ?c) WHERE { wd:Q34969 wdt:P40 ?child }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?elevation WHERE { wd:Q58226 wdt:P2044 ?elevation. } LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q5806 wdt:P17 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdid: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?height WHERE { wdid:Q76717 wdt:P2048 ?height }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?uri WHERE { wd:Q1163227 wdt:P50 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?val WHERE { wd:Q189080 wdt:P136 ?val }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?place WHERE { wd:Q40912 p:P19 ?place. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?city ?cityLabel ?population WHERE { ?city wdt:P31 wd:Q515 . ?city wdt:P1082 ?population . SERVICE wikibase:label { bd:serviceParam wikibase:language "en" . } } ORDER BY ASC(?population) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q15416 . ?item wdt:P170 wd:Q8704 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q1445650 ; wdt:P17 wd:Q34 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?ni WHERE { &lt;http://www.wikidata.org/entity/Q312&gt; wdt:P2295 ?ni . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?value WHERE { wd:Q91 wdt:P20 ?value. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?capital WHERE { wd:Q5451 p:P17 ?countryStatement . ?countryStatement ps:P17 ?country . ?country p:P36 ?capitalStatement . ?capitalStatement ps:P36 ?capital . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q6386177 wdt:P17 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?height WHERE { wd:Q41421 wdt:P2048 ?height . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?film WHERE { ?film wdt:P57 wd:Q43203 ; wdt:P161 wd:Q43203 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wdt:P38 wd:Q861690 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?population WHERE { wd:Q796 wdt:P1082 ?population }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q1445650 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q7278 ; wdt:P17 wd:Q41 ; wdt:P1142 wd:Q3781399 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?date WHERE { wd:Q162371 p:P161 ?actor . ?actor wdt:P569 ?date . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wds: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q3235867 wds:P50 ?person . ?person wds:P135 ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q33999 . ?item wdt:P19 wd:Q183 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q125006 wdt:P84 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?composer WHERE { wd:Q23572 wdt:P86 ?composer. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q11424. ?item wdt:P57 wd:Q56094. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?bn WHERE { wd:Q23215 wdt:P1477 ?bn }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?item ?itemLabel WHERE { ?item wdt:P31 wd:Q482994 ; wdt:P175 wd:Q15862 ; wdt:P577 ?date . SERVICE wikibase:label { bd:serviceParam wikibase:language "en" . } } ORDER BY ?date LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?currency WHERE { wd:Q213 wdt:P38 ?currency }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item p:P19 ?birthPlace; p:P20 ?deathPlace. FILTER NOT EXISTS { ?item p:P19/pwdt:P214 ?birthPlace_ } FILTER NOT EXISTS { ?item p:P20/pwdt:P214 ?deathPlace_ } FILTER(EXISTS { ?item p:P19/psdt:P569 ?birthTime }) FILTER(EXISTS { ?item p:P20/psdt:P570 ?deathTime }) BIND(wd:Q1741 AS ?birthPlace) VALUES ?deathPlace { wd:Q64 wd:Q31910788 wd:Q56036 wd:Q56037 } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?bridge WHERE { ?bridge wdt:P31 wd:Q12280 . ?bridge p:P177 ?crosses . FILTER(wd:Q1471 = ?crosses || wd:Q1142326 = ?crosses) }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?musician (COUNT(?book) AS ?count) WHERE { ?musician wdt:P106/wdt:Q639669. ?book wdt:P50 ?musician. ?book wdt:P31 wd:Q571. } GROUP BY ?musician ORDER BY DESC(?count) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q15416 ; wdt:P170 wd:Q25014 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q36180 ; wdt:P166 wd:Q37922 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?discoverer WHERE { wd:Q596 wdt:P61 ?discoverer }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 [ UNION { &lt;http://www.wikidata.org/entity/Q5280538&gt; ; &lt;http://www.wikidata.org/entity/Q806349&gt; } ] ; wdt:P1303 [ UNION { &lt;http://www.wikidata.org/entity/Q119621&gt; ; &lt;http://www.wikidata.org/entity/Q8338&gt; } ] }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q3665646; p:P2048 ?height. FILTER (?height &gt; "2"^^&lt;http://www.wikidata.org/entities/quantity/2780&gt;) }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q11424. ?item wdt:P161 wd:Q40523. ?item wdt:P161 wd:Q48410. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?capital WHERE { wd:Q16 wdt:P36 ?capital }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wdt:P106 wd:Q937857 ; wdt:P19 wd:Q233 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?capital WHERE { wd:Q1009 wdt:P36 ?capital }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT (COUNT(DISTINCT ?item) AS ?c) WHERE { ?item wdt:P31 wd:Q9143 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item p:P106 ps:P106 Q11631. { ?item p:P27 ps:P27 dbr:Q2184 } UNION { ?item p:P27 ps:P27 dbr:Q15180 } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q5930 wdt:P170 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/direct/P&gt; SELECT ?population WHERE { wd:Q1489 p:1082 ?population }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?creatorUri WHERE { wd:Q2695156 wdt:P170 ?creatorUri. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?num WHERE { wd:Q408 wdt:P36 ?x . ?x wdt:P1082 ?num . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?area WHERE { wd:Q1198 wdt:P2046 ?area }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?number WHERE { &lt;http://www.wikidata.org/entity/Q37156&gt; &lt;http://www.wikidata.org/entity/P1128&gt; ?number }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?n WHERE { wd:Q104123 wdt:P2769 ?n }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; p:P161 [ps:P161 wd:Q219512] }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX bias: &lt;https://www.wikidata.org/wiki/Entity:&gt; SELECT DISTINCT ?item ?itemLabel WHERE { ?item p:P17/ps:P17 wd:Q35 . FILTER(bias:sttype(?item) = wd:Q11424) SERVICE wikibase:label { bd:serviceParam wikibase:language "en" } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?country WHERE { VALUES ?hmt { wd:Q5451 wd:Q26235529 wd:Q105981852 } ?hmt wdt:P17 ?country }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q6256 . ?uri wdt:P2046 ?n . } ORDER BY DESC(?n) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?Almamater WHERE { wd:Q567 wdt:P69 ?Almamater } ``` &lt;sparql&gt; SELECT ?Almamater WHERE { wd:Q567 wdt:P69 ?Almamater }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { wd:Q111135 wdt:P170 ?uri }</t>
   </si>
   <si>
     <t>SELECT ?o1 WHERE { &lt;http://www.wikidata.org/entity/Q1336200&gt;  &lt;http://www.wikidata.org/prop/direct/P112&gt;  ?o1 .  }</t>
@@ -955,42 +1555,84 @@
     <t>['http://www.wikidata.org/entity/Q103474', 'http://www.wikidata.org/entity/Q105702', 'http://www.wikidata.org/entity/Q108297', 'http://www.wikidata.org/entity/Q110624336', 'http://www.wikidata.org/entity/Q1434632', 'http://www.wikidata.org/entity/Q181086', 'http://www.wikidata.org/entity/Q186341', 'http://www.wikidata.org/entity/Q209481', 'http://www.wikidata.org/entity/Q2164458', 'http://www.wikidata.org/entity/Q243439', 'http://www.wikidata.org/entity/Q426628', 'http://www.wikidata.org/entity/Q471716', 'http://www.wikidata.org/entity/Q536560', 'http://www.wikidata.org/entity/Q592072', 'http://www.wikidata.org/entity/Q747936', 'http://www.wikidata.org/entity/Q929157', 'http://www.wikidata.org/entity/Q936477']</t>
   </si>
   <si>
+    <t>['No answer']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q246125']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q101859', 'http://www.wikidata.org/entity/Q101959', 'http://www.wikidata.org/entity/Q104761', 'http://www.wikidata.org/entity/Q105254', 'http://www.wikidata.org/entity/Q105861', 'http://www.wikidata.org/entity/Q106394', 'http://www.wikidata.org/entity/Q141971', 'http://www.wikidata.org/entity/Q15755', 'http://www.wikidata.org/entity/Q157828', 'http://www.wikidata.org/entity/Q15789', 'http://www.wikidata.org/entity/Q162251', 'http://www.wikidata.org/entity/Q22707', 'http://www.wikidata.org/entity/Q38245', 'http://www.wikidata.org/entity/Q41420', 'http://www.wikidata.org/entity/Q4512', 'http://www.wikidata.org/entity/Q51976', 'http://www.wikidata.org/entity/Q6463', 'http://www.wikidata.org/entity/Q702455']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q110154', 'http://www.wikidata.org/entity/Q116281', 'http://www.wikidata.org/entity/Q1209826', 'http://www.wikidata.org/entity/Q1320797', 'http://www.wikidata.org/entity/Q1338682', 'http://www.wikidata.org/entity/Q1396278', 'http://www.wikidata.org/entity/Q152773', 'http://www.wikidata.org/entity/Q16296', 'http://www.wikidata.org/entity/Q16297', 'http://www.wikidata.org/entity/Q16345', 'http://www.wikidata.org/entity/Q16349', 'http://www.wikidata.org/entity/Q1720634', 'http://www.wikidata.org/entity/Q18211660', 'http://www.wikidata.org/entity/Q190523', 'http://www.wikidata.org/entity/Q2263306', 'http://www.wikidata.org/entity/Q230038', 'http://www.wikidata.org/entity/Q231576', 'http://www.wikidata.org/entity/Q234114', 'http://www.wikidata.org/entity/Q23466', 'http://www.wikidata.org/entity/Q238168', 'http://www.wikidata.org/entity/Q2439878', 'http://www.wikidata.org/entity/Q2451563', 'http://www.wikidata.org/entity/Q254038', 'http://www.wikidata.org/entity/Q266391', 'http://www.wikidata.org/entity/Q2667506', 'http://www.wikidata.org/entity/Q272214', 'http://www.wikidata.org/entity/Q2805350', 'http://www.wikidata.org/entity/Q2933924', 'http://www.wikidata.org/entity/Q2965115', 'http://www.wikidata.org/entity/Q311699', 'http://www.wikidata.org/entity/Q313789', 'http://www.wikidata.org/entity/Q3177047', 'http://www.wikidata.org/entity/Q318412', 'http://www.wikidata.org/entity/Q3300864', 'http://www.wikidata.org/entity/Q3441429', 'http://www.wikidata.org/entity/Q346595', 'http://www.wikidata.org/entity/Q348445', 'http://www.wikidata.org/entity/Q3559413', 'http://www.wikidata.org/entity/Q356846', 'http://www.wikidata.org/entity/Q363271', 'http://www.wikidata.org/entity/Q366012', 'http://www.wikidata.org/entity/Q376176', 'http://www.wikidata.org/entity/Q378538', 'http://www.wikidata.org/entity/Q3852420', 'http://www.wikidata.org/entity/Q3877584', 'http://www.wikidata.org/entity/Q42329064', 'http://www.wikidata.org/entity/Q442025', 'http://www.wikidata.org/entity/Q444217', 'http://www.wikidata.org/entity/Q461794', 'http://www.wikidata.org/entity/Q504028', 'http://www.wikidata.org/entity/Q5115837', 'http://www.wikidata.org/entity/Q5213941', 'http://www.wikidata.org/entity/Q5407123', 'http://www.wikidata.org/entity/Q550778', 'http://www.wikidata.org/entity/Q552103', 'http://www.wikidata.org/entity/Q6066272', 'http://www.wikidata.org/entity/Q6308308', 'http://www.wikidata.org/entity/Q6811353']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q999636']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['1986-02-28T00:00:00Z']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q1198059', 'http://www.wikidata.org/entity/Q1235065', 'http://www.wikidata.org/entity/Q1527877', 'http://www.wikidata.org/entity/Q1630930', 'http://www.wikidata.org/entity/Q2497114', 'http://www.wikidata.org/entity/Q325643', 'http://www.wikidata.org/entity/Q426314', 'http://www.wikidata.org/entity/Q4430', 'http://www.wikidata.org/entity/Q568696', 'http://www.wikidata.org/entity/Q634049', 'http://www.wikidata.org/entity/Q668569', 'http://www.wikidata.org/entity/Q910226']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q3415083']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954', 'http://www.wikidata.org/entity/Q20899741', 'http://www.wikidata.org/entity/Q244975']</t>
+  </si>
+  <si>
+    <t>['1978-04-09T00:00:00Z']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q12152']</t>
+  </si>
+  <si>
+    <t>['101']</t>
+  </si>
+  <si>
     <t>['Query failed']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q246125']</t>
-  </si>
-  <si>
-    <t>['No answer']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q3415083']</t>
-  </si>
-  <si>
-    <t>['1978-04-09T00:00:00Z']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q12152']</t>
-  </si>
-  <si>
-    <t>['101']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
   </si>
   <si>
     <t>['http://www.wikidata.org/entity/Q115934307', 'http://www.wikidata.org/entity/Q123134707', 'http://www.wikidata.org/entity/Q123352703', 'http://www.wikidata.org/entity/Q1262898', 'http://www.wikidata.org/entity/Q18011281', 'http://www.wikidata.org/entity/Q20714076', 'http://www.wikidata.org/entity/Q286493', 'http://www.wikidata.org/entity/Q54869832', 'http://www.wikidata.org/entity/Q60789091', 'http://www.wikidata.org/entity/Q7847774', 'http://www.wikidata.org/entity/Q844324']</t>
   </si>
   <si>
+    <t>['1735-10-30T00:00:00Z']</t>
+  </si>
+  <si>
     <t>['447706209']</t>
   </si>
   <si>
     <t>['1616-05-03T00:00:00Z']</t>
   </si>
   <si>
+    <t xml:space="preserve">['http://www.wikidata.org/entity/Q100695440', 'http://www.wikidata.org/entity/Q1019313', 'http://www.wikidata.org/entity/Q102245375', 'http://www.wikidata.org/entity/Q1039445', 'http://www.wikidata.org/entity/Q104186080', 'http://www.wikidata.org/entity/Q10449219', 'http://www.wikidata.org/entity/Q1047492', 'http://www.wikidata.org/entity/Q1061394', 'http://www.wikidata.org/entity/Q106150403', 'http://www.wikidata.org/entity/Q106363078', 'http://www.wikidata.org/entity/Q1072125', 'http://www.wikidata.org/entity/Q1083890', 'http://www.wikidata.org/entity/Q10855760', 'http://www.wikidata.org/entity/Q10855761', 'http://www.wikidata.org/entity/Q10856210', 'http://www.wikidata.org/entity/Q10859834', 'http://www.wikidata.org/entity/Q10860535', 'http://www.wikidata.org/entity/Q10889854', 'http://www.wikidata.org/entity/Q109368351', 'http://www.wikidata.org/entity/Q10938711', 'http://www.wikidata.org/entity/Q109405713', 'http://www.wikidata.org/entity/Q10943140', 'http://www.wikidata.org/entity/Q109673419', 'http://www.wikidata.org/entity/Q1111504', 'http://www.wikidata.org/entity/Q112224546', 'http://www.wikidata.org/entity/Q11234719', 'http://www.wikidata.org/entity/Q11241368', 'http://www.wikidata.org/entity/Q11261668', 'http://www.wikidata.org/entity/Q112673064', 'http://www.wikidata.org/entity/Q11276631', 'http://www.wikidata.org/entity/Q11285385', 'http://www.wikidata.org/entity/Q11286923', 'http://www.wikidata.org/entity/Q11353972', 'http://www.wikidata.org/entity/Q11354008', 'http://www.wikidata.org/entity/Q11356195', 'http://www.wikidata.org/entity/Q11357220', 'http://www.wikidata.org/entity/Q11358913', 'http://www.wikidata.org/entity/Q11360086', 'http://www.wikidata.org/entity/Q11360847', 'http://www.wikidata.org/entity/Q11361905', 'http://www.wikidata.org/entity/Q11362796', 'http://www.wikidata.org/entity/Q11362797', 'http://www.wikidata.org/entity/Q11362799', 'http://www.wikidata.org/entity/Q11369263', 'http://www.wikidata.org/entity/Q11369927', 'http://www.wikidata.org/entity/Q11370029', 'http://www.wikidata.org/entity/Q11370104', 'http://www.wikidata.org/entity/Q11371742', 'http://www.wikidata.org/entity/Q11373491', 'http://www.wikidata.org/entity/Q11376329', 'http://www.wikidata.org/entity/Q11377524', 'http://www.wikidata.org/entity/Q11378204', 'http://www.wikidata.org/entity/Q11379228', 'http://www.wikidata.org/entity/Q11379335', 'http://www.wikidata.org/entity/Q11382608', 'http://www.wikidata.org/entity/Q11383201', 'http://www.wikidata.org/entity/Q11383217', 'http://www.wikidata.org/entity/Q11385812', 'http://www.wikidata.org/entity/Q11386818', 'http://www.wikidata.org/entity/Q11390867', 'http://www.wikidata.org/entity/Q11390868', 'http://www.wikidata.org/entity/Q11392330', 'http://www.wikidata.org/entity/Q11394726', 'http://www.wikidata.org/entity/Q11395612', 'http://www.wikidata.org/entity/Q11395786', 'http://www.wikidata.org/entity/Q11397118', 'http://www.wikidata.org/entity/Q11398556', 'http://www.wikidata.org/entity/Q11399769', 'http://www.wikidata.org/entity/Q11401908', 'http://www.wikidata.org/entity/Q11402215', 'http://www.wikidata.org/entity/Q11402223', 'http://www.wikidata.org/entity/Q11407776', 'http://www.wikidata.org/entity/Q11409587', 'http://www.wikidata.org/entity/Q11410659', 'http://www.wikidata.org/entity/Q11415949', 'http://www.wikidata.org/entity/Q11415951', 'http://www.wikidata.org/entity/Q11415952', 'http://www.wikidata.org/entity/Q11415953', 'http://www.wikidata.org/entity/Q11416626', 'http://www.wikidata.org/entity/Q11418533', 'http://www.wikidata.org/entity/Q11419386', 'http://www.wikidata.org/entity/Q11419637', 'http://www.wikidata.org/entity/Q11420237', 'http://www.wikidata.org/entity/Q11424450', 'http://www.wikidata.org/entity/Q11424752', 'http://www.wikidata.org/entity/Q11425641', 'http://www.wikidata.org/entity/Q11430798', 'http://www.wikidata.org/entity/Q11431830', 'http://www.wikidata.org/entity/Q11432478', 'http://www.wikidata.org/entity/Q11434172', 'http://www.wikidata.org/entity/Q11434804', 'http://www.wikidata.org/entity/Q11434805', 'http://www.wikidata.org/entity/Q11434806', 'http://www.wikidata.org/entity/Q11434807', 'http://www.wikidata.org/entity/Q11434809', 'http://www.wikidata.org/entity/Q11434813', 'http://www.wikidata.org/entity/Q11434815', 'http://www.wikidata.org/entity/Q11434816', 'http://www.wikidata.org/entity/Q11434819', 'http://www.wikidata.org/entity/Q11435005', 'http://www.wikidata.org/entity/Q11435006', 'http://www.wikidata.org/entity/Q11436454', 'http://www.wikidata.org/entity/Q11436765', 'http://www.wikidata.org/entity/Q11437275', 'http://www.wikidata.org/entity/Q11438136', 'http://www.wikidata.org/entity/Q11438379', 'http://www.wikidata.org/entity/Q11439590', 'http://www.wikidata.org/entity/Q11442082', 'http://www.wikidata.org/entity/Q11443237', 'http://www.wikidata.org/entity/Q11445536', 'http://www.wikidata.org/entity/Q11446412', 'http://www.wikidata.org/entity/Q11447403', 'http://www.wikidata.org/entity/Q11447404', 'http://www.wikidata.org/entity/Q11449014', 'http://www.wikidata.org/entity/Q11449464', 'http://www.wikidata.org/entity/Q11450585', 'http://www.wikidata.org/entity/Q11454772', 'http://www.wikidata.org/entity/Q11458850', 'http://www.wikidata.org/entity/Q11459344', 'http://www.wikidata.org/entity/Q11459579', 'http://www.wikidata.org/entity/Q11460065', 'http://www.wikidata.org/entity/Q11460438', 'http://www.wikidata.org/entity/Q11464517', 'http://www.wikidata.org/entity/Q11465691', 'http://www.wikidata.org/entity/Q11474307', 'http://www.wikidata.org/entity/Q11474346', 'http://www.wikidata.org/entity/Q11475712', 'http://www.wikidata.org/entity/Q11476827', 'http://www.wikidata.org/entity/Q11476897', 'http://www.wikidata.org/entity/Q11477129', 'http://www.wikidata.org/entity/Q11477305', 'http://www.wikidata.org/entity/Q11477410', 'http://www.wikidata.org/entity/Q11481155', 'http://www.wikidata.org/entity/Q11482668', 'http://www.wikidata.org/entity/Q11482669', 'http://www.wikidata.org/entity/Q11483492', 'http://www.wikidata.org/entity/Q11483589', 'http://www.wikidata.org/entity/Q11483827', 'http://www.wikidata.org/entity/Q11484404', 'http://www.wikidata.org/entity/Q11486132', 'http://www.wikidata.org/entity/Q11486908', 'http://www.wikidata.org/entity/Q11486909', 'http://www.wikidata.org/entity/Q11486910', 'http://www.wikidata.org/entity/Q11486911', 'http://www.wikidata.org/entity/Q11487067', 'http://www.wikidata.org/entity/Q11487395', 'http://www.wikidata.org/entity/Q11488768', 'http://www.wikidata.org/entity/Q11489067', 'http://www.wikidata.org/entity/Q11489240', 'http://www.wikidata.org/entity/Q11489251', 'http://www.wikidata.org/entity/Q11490807', 'http://www.wikidata.org/entity/Q11491460', 'http://www.wikidata.org/entity/Q11491674', 'http://www.wikidata.org/entity/Q11492404', 'http://www.wikidata.org/entity/Q11492410', 'http://www.wikidata.org/entity/Q11492883', 'http://www.wikidata.org/entity/Q11492884', 'http://www.wikidata.org/entity/Q11496323', 'http://www.wikidata.org/entity/Q11496324', 'http://www.wikidata.org/entity/Q11496670', 'http://www.wikidata.org/entity/Q11497087', 'http://www.wikidata.org/entity/Q11497519', 'http://www.wikidata.org/entity/Q11500406', 'http://www.wikidata.org/entity/Q11501924', 'http://www.wikidata.org/entity/Q11502024', 'http://www.wikidata.org/entity/Q11502876', 'http://www.wikidata.org/entity/Q11504920', 'http://www.wikidata.org/entity/Q11505281', 'http://www.wikidata.org/entity/Q11505343', 'http://www.wikidata.org/entity/Q11511249', 'http://www.wikidata.org/entity/Q11516644', 'http://www.wikidata.org/entity/Q11520216', 'http://www.wikidata.org/entity/Q11530091', 'http://www.wikidata.org/entity/Q11530093', 'http://www.wikidata.org/entity/Q11532746', 'http://www.wikidata.org/entity/Q11533729', 'http://www.wikidata.org/entity/Q11542683', 'http://www.wikidata.org/entity/Q11542685', 'http://www.wikidata.org/entity/Q11543672', 'http://www.wikidata.org/entity/Q11544654', 'http://www.wikidata.org/entity/Q11544655', 'http://www.wikidata.org/entity/Q11545996', 'http://www.wikidata.org/entity/Q11547731', 'http://www.wikidata.org/entity/Q11548193', 'http://www.wikidata.org/entity/Q11548462', 'http://www.wikidata.org/entity/Q11550173', 'http://www.wikidata.org/entity/Q11550842', 'http://www.wikidata.org/entity/Q11550845', 'http://www.wikidata.org/entity/Q11551591', 'http://www.wikidata.org/entity/Q11552439', 'http://www.wikidata.org/entity/Q11552466', 'http://www.wikidata.org/entity/Q11552477', 'http://www.wikidata.org/entity/Q11552498', 'http://www.wikidata.org/entity/Q11552502', 'http://www.wikidata.org/entity/Q11552549', 'http://www.wikidata.org/entity/Q11553027', 'http://www.wikidata.org/entity/Q11555929', 'http://www.wikidata.org/entity/Q11555966', 'http://www.wikidata.org/entity/Q11556058', 'http://www.wikidata.org/entity/Q11556221', 'http://www.wikidata.org/entity/Q11558501', 'http://www.wikidata.org/entity/Q11558503', 'http://www.wikidata.org/entity/Q11558824', 'http://www.wikidata.org/entity/Q11559068', 'http://www.wikidata.org/entity/Q11559418', 'http://www.wikidata.org/entity/Q11559763', 'http://www.wikidata.org/entity/Q11559986', 'http://www.wikidata.org/entity/Q11562837', 'http://www.wikidata.org/entity/Q11563518', 'http://www.wikidata.org/entity/Q11567224', 'http://www.wikidata.org/entity/Q11567245', 'http://www.wikidata.org/entity/Q11567267', 'http://www.wikidata.org/entity/Q11572200', 'http://www.wikidata.org/entity/Q11572311', 'http://www.wikidata.org/entity/Q11573306', 'http://www.wikidata.org/entity/Q11573823', 'http://www.wikidata.org/entity/Q11574179', 'http://www.wikidata.org/entity/Q11574434', 'http://www.wikidata.org/entity/Q11574442', 'http://www.wikidata.org/entity/Q11574503', 'http://www.wikidata.org/entity/Q11574566', 'http://www.wikidata.org/entity/Q11574873', 'http://www.wikidata.org/entity/Q11576597', 'http://www.wikidata.org/entity/Q11577548', 'http://www.wikidata.org/entity/Q11577742', 'http://www.wikidata.org/entity/Q11578144', 'http://www.wikidata.org/entity/Q11578192', 'http://www.wikidata.org/entity/Q11578542', 'http://www.wikidata.org/entity/Q11579570', 'http://www.wikidata.org/entity/Q11580729', 'http://www.wikidata.org/entity/Q11580862', 'http://www.wikidata.org/entity/Q11580911', 'http://www.wikidata.org/entity/Q11581974', 'http://www.wikidata.org/entity/Q11581975', 'http://www.wikidata.org/entity/Q11583780', 'http://www.wikidata.org/entity/Q11583965', 'http://www.wikidata.org/entity/Q11588028', 'http://www.wikidata.org/entity/Q11588453', 'http://www.wikidata.org/entity/Q11589438', 'http://www.wikidata.org/entity/Q11589594', 'http://www.wikidata.org/entity/Q11591024', 'http://www.wikidata.org/entity/Q11592984', 'http://www.wikidata.org/entity/Q11596394', 'http://www.wikidata.org/entity/Q11598512', 'http://www.wikidata.org/entity/Q11598646', 'http://www.wikidata.org/entity/Q11598647', 'http://www.wikidata.org/entity/Q11599897', 'http://www.wikidata.org/entity/Q11602695', 'http://www.wikidata.org/entity/Q11603507', 'http://www.wikidata.org/entity/Q11603714', 'http://www.wikidata.org/entity/Q11604580', 'http://www.wikidata.org/entity/Q11604657', 'http://www.wikidata.org/entity/Q11605347', 'http://www.wikidata.org/entity/Q11607173', 'http://www.wikidata.org/entity/Q11610036', 'http://www.wikidata.org/entity/Q11612025', 'http://www.wikidata.org/entity/Q11613384', 'http://www.wikidata.org/entity/Q11614676', 'http://www.wikidata.org/entity/Q11616271', 'http://www.wikidata.org/entity/Q11622569', 'http://www.wikidata.org/entity/Q11625567', 'http://www.wikidata.org/entity/Q11626891', 'http://www.wikidata.org/entity/Q11630243', 'http://www.wikidata.org/entity/Q11631382', 'http://www.wikidata.org/entity/Q11633491', 'http://www.wikidata.org/entity/Q11633492', 'http://www.wikidata.org/entity/Q11634353', 'http://www.wikidata.org/entity/Q11635889', 'http://www.wikidata.org/entity/Q11636071', 'http://www.wikidata.org/entity/Q11636883', 'http://www.wikidata.org/entity/Q116373818', 'http://www.wikidata.org/entity/Q11645346', 'http://www.wikidata.org/entity/Q11645453', 'http://www.wikidata.org/entity/Q11647939', 'http://www.wikidata.org/entity/Q11648162', 'http://www.wikidata.org/entity/Q11648224', 'http://www.wikidata.org/entity/Q11650283', 'http://www.wikidata.org/entity/Q11650626', 'http://www.wikidata.org/entity/Q11652193', 'http://www.wikidata.org/entity/Q11652198', 'http://www.wikidata.org/entity/Q11652204', 'http://www.wikidata.org/entity/Q11652207', 'http://www.wikidata.org/entity/Q11655424', 'http://www.wikidata.org/entity/Q11657147', 'http://www.wikidata.org/entity/Q11657359', 'http://www.wikidata.org/entity/Q11659209', 'http://www.wikidata.org/entity/Q11661369', 'http://www.wikidata.org/entity/Q11661370', 'http://www.wikidata.org/entity/Q11661371', 'http://www.wikidata.org/entity/Q11661373', 'http://www.wikidata.org/entity/Q11662600', 'http://www.wikidata.org/entity/Q11664922', 'http://www.wikidata.org/entity/Q11664932', 'http://www.wikidata.org/entity/Q11665527', 'http://www.wikidata.org/entity/Q11665758', 'http://www.wikidata.org/entity/Q11665759', 'http://www.wikidata.org/entity/Q11667955', 'http://www.wikidata.org/entity/Q11667995', 'http://www.wikidata.org/entity/Q11668024', 'http://www.wikidata.org/entity/Q11668037', 'http://www.wikidata.org/entity/Q11668718', 'http://www.wikidata.org/entity/Q11669590', 'http://www.wikidata.org/entity/Q11669595', 'http://www.wikidata.org/entity/Q11669597', 'http://www.wikidata.org/entity/Q11669598', 'http://www.wikidata.org/entity/Q11669599', 'http://www.wikidata.org/entity/Q11669603', 'http://www.wikidata.org/entity/Q11669605', 'http://www.wikidata.org/entity/Q11670635', 'http://www.wikidata.org/entity/Q11673959', 'http://www.wikidata.org/entity/Q11674270', 'http://www.wikidata.org/entity/Q11675635', 'http://www.wikidata.org/entity/Q11675694', 'http://www.wikidata.org/entity/Q11675705', 'http://www.wikidata.org/entity/Q11675721', 'http://www.wikidata.org/entity/Q11675825', 'http://www.wikidata.org/entity/Q11676467', 'http://www.wikidata.org/entity/Q11677072', 'http://www.wikidata.org/entity/Q116774724', 'http://www.wikidata.org/entity/Q11678083', 'http://www.wikidata.org/entity/Q11678144', 'http://www.wikidata.org/entity/Q11678145', 'http://www.wikidata.org/entity/Q11678146', 'http://www.wikidata.org/entity/Q11678147', 'http://www.wikidata.org/entity/Q11678919', 'http://www.wikidata.org/entity/Q1204188', 'http://www.wikidata.org/entity/Q12122598', 'http://www.wikidata.org/entity/Q12168088', 'http://www.wikidata.org/entity/Q122792969', 'http://www.wikidata.org/entity/Q123092880', 'http://www.wikidata.org/entity/Q123554758', 'http://www.wikidata.org/entity/Q123554899', 'http://www.wikidata.org/entity/Q123563180', 'http://www.wikidata.org/entity/Q123568579', 'http://www.wikidata.org/entity/Q123592347', 'http://www.wikidata.org/entity/Q123592528', 'http://www.wikidata.org/entity/Q123630881', 'http://www.wikidata.org/entity/Q123631133', 'http://www.wikidata.org/entity/Q123848497', 'http://www.wikidata.org/entity/Q126617200', 'http://www.wikidata.org/entity/Q130120', 'http://www.wikidata.org/entity/Q130535', 'http://www.wikidata.org/entity/Q1344326', 'http://www.wikidata.org/entity/Q137962', 'http://www.wikidata.org/entity/Q13987', 'http://www.wikidata.org/entity/Q13991', 'http://www.wikidata.org/entity/Q1414691', 'http://www.wikidata.org/entity/Q145371', 'http://www.wikidata.org/entity/Q1475428', 'http://www.wikidata.org/entity/Q14948405', 'http://www.wikidata.org/entity/Q14948406', 'http://www.wikidata.org/entity/Q15231937', 'http://www.wikidata.org/entity/Q15233224', 'http://www.wikidata.org/entity/Q1532472', 'http://www.wikidata.org/entity/Q15914611', 'http://www.wikidata.org/entity/Q15914636', 'http://www.wikidata.org/entity/Q15914793', 'http://www.wikidata.org/entity/Q15914839', 'http://www.wikidata.org/entity/Q15914850', 'http://www.wikidata.org/entity/Q15914965', 'http://www.wikidata.org/entity/Q15915038', 'http://www.wikidata.org/entity/Q15915094', 'http://www.wikidata.org/entity/Q15915371', 'http://www.wikidata.org/entity/Q15915516', 'http://www.wikidata.org/entity/Q15915542', 'http://www.wikidata.org/entity/Q15915739', 'http://www.wikidata.org/entity/Q15915768', 'http://www.wikidata.org/entity/Q15915877', 'http://www.wikidata.org/entity/Q15915985', 'http://www.wikidata.org/entity/Q15916001', 'http://www.wikidata.org/entity/Q15916180', 'http://www.wikidata.org/entity/Q15916186', 'http://www.wikidata.org/entity/Q15916187', 'http://www.wikidata.org/entity/Q15916216', 'http://www.wikidata.org/entity/Q15916253', 'http://www.wikidata.org/entity/Q15916254', 'http://www.wikidata.org/entity/Q15916285', 'http://www.wikidata.org/entity/Q15916297', 'http://www.wikidata.org/entity/Q15916298', 'http://www.wikidata.org/entity/Q15916369', 'http://www.wikidata.org/entity/Q15916370', 'http://www.wikidata.org/entity/Q15916387', 'http://www.wikidata.org/entity/Q15916410', 'http://www.wikidata.org/entity/Q15916434', 'http://www.wikidata.org/entity/Q15916435', 'http://www.wikidata.org/entity/Q15916437', 'http://www.wikidata.org/entity/Q15916438', 'http://www.wikidata.org/entity/Q15916508', 'http://www.wikidata.org/entity/Q15923957', 'http://www.wikidata.org/entity/Q15924538', 'http://www.wikidata.org/entity/Q15925138', 'http://www.wikidata.org/entity/Q15925270', 'http://www.wikidata.org/entity/Q1676132', 'http://www.wikidata.org/entity/Q169589', 'http://www.wikidata.org/entity/Q17021654', 'http://www.wikidata.org/entity/Q17023687', 'http://www.wikidata.org/entity/Q17031459', 'http://www.wikidata.org/entity/Q17039990', 'http://www.wikidata.org/entity/Q17191315', 'http://www.wikidata.org/entity/Q17191378', 'http://www.wikidata.org/entity/Q17192049', 'http://www.wikidata.org/entity/Q17192826', 'http://www.wikidata.org/entity/Q17193690', 'http://www.wikidata.org/entity/Q17210135', 'http://www.wikidata.org/entity/Q17210185', 'http://www.wikidata.org/entity/Q17211889', 'http://www.wikidata.org/entity/Q17214084', 'http://www.wikidata.org/entity/Q17215469', 'http://www.wikidata.org/entity/Q17216064', 'http://www.wikidata.org/entity/Q17216375', 'http://www.wikidata.org/entity/Q17217423', 'http://www.wikidata.org/entity/Q17219919', 'http://www.wikidata.org/entity/Q17221048', 'http://www.wikidata.org/entity/Q17222656', 'http://www.wikidata.org/entity/Q17223389', 'http://www.wikidata.org/entity/Q17225029', 'http://www.wikidata.org/entity/Q17989148', 'http://www.wikidata.org/entity/Q17989626', 'http://www.wikidata.org/entity/Q17992764', 'http://www.wikidata.org/entity/Q17993734', 'http://www.wikidata.org/entity/Q17995776', 'http://www.wikidata.org/entity/Q18003098', 'http://www.wikidata.org/entity/Q18009413', 'http://www.wikidata.org/entity/Q18010599', 'http://www.wikidata.org/entity/Q1803811', 'http://www.wikidata.org/entity/Q18335728', 'http://www.wikidata.org/entity/Q18336591', 'http://www.wikidata.org/entity/Q18336657', 'http://www.wikidata.org/entity/Q18338827', 'http://www.wikidata.org/entity/Q18338974', 'http://www.wikidata.org/entity/Q18339013', 'http://www.wikidata.org/entity/Q18339157', 'http://www.wikidata.org/entity/Q18339362', 'http://www.wikidata.org/entity/Q18339537', 'http://www.wikidata.org/entity/Q18339548', 'http://www.wikidata.org/entity/Q18700735', 'http://www.wikidata.org/entity/Q187366', 'http://www.wikidata.org/entity/Q196701', 'http://www.wikidata.org/entity/Q19926707', 'http://www.wikidata.org/entity/Q19927579', 'http://www.wikidata.org/entity/Q19927913', 'http://www.wikidata.org/entity/Q19928028', 'http://www.wikidata.org/entity/Q1995509', 'http://www.wikidata.org/entity/Q19969455', 'http://www.wikidata.org/entity/Q19969456', 'http://www.wikidata.org/entity/Q19969457', 'http://www.wikidata.org/entity/Q19969459', 'http://www.wikidata.org/entity/Q19969461', 'http://www.wikidata.org/entity/Q19969462', 'http://www.wikidata.org/entity/Q19969463', 'http://www.wikidata.org/entity/Q20043639', 'http://www.wikidata.org/entity/Q20160219', 'http://www.wikidata.org/entity/Q2018422', 'http://www.wikidata.org/entity/Q20207875', 'http://www.wikidata.org/entity/Q20208336', 'http://www.wikidata.org/entity/Q20208605', 'http://www.wikidata.org/entity/Q20220282', 'http://www.wikidata.org/entity/Q20220291', 'http://www.wikidata.org/entity/Q20249559', 'http://www.wikidata.org/entity/Q20251315', 'http://www.wikidata.org/entity/Q20267482', 'http://www.wikidata.org/entity/Q20441459', 'http://www.wikidata.org/entity/Q20441495', 'http://www.wikidata.org/entity/Q20441538', 'http://www.wikidata.org/entity/Q20441672', 'http://www.wikidata.org/entity/Q20441835', 'http://www.wikidata.org/entity/Q20442833', 'http://www.wikidata.org/entity/Q20442886', 'http://www.wikidata.org/entity/Q20454159', 'http://www.wikidata.org/entity/Q20652984', 'http://www.wikidata.org/entity/Q20653009', 'http://www.wikidata.org/entity/Q20653020', 'http://www.wikidata.org/entity/Q20653048', 'http://www.wikidata.org/entity/Q20653083', 'http://www.wikidata.org/entity/Q20653128', 'http://www.wikidata.org/entity/Q20655767', 'http://www.wikidata.org/entity/Q20655779', 'http://www.wikidata.org/entity/Q20655824', 'http://www.wikidata.org/entity/Q20655829', 'http://www.wikidata.org/entity/Q20655854', 'http://www.wikidata.org/entity/Q20655861', 'http://www.wikidata.org/entity/Q20656218', 'http://www.wikidata.org/entity/Q20662194', 'http://www.wikidata.org/entity/Q20662421', 'http://www.wikidata.org/entity/Q20665543', 'http://www.wikidata.org/entity/Q20669152', 'http://www.wikidata.org/entity/Q20669173', 'http://www.wikidata.org/entity/Q20669188', 'http://www.wikidata.org/entity/Q20669201', 'http://www.wikidata.org/entity/Q20669474', 'http://www.wikidata.org/entity/Q20670485', 'http://www.wikidata.org/entity/Q20670486', 'http://www.wikidata.org/entity/Q20670489', 'http://www.wikidata.org/entity/Q20670490', 'http://www.wikidata.org/entity/Q20670802', 'http://www.wikidata.org/entity/Q20670818', 'http://www.wikidata.org/entity/Q20670842', 'http://www.wikidata.org/entity/Q20680346', 'http://www.wikidata.org/entity/Q20681784', 'http://www.wikidata.org/entity/Q20681836', 'http://www.wikidata.org/entity/Q20687296', 'http://www.wikidata.org/entity/Q20706572', 'http://www.wikidata.org/entity/Q20706579', 'http://www.wikidata.org/entity/Q20706699', 'http://www.wikidata.org/entity/Q20709285', 'http://www.wikidata.org/entity/Q2118388', 'http://www.wikidata.org/entity/Q21652956', 'http://www.wikidata.org/entity/Q21652975', 'http://www.wikidata.org/entity/Q21653337', 'http://www.wikidata.org/entity/Q21653909', 'http://www.wikidata.org/entity/Q21654565', 'http://www.wikidata.org/entity/Q2166413', 'http://www.wikidata.org/entity/Q220701', 'http://www.wikidata.org/entity/Q23069893', 'http://www.wikidata.org/entity/Q2407298', 'http://www.wikidata.org/entity/Q242176', 'http://www.wikidata.org/entity/Q24488445', 'http://www.wikidata.org/entity/Q247515', 'http://www.wikidata.org/entity/Q24871573', 'http://www.wikidata.org/entity/Q24872138', 'http://www.wikidata.org/entity/Q24875184', 'http://www.wikidata.org/entity/Q24898648', 'http://www.wikidata.org/entity/Q24902485', 'http://www.wikidata.org/entity/Q27560716', 'http://www.wikidata.org/entity/Q277035', 'http://www.wikidata.org/entity/Q28155659', 'http://www.wikidata.org/entity/Q285468', 'http://www.wikidata.org/entity/Q28682242', 'http://www.wikidata.org/entity/Q28682892', 'http://www.wikidata.org/entity/Q28682901', 'http://www.wikidata.org/entity/Q28683300', 'http://www.wikidata.org/entity/Q28684991', 'http://www.wikidata.org/entity/Q28684995', 'http://www.wikidata.org/entity/Q28687509', 'http://www.wikidata.org/entity/Q28687512', 'http://www.wikidata.org/entity/Q28687517', 'http://www.wikidata.org/entity/Q28687518', 'http://www.wikidata.org/entity/Q28687526', 'http://www.wikidata.org/entity/Q28687528', 'http://www.wikidata.org/entity/Q28687549', 'http://www.wikidata.org/entity/Q28687551', 'http://www.wikidata.org/entity/Q28687556', 'http://www.wikidata.org/entity/Q28687561', 'http://www.wikidata.org/entity/Q28687591', 'http://www.wikidata.org/entity/Q28693411', 'http://www.wikidata.org/entity/Q29980548', 'http://www.wikidata.org/entity/Q30925772', 'http://www.wikidata.org/entity/Q30925773', 'http://www.wikidata.org/entity/Q30931692', 'http://www.wikidata.org/entity/Q30931979', 'http://www.wikidata.org/entity/Q3108859', 'http://www.wikidata.org/entity/Q3199146', 'http://www.wikidata.org/entity/Q3285144', 'http://www.wikidata.org/entity/Q328533', 'http://www.wikidata.org/entity/Q3349795', 'http://www.wikidata.org/entity/Q339004', 'http://www.wikidata.org/entity/Q34783955', 'http://www.wikidata.org/entity/Q34783964', 'http://www.wikidata.org/entity/Q34783974', 'http://www.wikidata.org/entity/Q34784035', 'http://www.wikidata.org/entity/Q34784045', 'http://www.wikidata.org/entity/Q34784074', 'http://www.wikidata.org/entity/Q34784082', 'http://www.wikidata.org/entity/Q34784090', 'http://www.wikidata.org/entity/Q34784099', 'http://www.wikidata.org/entity/Q34784108', 'http://www.wikidata.org/entity/Q34784117', 'http://www.wikidata.org/entity/Q34784145', 'http://www.wikidata.org/entity/Q34784154', 'http://www.wikidata.org/entity/Q34784163', 'http://www.wikidata.org/entity/Q34784172', 'http://www.wikidata.org/entity/Q34784180', 'http://www.wikidata.org/entity/Q34784236', 'http://www.wikidata.org/entity/Q34784245', 'http://www.wikidata.org/entity/Q34784264', 'http://www.wikidata.org/entity/Q34784309', 'http://www.wikidata.org/entity/Q34784328', 'http://www.wikidata.org/entity/Q34784514', 'http://www.wikidata.org/entity/Q34785535', 'http://www.wikidata.org/entity/Q34785547', 'http://www.wikidata.org/entity/Q34787923', 'http://www.wikidata.org/entity/Q34787927', 'http://www.wikidata.org/entity/Q34787936', 'http://www.wikidata.org/entity/Q34787940', 'http://www.wikidata.org/entity/Q34787945', 'http://www.wikidata.org/entity/Q34787948', 'http://www.wikidata.org/entity/Q34787955', 'http://www.wikidata.org/entity/Q34787960', 'http://www.wikidata.org/entity/Q34787964', 'http://www.wikidata.org/entity/Q34787968', 'http://www.wikidata.org/entity/Q34787980', 'http://www.wikidata.org/entity/Q34787985', 'http://www.wikidata.org/entity/Q34788048', 'http://www.wikidata.org/entity/Q34788086', 'http://www.wikidata.org/entity/Q34788091', 'http://www.wikidata.org/entity/Q34788095', 'http://www.wikidata.org/entity/Q34788578', 'http://www.wikidata.org/entity/Q34788581', 'http://www.wikidata.org/entity/Q34788617', 'http://www.wikidata.org/entity/Q34788621', 'http://www.wikidata.org/entity/Q34788699', 'http://www.wikidata.org/entity/Q34795633', 'http://www.wikidata.org/entity/Q34795652', 'http://www.wikidata.org/entity/Q34795659', 'http://www.wikidata.org/entity/Q34795671', 'http://www.wikidata.org/entity/Q34795678', 'http://www.wikidata.org/entity/Q34795686', 'http://www.wikidata.org/entity/Q34795693', 'http://www.wikidata.org/entity/Q34795722', 'http://www.wikidata.org/entity/Q34795734', 'http://www.wikidata.org/entity/Q34795744', 'http://www.wikidata.org/entity/Q34795753', 'http://www.wikidata.org/entity/Q34795770', 'http://www.wikidata.org/entity/Q34795778', 'http://www.wikidata.org/entity/Q34795788', 'http://www.wikidata.org/entity/Q34795804', 'http://www.wikidata.org/entity/Q34795808', 'http://www.wikidata.org/entity/Q34795832', 'http://www.wikidata.org/entity/Q34795844', 'http://www.wikidata.org/entity/Q34795856', 'http://www.wikidata.org/entity/Q34795867', 'http://www.wikidata.org/entity/Q34795874', 'http://www.wikidata.org/entity/Q34795887', 'http://www.wikidata.org/entity/Q34795901', 'http://www.wikidata.org/entity/Q34795907', 'http://www.wikidata.org/entity/Q34795913', 'http://www.wikidata.org/entity/Q34795937', 'http://www.wikidata.org/entity/Q34795942', 'http://www.wikidata.org/entity/Q34795954', 'http://www.wikidata.org/entity/Q34795961', 'http://www.wikidata.org/entity/Q34795967', 'http://www.wikidata.org/entity/Q34795972', 'http://www.wikidata.org/entity/Q34795984', 'http://www.wikidata.org/entity/Q34795990', 'http://www.wikidata.org/entity/Q34795996', 'http://www.wikidata.org/entity/Q34796002', 'http://www.wikidata.org/entity/Q34796008', 'http://www.wikidata.org/entity/Q34796015', 'http://www.wikidata.org/entity/Q34796021', 'http://www.wikidata.org/entity/Q34796028', 'http://www.wikidata.org/entity/Q34796033', 'http://www.wikidata.org/entity/Q34796043', 'http://www.wikidata.org/entity/Q34796055', 'http://www.wikidata.org/entity/Q34796071', 'http://www.wikidata.org/entity/Q34796095', 'http://www.wikidata.org/entity/Q34796102', 'http://www.wikidata.org/entity/Q34796119', 'http://www.wikidata.org/entity/Q34796134', 'http://www.wikidata.org/entity/Q34796146', 'http://www.wikidata.org/entity/Q34796151', 'http://www.wikidata.org/entity/Q34796158', 'http://www.wikidata.org/entity/Q34796163', 'http://www.wikidata.org/entity/Q34796170', 'http://www.wikidata.org/entity/Q34796175', 'http://www.wikidata.org/entity/Q34796180', 'http://www.wikidata.org/entity/Q34861379', 'http://www.wikidata.org/entity/Q34861390', 'http://www.wikidata.org/entity/Q34861523', 'http://www.wikidata.org/entity/Q34861562', 'http://www.wikidata.org/entity/Q34861821', 'http://www.wikidata.org/entity/Q34862653', 'http://www.wikidata.org/entity/Q3579074', 'http://www.wikidata.org/entity/Q3594049', 'http://www.wikidata.org/entity/Q3623017', 'http://www.wikidata.org/entity/Q3785700', 'http://www.wikidata.org/entity/Q382082', 'http://www.wikidata.org/entity/Q38266996', 'http://www.wikidata.org/entity/Q385313', 'http://www.wikidata.org/entity/Q385710', 'http://www.wikidata.org/entity/Q393031', 'http://www.wikidata.org/entity/Q398636', 'http://www.wikidata.org/entity/Q432124', 'http://www.wikidata.org/entity/Q4419675', 'http://www.wikidata.org/entity/Q4419682', 'http://www.wikidata.org/entity/Q4478859', 'http://www.wikidata.org/entity/Q4497854', 'http://www.wikidata.org/entity/Q4518163', 'http://www.wikidata.org/entity/Q4518364', 'http://www.wikidata.org/entity/Q4518483', 'http://www.wikidata.org/entity/Q4518560', 'http://www.wikidata.org/entity/Q4518632', 'http://www.wikidata.org/entity/Q4518662', 'http://www.wikidata.org/entity/Q4518698', 'http://www.wikidata.org/entity/Q4518728', 'http://www.wikidata.org/entity/Q4518764', 'http://www.wikidata.org/entity/Q4518813', 'http://www.wikidata.org/entity/Q4518835', 'http://www.wikidata.org/entity/Q4518882', 'http://www.wikidata.org/entity/Q4518914', 'http://www.wikidata.org/entity/Q4518946', 'http://www.wikidata.org/entity/Q4519060', 'http://www.wikidata.org/entity/Q4519100', 'http://www.wikidata.org/entity/Q4519127', 'http://www.wikidata.org/entity/Q4519202', 'http://www.wikidata.org/entity/Q4519334', 'http://www.wikidata.org/entity/Q4519416', 'http://www.wikidata.org/entity/Q4519472', 'http://www.wikidata.org/entity/Q4520401', 'http://www.wikidata.org/entity/Q4520501', 'http://www.wikidata.org/entity/Q4520623', 'http://www.wikidata.org/entity/Q4520676', 'http://www.wikidata.org/entity/Q4520740', 'http://www.wikidata.org/entity/Q473472', 'http://www.wikidata.org/entity/Q474560', 'http://www.wikidata.org/entity/Q48752569', 'http://www.wikidata.org/entity/Q48752621', 'http://www.wikidata.org/entity/Q490610', 'http://www.wikidata.org/entity/Q49333374', 'http://www.wikidata.org/entity/Q494914', 'http://www.wikidata.org/entity/Q49493', 'http://www.wikidata.org/entity/Q49500', 'http://www.wikidata.org/entity/Q49507', 'http://www.wikidata.org/entity/Q49511', 'http://www.wikidata.org/entity/Q49513', 'http://www.wikidata.org/entity/Q49631357', 'http://www.wikidata.org/entity/Q49631388', 'http://www.wikidata.org/entity/Q49631402', 'http://www.wikidata.org/entity/Q49631408', 'http://www.wikidata.org/entity/Q49631415', 'http://www.wikidata.org/entity/Q49631418', 'http://www.wikidata.org/entity/Q49631448', 'http://www.wikidata.org/entity/Q49631449', 'http://www.wikidata.org/entity/Q49631468', 'http://www.wikidata.org/entity/Q49631471', 'http://www.wikidata.org/entity/Q49631484', 'http://www.wikidata.org/entity/Q49631487', 'http://www.wikidata.org/entity/Q49631489', 'http://www.wikidata.org/entity/Q49631490', 'http://www.wikidata.org/entity/Q49631492', 'http://www.wikidata.org/entity/Q49631493', 'http://www.wikidata.org/entity/Q49631495', 'http://www.wikidata.org/entity/Q49631497', 'http://www.wikidata.org/entity/Q49631501', 'http://www.wikidata.org/entity/Q49631532', 'http://www.wikidata.org/entity/Q49631657', 'http://www.wikidata.org/entity/Q49631707', 'http://www.wikidata.org/entity/Q49631712', 'http://www.wikidata.org/entity/Q49631766', 'http://www.wikidata.org/entity/Q49631801', 'http://www.wikidata.org/entity/Q49631841', 'http://www.wikidata.org/entity/Q49631849', 'http://www.wikidata.org/entity/Q49631851', 'http://www.wikidata.org/entity/Q49631852', 'http://www.wikidata.org/entity/Q49631855', 'http://www.wikidata.org/entity/Q49631874', 'http://www.wikidata.org/entity/Q49631881', 'http://www.wikidata.org/entity/Q49631883', </t>
+  </si>
+  <si>
     <t>['http://www.wikidata.org/entity/Q178824']</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q108946', 'http://www.wikidata.org/entity/Q110138', 'http://www.wikidata.org/entity/Q110203', 'http://www.wikidata.org/entity/Q110278', 'http://www.wikidata.org/entity/Q1105359', 'http://www.wikidata.org/entity/Q1187607', 'http://www.wikidata.org/entity/Q1213746', 'http://www.wikidata.org/entity/Q126421540', 'http://www.wikidata.org/entity/Q129677718', 'http://www.wikidata.org/entity/Q1325589', 'http://www.wikidata.org/entity/Q1353728', 'http://www.wikidata.org/entity/Q159054', 'http://www.wikidata.org/entity/Q1741232', 'http://www.wikidata.org/entity/Q17548046', 'http://www.wikidata.org/entity/Q18811617', 'http://www.wikidata.org/entity/Q188845', 'http://www.wikidata.org/entity/Q18914855', 'http://www.wikidata.org/entity/Q202028', 'http://www.wikidata.org/entity/Q207130', 'http://www.wikidata.org/entity/Q209481', 'http://www.wikidata.org/entity/Q21168538', 'http://www.wikidata.org/entity/Q2324652', 'http://www.wikidata.org/entity/Q23759268', 'http://www.wikidata.org/entity/Q244604', 'http://www.wikidata.org/entity/Q288173', 'http://www.wikidata.org/entity/Q29261993', 'http://www.wikidata.org/entity/Q31202708', 'http://www.wikidata.org/entity/Q318910', 'http://www.wikidata.org/entity/Q3190085', 'http://www.wikidata.org/entity/Q329131', 'http://www.wikidata.org/entity/Q367163', 'http://www.wikidata.org/entity/Q380981', 'http://www.wikidata.org/entity/Q388408', 'http://www.wikidata.org/entity/Q470916', 'http://www.wikidata.org/entity/Q471159', 'http://www.wikidata.org/entity/Q498910', 'http://www.wikidata.org/entity/Q505790', 'http://www.wikidata.org/entity/Q509913', 'http://www.wikidata.org/entity/Q576635', 'http://www.wikidata.org/entity/Q588420', 'http://www.wikidata.org/entity/Q590252', 'http://www.wikidata.org/entity/Q591709', 'http://www.wikidata.org/entity/Q593099', 'http://www.wikidata.org/entity/Q603696', 'http://www.wikidata.org/entity/Q61876370', 'http://www.wikidata.org/entity/Q628154', 'http://www.wikidata.org/entity/Q638544', 'http://www.wikidata.org/entity/Q651060', 'http://www.wikidata.org/entity/Q679918', 'http://www.wikidata.org/entity/Q765677', 'http://www.wikidata.org/entity/Q821692', 'http://www.wikidata.org/entity/Q839341']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q3896131']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/statement/q125006-def45181-4ad3-8b69-3705-d4040e6864d7']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q123374100']</t>
+  </si>
+  <si>
     <t>['9606916']</t>
   </si>
   <si>
@@ -1006,21 +1648,48 @@
     <t>['180']</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q210669']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q11366', 'http://www.wikidata.org/entity/Q11399', 'http://www.wikidata.org/entity/Q1428637', 'http://www.wikidata.org/entity/Q1641839', 'http://www.wikidata.org/entity/Q181861', 'http://www.wikidata.org/entity/Q186472', 'http://www.wikidata.org/entity/Q206159', 'http://www.wikidata.org/entity/Q217467', 'http://www.wikidata.org/entity/Q27190', 'http://www.wikidata.org/entity/Q650316', 'http://www.wikidata.org/entity/Q76092', 'http://www.wikidata.org/entity/Q885561']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/statement/q40912-F3AEAB78-88CC-423C-A841-55A2AB46448D']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q124498859', 'http://www.wikidata.org/entity/Q1661478', 'http://www.wikidata.org/entity/Q19978123', 'http://www.wikidata.org/entity/Q200982', 'http://www.wikidata.org/entity/Q3013206', 'http://www.wikidata.org/entity/Q883628']</t>
+  </si>
+  <si>
     <t>['96995000000']</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q4799733']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q1362', 'http://www.wikidata.org/entity/Q3037', 'http://www.wikidata.org/entity/Q37400', 'http://www.wikidata.org/entity/Q37995', 'http://www.wikidata.org/entity/Q5838', 'http://www.wikidata.org/entity/Q9270', 'http://www.wikidata.org/entity/Q956', 'http://www.wikidata.org/entity/Q987']</t>
+  </si>
+  <si>
     <t>['http://www.wikidata.org/entity/Q16']</t>
   </si>
   <si>
     <t>['198']</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q103817549', 'http://www.wikidata.org/entity/Q104137', 'http://www.wikidata.org/entity/Q1125083', 'http://www.wikidata.org/entity/Q126699', 'http://www.wikidata.org/entity/Q1305799', 'http://www.wikidata.org/entity/Q1418932', 'http://www.wikidata.org/entity/Q1423573', 'http://www.wikidata.org/entity/Q1627161', 'http://www.wikidata.org/entity/Q174683', 'http://www.wikidata.org/entity/Q184255', 'http://www.wikidata.org/entity/Q332497', 'http://www.wikidata.org/entity/Q3382188', 'http://www.wikidata.org/entity/Q375186', 'http://www.wikidata.org/entity/Q399823', 'http://www.wikidata.org/entity/Q477630', 'http://www.wikidata.org/entity/Q502189', 'http://www.wikidata.org/entity/Q503338', 'http://www.wikidata.org/entity/Q544434', 'http://www.wikidata.org/entity/Q54812267', 'http://www.wikidata.org/entity/Q577306', 'http://www.wikidata.org/entity/Q598338', 'http://www.wikidata.org/entity/Q602522', 'http://www.wikidata.org/entity/Q611424', 'http://www.wikidata.org/entity/Q653251', 'http://www.wikidata.org/entity/Q741196', 'http://www.wikidata.org/entity/Q785461', 'http://www.wikidata.org/entity/Q906705']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q1007', 'http://www.wikidata.org/entity/Q1008', 'http://www.wikidata.org/entity/Q1032', 'http://www.wikidata.org/entity/Q1041', 'http://www.wikidata.org/entity/Q18408563', 'http://www.wikidata.org/entity/Q1929699', 'http://www.wikidata.org/entity/Q2386787', 'http://www.wikidata.org/entity/Q5148343', 'http://www.wikidata.org/entity/Q5148520', 'http://www.wikidata.org/entity/Q620942', 'http://www.wikidata.org/entity/Q862701', 'http://www.wikidata.org/entity/Q912', 'http://www.wikidata.org/entity/Q945', 'http://www.wikidata.org/entity/Q962', 'http://www.wikidata.org/entity/Q965']</t>
+  </si>
+  <si>
     <t>['38274618']</t>
   </si>
   <si>
     <t>['http://www.wikidata.org/entity/Q100329955', 'http://www.wikidata.org/entity/Q100597341', 'http://www.wikidata.org/entity/Q100860934', 'http://www.wikidata.org/entity/Q101026979', 'http://www.wikidata.org/entity/Q101545880', 'http://www.wikidata.org/entity/Q101627559', 'http://www.wikidata.org/entity/Q1016833', 'http://www.wikidata.org/entity/Q101706322', 'http://www.wikidata.org/entity/Q102276948', 'http://www.wikidata.org/entity/Q102398478', 'http://www.wikidata.org/entity/Q10244', 'http://www.wikidata.org/entity/Q10253', 'http://www.wikidata.org/entity/Q1025481', 'http://www.wikidata.org/entity/Q10259922', 'http://www.wikidata.org/entity/Q10265947', 'http://www.wikidata.org/entity/Q10281787', 'http://www.wikidata.org/entity/Q10329424', 'http://www.wikidata.org/entity/Q103821550', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q103956800', 'http://www.wikidata.org/entity/Q10398273', 'http://www.wikidata.org/entity/Q104051143', 'http://www.wikidata.org/entity/Q10412386', 'http://www.wikidata.org/entity/Q10416096', 'http://www.wikidata.org/entity/Q10418897', 'http://www.wikidata.org/entity/Q104224166', 'http://www.wikidata.org/entity/Q1043596', 'http://www.wikidata.org/entity/Q104601590', 'http://www.wikidata.org/entity/Q104625773', 'http://www.wikidata.org/entity/Q104758920', 'http://www.wikidata.org/entity/Q10481350', 'http://www.wikidata.org/entity/Q104920297', 'http://www.wikidata.org/entity/Q10494624', 'http://www.wikidata.org/entity/Q10495964', 'http://www.wikidata.org/entity/Q10496086', 'http://www.wikidata.org/entity/Q10501512', 'http://www.wikidata.org/entity/Q1050292', 'http://www.wikidata.org/entity/Q105043914', 'http://www.wikidata.org/entity/Q105121443', 'http://www.wikidata.org/entity/Q105360445', 'http://www.wikidata.org/entity/Q105393711', 'http://www.wikidata.org/entity/Q105394069', 'http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q1054558', 'http://www.wikidata.org/entity/Q105663779', 'http://www.wikidata.org/entity/Q10586365', 'http://www.wikidata.org/entity/Q10601007', 'http://www.wikidata.org/entity/Q10601355', 'http://www.wikidata.org/entity/Q106019359', 'http://www.wikidata.org/entity/Q106043577', 'http://www.wikidata.org/entity/Q106078232', 'http://www.wikidata.org/entity/Q106200291', 'http://www.wikidata.org/entity/Q106240773', 'http://www.wikidata.org/entity/Q106290028', 'http://www.wikidata.org/entity/Q106307776', 'http://www.wikidata.org/entity/Q10631904', 'http://www.wikidata.org/entity/Q106331005', 'http://www.wikidata.org/entity/Q106349026', 'http://www.wikidata.org/entity/Q106369745', 'http://www.wikidata.org/entity/Q106436015', 'http://www.wikidata.org/entity/Q106505905', 'http://www.wikidata.org/entity/Q10666884', 'http://www.wikidata.org/entity/Q106675733', 'http://www.wikidata.org/entity/Q106689897', 'http://www.wikidata.org/entity/Q10669318', 'http://www.wikidata.org/entity/Q10669370', 'http://www.wikidata.org/entity/Q10669371', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q10689145', 'http://www.wikidata.org/entity/Q10689146', 'http://www.wikidata.org/entity/Q106899527', 'http://www.wikidata.org/entity/Q10698576', 'http://www.wikidata.org/entity/Q10698931', 'http://www.wikidata.org/entity/Q10698932', 'http://www.wikidata.org/entity/Q10698935', 'http://www.wikidata.org/entity/Q10698936', 'http://www.wikidata.org/entity/Q10698937', 'http://www.wikidata.org/entity/Q10699347', 'http://www.wikidata.org/entity/Q107015910', 'http://www.wikidata.org/entity/Q10701677', 'http://www.wikidata.org/entity/Q10701968', 'http://www.wikidata.org/entity/Q1070318', 'http://www.wikidata.org/entity/Q10714715', 'http://www.wikidata.org/entity/Q10726998', 'http://www.wikidata.org/entity/Q107309593', 'http://www.wikidata.org/entity/Q107718805', 'http://www.wikidata.org/entity/Q107739995', 'http://www.wikidata.org/entity/Q108010714', 'http://www.wikidata.org/entity/Q108101493', 'http://www.wikidata.org/entity/Q108131371', 'http://www.wikidata.org/entity/Q108219988', 'http://www.wikidata.org/entity/Q108315106', 'http://www.wikidata.org/entity/Q108392466', 'http://www.wikidata.org/entity/Q108424805', 'http://www.wikidata.org/entity/Q10854401', 'http://www.wikidata.org/entity/Q10855559', 'http://www.wikidata.org/entity/Q108660772', 'http://www.wikidata.org/entity/Q10868404', 'http://www.wikidata.org/entity/Q108730127', 'http://www.wikidata.org/entity/Q108749396', 'http://www.wikidata.org/entity/Q108749484', 'http://www.wikidata.org/entity/Q108814176', 'http://www.wikidata.org/entity/Q108936669', 'http://www.wikidata.org/entity/Q10909572', 'http://www.wikidata.org/entity/Q109121006', 'http://www.wikidata.org/entity/Q1091428', 'http://www.wikidata.org/entity/Q10921477', 'http://www.wikidata.org/entity/Q109285268', 'http://www.wikidata.org/entity/Q109329448', 'http://www.wikidata.org/entity/Q109329455', 'http://www.wikidata.org/entity/Q109356066', 'http://www.wikidata.org/entity/Q109381834', 'http://www.wikidata.org/entity/Q109381883', 'http://www.wikidata.org/entity/Q109440429', 'http://www.wikidata.org/entity/Q109455204', 'http://www.wikidata.org/entity/Q10955171', 'http://www.wikidata.org/entity/Q109558468', 'http://www.wikidata.org/entity/Q109609391', 'http://www.wikidata.org/entity/Q10964022', 'http://www.wikidata.org/entity/Q109827527', 'http://www.wikidata.org/entity/Q109838056', 'http://www.wikidata.org/entity/Q109908577', 'http://www.wikidata.org/entity/Q11002663', 'http://www.wikidata.org/entity/Q110091424', 'http://www.wikidata.org/entity/Q110128398', 'http://www.wikidata.org/entity/Q110206440', 'http://www.wikidata.org/entity/Q110239836', 'http://www.wikidata.org/entity/Q110639888', 'http://www.wikidata.org/entity/Q110962934', 'http://www.wikidata.org/entity/Q111149458', 'http://www.wikidata.org/entity/Q111202983', 'http://www.wikidata.org/entity/Q111333928', 'http://www.wikidata.org/entity/Q111574867', 'http://www.wikidata.org/entity/Q111605537', 'http://www.wikidata.org/entity/Q111649462', 'http://www.wikidata.org/entity/Q111649876', 'http://www.wikidata.org/entity/Q111655654', 'http://www.wikidata.org/entity/Q111711222', 'http://www.wikidata.org/entity/Q111732603', 'http://www.wikidata.org/entity/Q111811564', 'http://www.wikidata.org/entity/Q111846538', 'http://www.wikidata.org/entity/Q111914764', 'http://www.wikidata.org/entity/Q112055', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112075710', 'http://www.wikidata.org/entity/Q11219195', 'http://www.wikidata.org/entity/Q112292803', 'http://www.wikidata.org/entity/Q11237670', 'http://www.wikidata.org/entity/Q11244589', 'http://www.wikidata.org/entity/Q112613424', 'http://www.wikidata.org/entity/Q11269', 'http://www.wikidata.org/entity/Q112748137', 'http://www.wikidata.org/entity/Q11277431', 'http://www.wikidata.org/entity/Q112971391', 'http://www.wikidata.org/entity/Q112971396', 'http://www.wikidata.org/entity/Q112971410', 'http://www.wikidata.org/entity/Q112971413', 'http://www.wikidata.org/entity/Q113040064', 'http://www.wikidata.org/entity/Q113114857', 'http://www.wikidata.org/entity/Q113232600', 'http://www.wikidata.org/entity/Q113383597', 'http://www.wikidata.org/entity/Q113470219', 'http://www.wikidata.org/entity/Q113470532', 'http://www.wikidata.org/entity/Q113485231', 'http://www.wikidata.org/entity/Q113499420', 'http://www.wikidata.org/entity/Q113499458', 'http://www.wikidata.org/entity/Q1135034', 'http://www.wikidata.org/entity/Q11354348', 'http://www.wikidata.org/entity/Q113549137', 'http://www.wikidata.org/entity/Q113576165', 'http://www.wikidata.org/entity/Q113581609', 'http://www.wikidata.org/entity/Q113627236', 'http://www.wikidata.org/entity/Q113631347', 'http://www.wikidata.org/entity/Q113631375', 'http://www.wikidata.org/entity/Q113631508', 'http://www.wikidata.org/entity/Q113631563', 'http://www.wikidata.org/entity/Q113631569', 'http://www.wikidata.org/entity/Q113674106', 'http://www.wikidata.org/entity/Q11371391', 'http://www.wikidata.org/entity/Q113714633', 'http://www.wikidata.org/entity/Q11387117', 'http://www.wikidata.org/entity/Q113903854', 'http://www.wikidata.org/entity/Q11391277', 'http://www.wikidata.org/entity/Q1139591', 'http://www.wikidata.org/entity/Q11409712', 'http://www.wikidata.org/entity/Q114315605', 'http://www.wikidata.org/entity/Q114658295', 'http://www.wikidata.org/entity/Q1147008', 'http://www.wikidata.org/entity/Q114779611', 'http://www.wikidata.org/entity/Q114780741', 'http://www.wikidata.org/entity/Q114781351', 'http://www.wikidata.org/entity/Q114840373', 'http://www.wikidata.org/entity/Q114863314', 'http://www.wikidata.org/entity/Q115152362', 'http://www.wikidata.org/entity/Q115209188', 'http://www.wikidata.org/entity/Q115214299', 'http://www.wikidata.org/entity/Q115259173', 'http://www.wikidata.org/entity/Q115294651', 'http://www.wikidata.org/entity/Q115327380', 'http://www.wikidata.org/entity/Q1153848', 'http://www.wikidata.org/entity/Q11545488', 'http://www.wikidata.org/entity/Q115516436', 'http://www.wikidata.org/entity/Q115526578', 'http://www.wikidata.org/entity/Q115624997', 'http://www.wikidata.org/entity/Q115628690', 'http://www.wikidata.org/entity/Q11567159', 'http://www.wikidata.org/entity/Q11590237', 'http://www.wikidata.org/entity/Q115937074', 'http://www.wikidata.org/entity/Q11606287', 'http://www.wikidata.org/entity/Q116113833', 'http://www.wikidata.org/entity/Q116349234', 'http://www.wikidata.org/entity/Q116767714', 'http://www.wikidata.org/entity/Q116790237', 'http://www.wikidata.org/entity/Q116846825', 'http://www.wikidata.org/entity/Q116858640', 'http://www.wikidata.org/entity/Q116938985', 'http://www.wikidata.org/entity/Q11695705', 'http://www.wikidata.org/entity/Q11695707', 'http://www.wikidata.org/entity/Q11695708', 'http://www.wikidata.org/entity/Q11695711', 'http://www.wikidata.org/entity/Q11695713', 'http://www.wikidata.org/entity/Q11695714', 'http://www.wikidata.org/entity/Q11695716', 'http://www.wikidata.org/entity/Q11695717', 'http://www.wikidata.org/entity/Q11695718', 'http://www.wikidata.org/entity/Q11695721', 'http://www.wikidata.org/entity/Q11695722', 'http://www.wikidata.org/entity/Q11695723', 'http://www.wikidata.org/entity/Q116973585', 'http://www.wikidata.org/entity/Q116980492', 'http://www.wikidata.org/entity/Q117035968', 'http://www.wikidata.org/entity/Q11703716', 'http://www.wikidata.org/entity/Q117040282', 'http://www.wikidata.org/entity/Q11706236', 'http://www.wikidata.org/entity/Q1170632', 'http://www.wikidata.org/entity/Q117361394', 'http://www.wikidata.org/entity/Q117421915', 'http://www.wikidata.org/entity/Q117455751', 'http://www.wikidata.org/entity/Q117587270', 'http://www.wikidata.org/entity/Q117711867', 'http://www.wikidata.org/entity/Q11783773', 'http://www.wikidata.org/entity/Q11783808', 'http://www.wikidata.org/entity/Q117844480', 'http://www.wikidata.org/entity/Q11789695', 'http://www.wikidata.org/entity/Q11789705', 'http://www.wikidata.org/entity/Q11789707', 'http://www.wikidata.org/entity/Q11802972', 'http://www.wikidata.org/entity/Q118224784', 'http://www.wikidata.org/entity/Q118288532', 'http://www.wikidata.org/entity/Q118314773', 'http://www.wikidata.org/entity/Q118330188', 'http://www.wikidata.org/entity/Q118369207', 'http://www.wikidata.org/entity/Q118744251', 'http://www.wikidata.org/entity/Q118842681', 'http://www.wikidata.org/entity/Q118849459', 'http://www.wikidata.org/entity/Q118947258', 'http://www.wikidata.org/entity/Q119105010', 'http://www.wikidata.org/entity/Q11919090', 'http://www.wikidata.org/entity/Q119241124', 'http://www.wikidata.org/entity/Q119243817', 'http://www.wikidata.org/entity/Q119285617', 'http://www.wikidata.org/entity/Q119348301', 'http://www.wikidata.org/entity/Q119397277', 'http://www.wikidata.org/entity/Q1194059', 'http://www.wikidata.org/entity/Q11977920', 'http://www.wikidata.org/entity/Q119806244', 'http://www.wikidata.org/entity/Q119853995', 'http://www.wikidata.org/entity/Q120068971', 'http://www.wikidata.org/entity/Q120146391', 'http://www.wikidata.org/entity/Q120403912', 'http://www.wikidata.org/entity/Q120486552', 'http://www.wikidata.org/entity/Q12060958', 'http://www.wikidata.org/entity/Q120823815', 'http://www.wikidata.org/entity/Q120837533', 'http://www.wikidata.org/entity/Q12090941', 'http://www.wikidata.org/entity/Q1209940', 'http://www.wikidata.org/entity/Q12100125', 'http://www.wikidata.org/entity/Q12100126', 'http://www.wikidata.org/entity/Q12100128', 'http://www.wikidata.org/entity/Q12100132', 'http://www.wikidata.org/entity/Q12100138', 'http://www.wikidata.org/entity/Q12100141', 'http://www.wikidata.org/entity/Q12100152', 'http://www.wikidata.org/entity/Q12100160', 'http://www.wikidata.org/entity/Q12131090', 'http://www.wikidata.org/entity/Q121322780', 'http://www.wikidata.org/entity/Q121393', 'http://www.wikidata.org/entity/Q12149731', 'http://www.wikidata.org/entity/Q12174361', 'http://www.wikidata.org/entity/Q121759535', 'http://www.wikidata.org/entity/Q121852183', 'http://www.wikidata.org/entity/Q121864546', 'http://www.wikidata.org/entity/Q121991381', 'http://www.wikidata.org/entity/Q122057715', 'http://www.wikidata.org/entity/Q122058042', 'http://www.wikidata.org/entity/Q122144115', 'http://www.wikidata.org/entity/Q122199376', 'http://www.wikidata.org/entity/Q122341064', 'http://www.wikidata.org/entity/Q122460010', 'http://www.wikidata.org/entity/Q122495885', 'http://www.wikidata.org/entity/Q1226845', 'http://www.wikidata.org/entity/Q122767100', 'http://www.wikidata.org/entity/Q12284238', 'http://www.wikidata.org/entity/Q12286265', 'http://www.wikidata.org/entity/Q12286390', 'http://www.wikidata.org/entity/Q12289674', 'http://www.wikidata.org/entity/Q12292151', 'http://www.wikidata.org/entity/Q12293119', 'http://www.wikidata.org/entity/Q12293243', 'http://www.wikidata.org/entity/Q12299913', 'http://www.wikidata.org/entity/Q123111964', 'http://www.wikidata.org/entity/Q1231872', 'http://www.wikidata.org/entity/Q123253535', 'http://www.wikidata.org/entity/Q123265528', 'http://www.wikidata.org/entity/Q123450314', 'http://www.wikidata.org/entity/Q123515600', 'http://www.wikidata.org/entity/Q12353618', 'http://www.wikidata.org/entity/Q123746478', 'http://www.wikidata.org/entity/Q123757853', 'http://www.wikidata.org/entity/Q1239437', 'http://www.wikidata.org/entity/Q12407917', 'http://www.wikidata.org/entity/Q12407923', 'http://www.wikidata.org/entity/Q1241858', 'http://www.wikidata.org/entity/Q12422844', 'http://www.wikidata.org/entity/Q124250314', 'http://www.wikidata.org/entity/Q124250951', 'http://www.wikidata.org/entity/Q124255532', 'http://www.wikidata.org/entity/Q124318023', 'http://www.wikidata.org/entity/Q124352953', 'http://www.wikidata.org/entity/Q124367000', 'http://www.wikidata.org/entity/Q12438967', 'http://www.wikidata.org/entity/Q124408550', 'http://www.wikidata.org/entity/Q12441237', 'http://www.wikidata.org/entity/Q124498473', 'http://www.wikidata.org/entity/Q124498859', 'http://www.wikidata.org/entity/Q124568688', 'http://www.wikidata.org/entity/Q124747000', 'http://www.wikidata.org/entity/Q124799998', 'http://www.wikidata.org/entity/Q124830290', 'http://www.wikidata.org/entity/Q124854084', 'http://www.wikidata.org/entity/Q12513670', 'http://www.wikidata.org/entity/Q12525597', 'http://www.wikidata.org/entity/Q1252585', 'http://www.wikidata.org/entity/Q1252596', 'http://www.wikidata.org/entity/Q125505711', 'http://www.wikidata.org/entity/Q1255099', 'http://www.wikidata.org/entity/Q125524227', 'http://www.wikidata.org/entity/Q125613295', 'http://www.wikidata.org/entity/Q125912847', 'http://www.wikidata.org/entity/Q125928736', 'http://www.wikidata.org/entity/Q12601109', 'http://www.wikidata.org/entity/Q12602481', 'http://www.wikidata.org/entity/Q126083299', 'http://www.wikidata.org/entity/Q126083373', 'http://www.wikidata.org/entity/Q126113071', 'http://www.wikidata.org/entity/Q12614307', 'http://www.wikidata.org/entity/Q12614875', 'http://www.wikidata.org/entity/Q126192995', 'http://www.wikidata.org/entity/Q126260200', 'http://www.wikidata.org/entity/Q12650252', 'http://www.wikidata.org/entity/Q12663498', 'http://www.wikidata.org/entity/Q126708915', 'http://www.wikidata.org/entity/Q126902823', 'http://www.wikidata.org/entity/Q126903060', 'http://www.wikidata.org/entity/Q126910647', 'http://www.wikidata.org/entity/Q126948133', 'http://www.wikidata.org/entity/Q126949840', 'http://www.wikidata.org/entity/Q1270782', 'http://www.wikidata.org/entity/Q12713841', 'http://www.wikidata.org/entity/Q12716026', 'http://www.wikidata.org/entity/Q12719109', 'http://www.wikidata.org/entity/Q127393146', 'http://www.wikidata.org/entity/Q127502506', 'http://www.wikidata.org/entity/Q12750635', 'http://www.wikidata.org/entity/Q127597840', 'http://www.wikidata.org/entity/Q127798249', 'http://www.wikidata.org/entity/Q12787253', 'http://www.wikidata.org/entity/Q12787255', 'http://www.wikidata.org/entity/Q127922454', 'http://www.wikidata.org/entity/Q12803843', 'http://www.wikidata.org/entity/Q12836659', 'http://www.wikidata.org/entity/Q12859165', 'http://www.wikidata.org/entity/Q12864158', 'http://www.wikidata.org/entity/Q1290276', 'http://www.wikidata.org/entity/Q12927731', 'http://www.wikidata.org/entity/Q129726', 'http://www.wikidata.org/entity/Q12986877', 'http://www.wikidata.org/entity/Q129876847', 'http://www.wikidata.org/entity/Q129876849', 'http://www.wikidata.org/entity/Q129876851', 'http://www.wikidata.org/entity/Q129876853', 'http://www.wikidata.org/entity/Q129876855', 'http://www.wikidata.org/entity/Q129876857', 'http://www.wikidata.org/entity/Q12989464', 'http://www.wikidata.org/entity/Q13020973', 'http://www.wikidata.org/entity/Q130215597', 'http://www.wikidata.org/entity/Q130237269', 'http://www.wikidata.org/entity/Q130237270', 'http://www.wikidata.org/entity/Q130237271', 'http://www.wikidata.org/entity/Q130237272', 'http://www.wikidata.org/entity/Q130237273', 'http://www.wikidata.org/entity/Q130237274', 'http://www.wikidata.org/entity/Q130237276', 'http://www.wikidata.org/entity/Q130237277', 'http://www.wikidata.org/entity/Q130237278', 'http://www.wikidata.org/entity/Q130237279', 'http://www.wikidata.org/entity/Q130237280', 'http://www.wikidata.org/entity/Q130237281', 'http://www.wikidata.org/entity/Q130237282', 'http://www.wikidata.org/entity/Q130237283', 'http://www.wikidata.org/entity/Q130237284', 'http://www.wikidata.org/entity/Q130237285', 'http://www.wikidata.org/entity/Q130237286', 'http://www.wikidata.org/entity/Q130237287', 'http://www.wikidata.org/entity/Q130237288', 'http://www.wikidata.org/entity/Q130237289', 'http://www.wikidata.org/entity/Q130237290', 'http://www.wikidata.org/entity/Q130237291', 'http://www.wikidata.org/entity/Q130237292', 'http://www.wikidata.org/entity/Q130237293', 'http://www.wikidata.org/entity/Q130237294', 'http://www.wikidata.org/entity/Q130237295', 'http://www.wikidata.org/entity/Q130237296', 'http://www.wikidata.org/entity/Q130237297', 'http://www.wikidata.org/entity/Q130237298', 'http://www.wikidata.org/entity/Q130237299', 'http://www.wikidata.org/entity/Q130237300', 'http://www.wikidata.org/entity/Q130237301', 'http://www.wikidata.org/entity/Q130237302', 'http://www.wikidata.org/entity/Q130237303', 'http://www.wikidata.org/entity/Q130237304', 'http://www.wikidata.org/entity/Q130237305', 'http://www.wikidata.org/entity/Q130237306', 'http://www.wikidata.org/entity/Q130237307', 'http://www.wikidata.org/entity/Q130237308', 'http://www.wikidata.org/entity/Q130237309', 'http://www.wikidata.org/entity/Q130237310', 'http://www.wikidata.org/entity/Q130237311', 'http://www.wikidata.org/entity/Q130237312', 'http://www.wikidata.org/entity/Q130237314', 'http://www.wikidata.org/entity/Q130237315', 'http://www.wikidata.org/entity/Q130237316', 'http://www.wikidata.org/entity/Q130237317', 'http://www.wikidata.org/entity/Q130237318', 'http://www.wikidata.org/entity/Q130237319', 'http://www.wikidata.org/entity/Q130237320', 'http://www.wikidata.org/entity/Q130237321', 'http://www.wikidata.org/entity/Q130237322', 'http://www.wikidata.org/entity/Q130237323', 'http://www.wikidata.org/entity/Q130237324', 'http://www.wikidata.org/entity/Q130237325', 'http://www.wikidata.org/entity/Q130237326', 'http://www.wikidata.org/entity/Q130237327', 'http://www.wikidata.org/entity/Q130237328', 'http://www.wikidata.org/entity/Q130237329', 'http://www.wikidata.org/entity/Q130237330', 'http://www.wikidata.org/entity/Q130237331', 'http://www.wikidata.org/entity/Q130237332', 'http://www.wikidata.org/entity/Q130237333', 'http://www.wikidata.org/entity/Q130237334', 'http://www.wikidata.org/entity/Q130237335', 'http://www.wikidata.org/entity/Q130237336', 'http://www.wikidata.org/entity/Q130237337', 'http://www.wikidata.org/entity/Q130237338', 'http://www.wikidata.org/entity/Q130237339', 'http://www.wikidata.org/entity/Q130237340', 'http://www.wikidata.org/entity/Q130237341', 'http://www.wikidata.org/entity/Q130237342', 'http://www.wikidata.org/entity/Q130237343', 'http://www.wikidata.org/entity/Q130237344', 'http://www.wikidata.org/entity/Q130237345', 'http://www.wikidata.org/entity/Q130237346', 'http://www.wikidata.org/entity/Q130237347', 'http://www.wikidata.org/entity/Q130237348', 'http://www.wikidata.org/entity/Q130237349', 'http://www.wikidata.org/entity/Q130237350', 'http://www.wikidata.org/entity/Q130237351', 'http://www.wikidata.org/entity/Q130237353', 'http://www.wikidata.org/entity/Q130237354', 'http://www.wikidata.org/entity/Q130237355', 'http://www.wikidata.org/entity/Q130237356', 'http://www.wikidata.org/entity/Q130237357', 'http://www.wikidata.org/entity/Q130237358', 'http://www.wikidata.org/entity/Q130237359', 'http://www.wikidata.org/entity/Q130237360', 'http://www.wikidata.org/entity/Q130237361', 'http://www.wikidata.org/entity/Q130237362', 'http://www.wikidata.org/entity/Q130237363', 'http://www.wikidata.org/entity/Q130237364', 'http://www.wikidata.org/entity/Q130237365', 'http://www.wikidata.org/entity/Q130237366', 'http://www.wikidata.org/entity/Q130237367', 'http://www.wikidata.org/entity/Q130237368', 'http://www.wikidata.org/entity/Q130237369', 'http://www.wikidata.org/entity/Q130237370', 'http://www.wikidata.org/entity/Q130237371', 'http://www.wikidata.org/entity/Q130237372', 'http://www.wikidata.org/entity/Q130237373', 'http://www.wikidata.org/entity/Q130237374', 'http://www.wikidata.org/entity/Q130237375', 'http://www.wikidata.org/entity/Q130237376', 'http://www.wikidata.org/entity/Q130237377', 'http://www.wikidata.org/entity/Q130237378', 'http://www.wikidata.org/entity/Q130237379', 'http://www.wikidata.org/entity/Q130237380', 'http://www.wikidata.org/entity/Q130237381', 'http://www.wikidata.org/entity/Q130237382', 'http://www.wikidata.org/entity/Q130237383', 'http://www.wikidata.org/entity/Q130237384', 'http://www.wikidata.org/entity/Q130237385', 'http://www.wikidata.org/entity/Q130237386', 'http://www.wikidata.org/entity/Q130237387', 'http://www.wikidata.org/entity/Q130237388', 'http://www.wikidata.org/entity/Q130237389', 'http://www.wikidata.org/entity/Q130237390', 'http://www.wikidata.org/entity/Q130237391', 'http://www.wikidata.org/entity/Q130237392', 'http://www.wikidata.org/entity/Q130237393', 'http://www.wikidata.org/entity/Q130237394', 'http://www.wikidata.org/entity/Q130237395', 'http://www.wikidata.org/entity/Q130237396', 'http://www.wikidata.org/entity/Q130237397', 'http://www.wikidata.org/entity/Q130237398', 'http://www.wikidata.org/entity/Q130237399', 'http://www.wikidata.org/entity/Q130237400', 'http://www.wikidata.org/entity/Q130237402', 'http://www.wikidata.org/entity/Q130237403', 'http://www.wikidata.org/entity/Q130237404', 'http://www.wikidata.org/entity/Q130237405', 'http://www.wikidata.org/entity/Q130237406', 'http://www.wikidata.org/entity/Q130237407', 'http://www.wikidata.org/entity/Q130237408', 'http://www.wikidata.org/entity/Q130237409', 'http://www.wikidata.org/entity/Q130237410', 'http://www.wikidata.org/entity/Q130237411', 'http://www.wikidata.org/entity/Q130237412', 'http://www.wikidata.org/entity/Q130237413', 'http://www.wikidata.org/entity/Q130237414', 'http://www.wikidata.org/entity/Q130237415', 'http://www.wikidata.org/entity/Q130237416', 'http://www.wikidata.org/entity/Q130237417', 'http://www.wikidata.org/entity/Q130237419', 'http://www.wikidata.org/entity/Q130237420', 'http://www.wikidata.org/entity/Q130237421', 'http://www.wikidata.org/entity/Q130237422', 'http://www.wikidata.org/entity/Q130237423', 'http://www.wikidata.org/entity/Q130237424', 'http://www.wikidata.org/entity/Q130237425', 'http://www.wikidata.org/entity/Q130237426', 'http://www.wikidata.org/entity/Q130237427', 'http://www.wikidata.org/entity/Q130237428', 'http://www.wikidata.org/entity/Q130237429', 'http://www.wikidata.org/entity/Q130237430', 'http://www.wikidata.org/entity/Q130237431', 'http://www.wikidata.org/entity/Q130237432', 'http://www.wikidata.org/entity/Q130237433', 'http://www.wikidata.org/entity/Q130237434', 'http://www.wikidata.org/entity/Q130237435', 'http://www.wikidata.org/entity/Q130237436', 'http://www.wikidata.org/entity/Q130237437', 'http://www.wikidata.org/entity/Q130237438', 'http://www.wikidata.org/entity/Q130237439', 'http://www.wikidata.org/entity/Q130237440', 'http://www.wikidata.org/entity/Q130237441', 'http://www.wikidata.org/entity/Q130237442', 'http://www.wikidata.org/entity/Q130237443', 'http://www.wikidata.org/entity/Q130237444', 'http://www.wikidata.org/entity/Q130237445', 'http://www.wikidata.org/entity/Q130237446', 'http://www.wikidata.org/entity/Q130237447', 'http://www.wikidata.org/entity/Q130237448', 'http://www.wikidata.org/entity/Q130237449', 'http://www.wikidata.org/entity/Q130237450', 'http://www.wikidata.org/entity/Q130237451', 'http://www.wikidata.org/entity/Q130237452', 'http://www.wikidata.org/entity/Q130237453', 'http://www.wikidata.org/entity/Q130237454', 'http://www.wikidata.org/entity/Q130237455', 'http://www.wikidata.org/entity/Q130237456', 'http://www.wikidata.org/entity/Q130237457', 'http://www.wikidata.org/entity/Q130237458', 'http://www.wikidata.org/entity/Q130237459', 'http://www.wikidata.org/entity/Q130237460', 'http://www.wikidata.org/entity/Q130237461', 'http://www.wikidata.org/entity/Q130237462', 'http://www.wikidata.org/entity/Q130237463', 'http://www.wikidata.org/entity/Q130237464', 'http://www.wikidata.org/entity/Q130237465', 'http://www.wikidata.org/entity/Q130237466', 'http://www.wikidata.org/entity/Q130237467', 'http://www.wikidata.org/entity/Q130237468', 'http://www.wikidata.org/entity/Q130237469', 'http://www.wikidata.org/entity/Q130237471', 'http://www.wikidata.org/entity/Q130237472', 'http://www.wikidata.org/entity/Q130237473', 'http://www.wikidata.org/entity/Q130237474', 'http://www.wikidata.org/entity/Q130237475', 'http://www.wikidata.org/entity/Q130237476', 'http://www.wikidata.org/entity/Q130237477', 'http://www.wikidata.org/entity/Q130237478', 'http://www.wikidata.org/entity/Q130237479', 'http://www.wikidata.org/entity/Q130237480', 'http://www.wikidata.org/entity/Q130237481', 'http://www.wikidata.org/entity/Q130237482', 'http://www.wikidata.org/entity/Q130237484', 'http://www.wikidata.org/entity/Q130237485', 'http://www.wikidata.org/entity/Q130237487', 'http://www.wikidata.org/entity/Q130237488', 'http://www.wikidata.org/entity/Q130237489', 'http://www.wikidata.org/entity/Q130237490', 'http://www.wikidata.org/entity/Q130237491', 'http://www.wikidata.org/entity/Q130237492', 'http://www.wikidata.org/entity/Q130237493', 'http://www.wikidata.org/entity/Q130237494', 'http://www.wikidata.org/entity/Q130237495', 'http://www.wikidata.org/entity/Q130237496', 'http://www.wikidata.org/entity/Q130237497', 'http://www.wikidata.org/entity/Q130237498', 'http://www.wikidata.org/entity/Q130237499', 'http://www.wikidata.org/entity/Q130237500', 'http://www.wikidata.org/entity/Q130237501', 'http://www.wikidata.org/entity/Q130237502', 'http://www.wikidata.org/entity/Q130237503', 'http://www.wikidata.org/entity/Q130237504', 'http://www.wikidata.org/entity/Q130237505', 'http://www.wikidata.org/entity/Q130237506', 'http://www.wikidata.org/entity/Q130237507', 'http://www.wikidata.org/entity/Q130237508', 'http://www.wikidata.org/entity/Q130237509', 'http://www.wikidata.org/entity/Q130237510', 'http://www.wikidata.org/entity/Q130237511', 'http://www.wikidata.org/entity/Q130237513', 'http://www.wikidata.org/entity/Q130237514', 'http://www.wikidata.org/entity/Q130237515', 'http://www.wikidata.org/entity/Q130237516', 'http://www.wikidata.org/entity/Q130237517', 'http://www.wikidata.org/entity/Q130237518', 'http://www.wikidata.org/entity/Q130237520', 'http://www.wikidata.org/entity/Q130237521', 'http://www.wikidata.org/entity/Q130237522', 'http://www.wikidata.org/entity/Q130237524', 'http://www.wikidata.org/entity/Q130237525', 'http://www.wikidata.org/entity/Q130237526', 'http://www.wikidata.org/entity/Q130237527', 'http://www.wikidata.org/entity/Q130237529', 'http://www.wikidata.org/entity/Q130237530', 'http://www.wikidata.org/entity/Q130237531', 'http://www.wikidata.org/entity/Q130237532', 'http://www.wikidata.org/entity/Q130237534', 'http://www.wikidata.org/entity/Q130237535', 'http://www.wikidata.org/entity/Q130237536', 'http://www.wikidata.org/entity/Q130237537', 'http://www.wikidata.org/entity/Q130237538', 'http://www.wikidata.org/entity/Q130237539', 'http://www.wikidata.org/entity/Q130237540', 'http://www.wikidata.org/entity/Q130237541', 'http://www.wikidata.org/entity/Q130237542', 'http://www.wikidata.org/entity/Q130237543', 'http://www.wikidata.org/entity/Q130237544', 'http://www.wikidata.org/entity/Q130237545', 'http://www.wikidata.org/entity/Q130237546', 'http://www.wikidata.org/entity/Q130237547', 'http://www.wikidata.org/entity/Q130237548', 'http://www.wikidata.org/entity/Q130237549', 'http://www.wikidata.org/entity/Q130237550', 'http://www.wikidata.org/entity/Q130237552', 'http://www.wikidata.org/entity/Q130237553', 'http://www.wikidata.org/entity/Q130237554', 'http://www.wikidata.org/entity/Q130237555', 'http://www.wikidata.org/entity/Q130237556', 'http://www.wikidata.org/entity/Q130237557', 'http://www.wikidata.org/entity/Q130237558', 'http://www.wikidata.org/entity/Q130237559', 'http://www.wikidata.org/entity/Q130237560', 'http://www.wikidata.org/entity/Q130237561', 'http://www.wikidata.org/entity/Q130237562', 'http://www.wikidata.org/entity/Q130237563', 'http://www.wikidata.org/entity/Q130237564', 'http://www.wikidata.org/entity/Q130237565', 'http://www.wikidata.org/entity/Q130237566', 'http://www.wikidata.org/entity/Q130237567', 'http://www.wikidata.org/entity/Q130237570', 'http://www.wikidata.org/entity/Q130237571', 'http://www.wikidata.org/entity/Q130237572', 'http://www.wikidata.org/entity/Q130237573', 'http://www.wikidata.org/entity/Q130237574', 'http://www.wikidata.org/entity/Q130237575', 'http://www.wikidata.org/entity/Q130237576', 'http://www.wikidata.org/entity/Q130237577', 'http://www.wikidata.org/entity/Q130237578', 'http://www.wikidata.org/entity/Q130237579', 'http://www.wikidata.org/entity/Q130237581', 'http://www.wikidata.org/entity/Q130237582', 'http://www.wikidata.org/entity/Q130237584', 'http://www.wikidata.org/entity/Q130237585', 'http://www.wikidata.org/entity/Q130237587', 'http://www.wikidata.org/entity/Q130237588', 'http://www.wikidata.org/entity/Q130237589', 'http://www.wikidata.org/entity/Q130237591', 'http://www.wikidata.org/entity/Q130237592', 'http://www.wikidata.org/entity/Q130237593', 'http://www.wikidata.org/entity/Q130237594', 'http://www.wikidata.org/entity/Q130237597', 'http://www.wikidata.org/entity/Q130237598', 'http://www.wikidata.org/entity/Q130237599', 'http://www.wikidata.org/entity/Q130237601', 'http://www.wikidata.org/entity/Q130237602', 'http://www.wikidata.org/entity/Q130237603', 'http://www.wikidata.org/entity/Q130237604', 'http://www.wikidata.org/entity/Q130237605', 'http://www.wikidata.org/entity/Q130237607', 'http://www.wikidata.org/entity/Q130237608', 'http://www.wikidata.org/entity/Q130237609', 'http://www.wikidata.org/entity/Q130237611', 'http://www.wikidata.org/entity/Q130237612', 'http://www.wikidata.org/entity/Q130237613', 'http://www.wikidata.org/entity/Q130237615', 'http://www.wikidata.org/entity/Q130237616', 'http://www.wikidata.org/entity/Q130237617', 'http://www.wikidata.org/entity/Q130237618', 'http://www.wikidata.org/entity/Q130237619', 'http://www.wikidata.org/entity/Q130237620', 'http://www.wikidata.org/entity/Q130237621', 'http://www.wikidata.org/entity/Q130237623', 'http://www.wikidata.org/entity/Q130237624', 'http://www.wikidata.org/entity/Q130237625', 'http://www.wikidata.org/entity/Q130237626', 'http://www.wikidata.org/entity/Q130237627', 'http://www.wikidata.org/entity/Q130237628', 'http://www.wikidata.org/entity/Q130237629', 'http://www.wikidata.org/entity/Q130237630', 'http://www.wikidata.org</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q15920068', 'http://www.wikidata.org/entity/Q222897', 'http://www.wikidata.org/entity/Q3567209', 'http://www.wikidata.org/entity/Q61046702', 'http://www.wikidata.org/entity/Q7303029']</t>
+  </si>
+  <si>
     <t>['http://www.wikidata.org/entity/Q77237']</t>
   </si>
   <si>
@@ -1036,9 +1705,21 @@
     <t>['http://www.wikidata.org/entity/Q131016']</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q14280']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954']</t>
+  </si>
+  <si>
     <t>['http://www.wikidata.org/entity/Q1930']</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q100151816', 'http://www.wikidata.org/entity/Q101490959', 'http://www.wikidata.org/entity/Q101492327', 'http://www.wikidata.org/entity/Q106228741', 'http://www.wikidata.org/entity/Q1065590', 'http://www.wikidata.org/entity/Q16146513', 'http://www.wikidata.org/entity/Q16163013', 'http://www.wikidata.org/entity/Q16214810', 'http://www.wikidata.org/entity/Q1685756', 'http://www.wikidata.org/entity/Q1686437', 'http://www.wikidata.org/entity/Q16977455', 'http://www.wikidata.org/entity/Q16977456', 'http://www.wikidata.org/entity/Q17284905', 'http://www.wikidata.org/entity/Q1907692', 'http://www.wikidata.org/entity/Q1927207', 'http://www.wikidata.org/entity/Q1927514', 'http://www.wikidata.org/entity/Q19560231', 'http://www.wikidata.org/entity/Q19956337', 'http://www.wikidata.org/entity/Q19956650', 'http://www.wikidata.org/entity/Q20641558', 'http://www.wikidata.org/entity/Q20641651', 'http://www.wikidata.org/entity/Q3640619', 'http://www.wikidata.org/entity/Q372749', 'http://www.wikidata.org/entity/Q3808641', 'http://www.wikidata.org/entity/Q3903429', 'http://www.wikidata.org/entity/Q4320324', 'http://www.wikidata.org/entity/Q4576036', 'http://www.wikidata.org/entity/Q47501255', 'http://www.wikidata.org/entity/Q4831692', 'http://www.wikidata.org/entity/Q4965405', 'http://www.wikidata.org/entity/Q5080928', 'http://www.wikidata.org/entity/Q5082378', 'http://www.wikidata.org/entity/Q5171387', 'http://www.wikidata.org/entity/Q5218912', 'http://www.wikidata.org/entity/Q5258750', 'http://www.wikidata.org/entity/Q5342530', 'http://www.wikidata.org/entity/Q5369048', 'http://www.wikidata.org/entity/Q5387450', 'http://www.wikidata.org/entity/Q54667230', 'http://www.wikidata.org/entity/Q56600130', 'http://www.wikidata.org/entity/Q57262270', 'http://www.wikidata.org/entity/Q5981460', 'http://www.wikidata.org/entity/Q6185765', 'http://www.wikidata.org/entity/Q6185783', 'http://www.wikidata.org/entity/Q6199667', 'http://www.wikidata.org/entity/Q6209096', 'http://www.wikidata.org/entity/Q6228011', 'http://www.wikidata.org/entity/Q62512800', 'http://www.wikidata.org/entity/Q6273795', 'http://www.wikidata.org/entity/Q6284402', 'http://www.wikidata.org/entity/Q6437934', 'http://www.wikidata.org/entity/Q6554673', 'http://www.wikidata.org/entity/Q6668992', 'http://www.wikidata.org/entity/Q66827884', 'http://www.wikidata.org/entity/Q66841118', 'http://www.wikidata.org/entity/Q66939442', 'http://www.wikidata.org/entity/Q6764669', 'http://www.wikidata.org/entity/Q6775566', 'http://www.wikidata.org/entity/Q6776550', 'http://www.wikidata.org/entity/Q71035154', 'http://www.wikidata.org/entity/Q7197493', 'http://www.wikidata.org/entity/Q7279212', 'http://www.wikidata.org/entity/Q7308644', 'http://www.wikidata.org/entity/Q7406948', 'http://www.wikidata.org/entity/Q75135779', 'http://www.wikidata.org/entity/Q8742822', 'http://www.wikidata.org/entity/Q93318464', 'http://www.wikidata.org/entity/Q93318466', 'http://www.wikidata.org/entity/Q98785910', 'http://www.wikidata.org/entity/Q98852975', 'http://www.wikidata.org/entity/Q98930910', 'http://www.wikidata.org/entity/Q98930945']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q3808']</t>
+  </si>
+  <si>
     <t>['1487']</t>
   </si>
   <si>
@@ -1051,33 +1732,33 @@
     <t>['http://www.wikidata.org/entity/Q313048', 'http://www.wikidata.org/entity/Q464282']</t>
   </si>
   <si>
+    <t>['381488']</t>
+  </si>
+  <si>
     <t>['34112.5']</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q100724914', 'http://www.wikidata.org/entity/Q104714221', 'http://www.wikidata.org/entity/Q116314289', 'http://www.wikidata.org/entity/Q1197427', 'http://www.wikidata.org/entity/Q12126557', 'http://www.wikidata.org/entity/Q12133175', 'http://www.wikidata.org/entity/Q123690193', 'http://www.wikidata.org/entity/Q1467522', 'http://www.wikidata.org/entity/Q14772351', 'http://www.wikidata.org/entity/Q1503896', 'http://www.wikidata.org/entity/Q15270846', 'http://www.wikidata.org/entity/Q16250123', 'http://www.wikidata.org/entity/Q16354845', 'http://www.wikidata.org/entity/Q1753498', 'http://www.wikidata.org/entity/Q18151930', 'http://www.wikidata.org/entity/Q185888', 'http://www.wikidata.org/entity/Q18703028', 'http://www.wikidata.org/entity/Q20501835', 'http://www.wikidata.org/entity/Q20950014', 'http://www.wikidata.org/entity/Q219810', 'http://www.wikidata.org/entity/Q224133', 'http://www.wikidata.org/entity/Q261899', 'http://www.wikidata.org/entity/Q29658', 'http://www.wikidata.org/entity/Q3087286', 'http://www.wikidata.org/entity/Q3178485', 'http://www.wikidata.org/entity/Q379994', 'http://www.wikidata.org/entity/Q3986749', 'http://www.wikidata.org/entity/Q44613088', 'http://www.wikidata.org/entity/Q465227', 'http://www.wikidata.org/entity/Q49001848', 'http://www.wikidata.org/entity/Q499851', 'http://www.wikidata.org/entity/Q58879016', 'http://www.wikidata.org/entity/Q60737594', 'http://www.wikidata.org/entity/Q63352785', 'http://www.wikidata.org/entity/Q769453', 'http://www.wikidata.org/entity/Q7730725', 'http://www.wikidata.org/entity/Q7747903', 'http://www.wikidata.org/entity/Q94998134', 'http://www.wikidata.org/entity/Q978927']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q252', 'http://www.wikidata.org/entity/Q668', 'http://www.wikidata.org/entity/Q836', 'http://www.wikidata.org/entity/Q837', 'http://www.wikidata.org/entity/Q843', 'http://www.wikidata.org/entity/Q889', 'http://www.wikidata.org/entity/Q917']</t>
+  </si>
+  <si>
     <t>['http://www.wikidata.org/entity/Q159']</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q2420722']</t>
+  </si>
+  <si>
     <t>['http://www.wikidata.org/entity/Q113485118', 'http://www.wikidata.org/entity/Q113859093', 'http://www.wikidata.org/entity/Q1195106', 'http://www.wikidata.org/entity/Q2771', 'http://www.wikidata.org/entity/Q3830942', 'http://www.wikidata.org/entity/Q403810', 'http://www.wikidata.org/entity/Q7091479']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q101859', 'http://www.wikidata.org/entity/Q101959', 'http://www.wikidata.org/entity/Q104761', 'http://www.wikidata.org/entity/Q105254', 'http://www.wikidata.org/entity/Q105861', 'http://www.wikidata.org/entity/Q106394', 'http://www.wikidata.org/entity/Q141971', 'http://www.wikidata.org/entity/Q15755', 'http://www.wikidata.org/entity/Q157828', 'http://www.wikidata.org/entity/Q15789', 'http://www.wikidata.org/entity/Q162251', 'http://www.wikidata.org/entity/Q22707', 'http://www.wikidata.org/entity/Q38245', 'http://www.wikidata.org/entity/Q41420', 'http://www.wikidata.org/entity/Q4512', 'http://www.wikidata.org/entity/Q51976', 'http://www.wikidata.org/entity/Q6463', 'http://www.wikidata.org/entity/Q702455']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q110154', 'http://www.wikidata.org/entity/Q1209826', 'http://www.wikidata.org/entity/Q1396278', 'http://www.wikidata.org/entity/Q152773', 'http://www.wikidata.org/entity/Q16296', 'http://www.wikidata.org/entity/Q16297', 'http://www.wikidata.org/entity/Q16345', 'http://www.wikidata.org/entity/Q16349', 'http://www.wikidata.org/entity/Q190523', 'http://www.wikidata.org/entity/Q2263306', 'http://www.wikidata.org/entity/Q230038', 'http://www.wikidata.org/entity/Q231576', 'http://www.wikidata.org/entity/Q23466', 'http://www.wikidata.org/entity/Q2451563', 'http://www.wikidata.org/entity/Q254038', 'http://www.wikidata.org/entity/Q266391', 'http://www.wikidata.org/entity/Q2667506', 'http://www.wikidata.org/entity/Q272214', 'http://www.wikidata.org/entity/Q2805350', 'http://www.wikidata.org/entity/Q311699', 'http://www.wikidata.org/entity/Q313789', 'http://www.wikidata.org/entity/Q318412', 'http://www.wikidata.org/entity/Q346595', 'http://www.wikidata.org/entity/Q348445', 'http://www.wikidata.org/entity/Q356846', 'http://www.wikidata.org/entity/Q363271', 'http://www.wikidata.org/entity/Q366012', 'http://www.wikidata.org/entity/Q376176', 'http://www.wikidata.org/entity/Q444217', 'http://www.wikidata.org/entity/Q461794', 'http://www.wikidata.org/entity/Q5115837', 'http://www.wikidata.org/entity/Q5213941', 'http://www.wikidata.org/entity/Q550778', 'http://www.wikidata.org/entity/Q552103', 'http://www.wikidata.org/entity/Q6066272']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q123374100']</t>
-  </si>
-  <si>
-    <t>['38']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/statement/q53713-5CBE6C03-5BB4-44B8-A01F-639E1678F280']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q1198059', 'http://www.wikidata.org/entity/Q1235065', 'http://www.wikidata.org/entity/Q1527877', 'http://www.wikidata.org/entity/Q1630930', 'http://www.wikidata.org/entity/Q2497114', 'http://www.wikidata.org/entity/Q325643', 'http://www.wikidata.org/entity/Q426314', 'http://www.wikidata.org/entity/Q4430', 'http://www.wikidata.org/entity/Q568696', 'http://www.wikidata.org/entity/Q634049', 'http://www.wikidata.org/entity/Q668569', 'http://www.wikidata.org/entity/Q910226']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q1129295', 'http://www.wikidata.org/entity/Q2283']</t>
   </si>
   <si>
@@ -1087,15 +1768,9 @@
     <t>['http://www.wikidata.org/entity/Q202585']</t>
   </si>
   <si>
-    <t>['81']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q101114845', 'http://www.wikidata.org/entity/Q101428268', 'http://www.wikidata.org/entity/Q1017857', 'http://www.wikidata.org/entity/Q1026959', 'http://www.wikidata.org/entity/Q1027629', 'http://www.wikidata.org/entity/Q10378298', 'http://www.wikidata.org/entity/Q1039172', 'http://www.wikidata.org/entity/Q10513330', 'http://www.wikidata.org/entity/Q106205227', 'http://www.wikidata.org/entity/Q106689756', 'http://www.wikidata.org/entity/Q106959617', 'http://www.wikidata.org/entity/Q107406319', 'http://www.wikidata.org/entity/Q107655857', 'http://www.wikidata.org/entity/Q1081180', 'http://www.wikidata.org/entity/Q109554339', 'http://www.wikidata.org/entity/Q109554543', 'http://www.wikidata.org/entity/Q109555192', 'http://www.wikidata.org/entity/Q1103542', 'http://www.wikidata.org/entity/Q1111398', 'http://www.wikidata.org/entity/Q112135459', 'http://www.wikidata.org/entity/Q1138796', 'http://www.wikidata.org/entity/Q11399791', 'http://www.wikidata.org/entity/Q115301', 'http://www.wikidata.org/entity/Q11629760', 'http://www.wikidata.org/entity/Q1176023', 'http://www.wikidata.org/entity/Q1176361', 'http://www.wikidata.org/entity/Q11858672', 'http://www.wikidata.org/entity/Q11867190', 'http://www.wikidata.org/entity/Q12010658', 'http://www.wikidata.org/entity/Q120867', 'http://www.wikidata.org/entity/Q121167557', 'http://www.wikidata.org/entity/Q122332851', 'http://www.wikidata.org/entity/Q122474625', 'http://www.wikidata.org/entity/Q122910179', 'http://www.wikidata.org/entity/Q123200520', 'http://www.wikidata.org/entity/Q1238872', 'http://www.wikidata.org/entity/Q124037701', 'http://www.wikidata.org/entity/Q124463256', 'http://www.wikidata.org/entity/Q1267291', 'http://www.wikidata.org/entity/Q12725804', 'http://www.wikidata.org/entity/Q12762176', 'http://www.wikidata.org/entity/Q12813704', 'http://www.wikidata.org/entity/Q1282503', 'http://www.wikidata.org/entity/Q1314051', 'http://www.wikidata.org/entity/Q1318323', 'http://www.wikidata.org/entity/Q1332284', 'http://www.wikidata.org/entity/Q13428279', 'http://www.wikidata.org/entity/Q13428924', 'http://www.wikidata.org/entity/Q13429127', 'http://www.wikidata.org/entity/Q13430549', 'http://www.wikidata.org/entity/Q13430599', 'http://www.wikidata.org/entity/Q1346808', 'http://www.wikidata.org/entity/Q1349008', 'http://www.wikidata.org/entity/Q1350269', 'http://www.wikidata.org/entity/Q13578525', 'http://www.wikidata.org/entity/Q1361982', 'http://www.wikidata.org/entity/Q13621967', 'http://www.wikidata.org/entity/Q13637576', 'http://www.wikidata.org/entity/Q13637684', 'http://www.wikidata.org/entity/Q1364120', 'http://www.wikidata.org/entity/Q13642623', 'http://www.wikidata.org/entity/Q13735676', 'http://www.wikidata.org/entity/Q13748173', 'http://www.wikidata.org/entity/Q13749321', 'http://www.wikidata.org/entity/Q13818959', 'http://www.wikidata.org/entity/Q14084087', 'http://www.wikidata.org/entity/Q1412239', 'http://www.wikidata.org/entity/Q14252911', 'http://www.wikidata.org/entity/Q14282663', 'http://www.wikidata.org/entity/Q1440487', 'http://www.wikidata.org/entity/Q14514707', 'http://www.wikidata.org/entity/Q1452661', 'http://www.wikidata.org/entity/Q1453559', 'http://www.wikidata.org/entity/Q14545268', 'http://www.wikidata.org/entity/Q1454645', 'http://www.wikidata.org/entity/Q14625857', 'http://www.wikidata.org/entity/Q1468204', 'http://www.wikidata.org/entity/Q14855238', 'http://www.wikidata.org/entity/Q1495388', 'http://www.wikidata.org/entity/Q15065014', 'http://www.wikidata.org/entity/Q1523174', 'http://www.wikidata.org/entity/Q1535887', 'http://www.wikidata.org/entity/Q15434980', 'http://www.wikidata.org/entity/Q15485363', 'http://www.wikidata.org/entity/Q15485371', 'http://www.wikidata.org/entity/Q1558930', 'http://www.wikidata.org/entity/Q1558978', 'http://www.wikidata.org/entity/Q15663950', 'http://www.wikidata.org/entity/Q15782011', 'http://www.wikidata.org/entity/Q15831726', 'http://www.wikidata.org/entity/Q15831730', 'http://www.wikidata.org/entity/Q15831731', 'http://www.wikidata.org/entity/Q15831749', 'http://www.wikidata.org/entity/Q1583816', 'http://www.wikidata.org/entity/Q15838279', 'http://www.wikidata.org/entity/Q15838400', 'http://www.wikidata.org/entity/Q15838411', 'http://www.wikidata.org/entity/Q15838414', 'http://www.wikidata.org/entity/Q15838481', 'http://www.wikidata.org/entity/Q15963688', 'http://www.wikidata.org/entity/Q15977560', 'http://www.wikidata.org/entity/Q15982372', 'http://www.wikidata.org/entity/Q16017359', 'http://www.wikidata.org/entity/Q1604148', 'http://www.wikidata.org/entity/Q1607887', 'http://www.wikidata.org/entity/Q16090563', 'http://www.wikidata.org/entity/Q16179949', 'http://www.wikidata.org/entity/Q1622068', 'http://www.wikidata.org/entity/Q163861', 'http://www.wikidata.org/entity/Q16560522', 'http://www.wikidata.org/entity/Q1678838', 'http://www.wikidata.org/entity/Q1679611', 'http://www.wikidata.org/entity/Q1680582', 'http://www.wikidata.org/entity/Q1682798', 'http://www.wikidata.org/entity/Q1687893', 'http://www.wikidata.org/entity/Q1689205', 'http://www.wikidata.org/entity/Q1689925', 'http://www.wikidata.org/entity/Q16948823', 'http://www.wikidata.org/entity/Q1701748', 'http://www.wikidata.org/entity/Q1704053', 'http://www.wikidata.org/entity/Q1729145', 'http://www.wikidata.org/entity/Q1729163', 'http://www.wikidata.org/entity/Q17302890', 'http://www.wikidata.org/entity/Q17302909', 'http://www.wikidata.org/entity/Q17306038', 'http://www.wikidata.org/entity/Q1730938', 'http://www.wikidata.org/entity/Q1738588', 'http://www.wikidata.org/entity/Q1738949', 'http://www.wikidata.org/entity/Q17621303', 'http://www.wikidata.org/entity/Q17630817', 'http://www.wikidata.org/entity/Q1770558', 'http://www.wikidata.org/entity/Q177824', 'http://www.wikidata.org/entity/Q1779', 'http://www.wikidata.org/entity/Q1795197', 'http://www.wikidata.org/entity/Q18028541', 'http://www.wikidata.org/entity/Q1806037', 'http://www.wikidata.org/entity/Q1820504', 'http://www.wikidata.org/entity/Q1822323', 'http://www.wikidata.org/entity/Q1844485', 'http://www.wikidata.org/entity/Q1852290', 'http://www.wikidata.org/entity/Q18596060', 'http://www.wikidata.org/entity/Q1872759', 'http://www.wikidata.org/entity/Q1873386', 'http://www.wikidata.org/entity/Q188046', 'http://www.wikidata.org/entity/Q1886030', 'http://www.wikidata.org/entity/Q1897498', 'http://www.wikidata.org/entity/Q1902146', 'http://www.wikidata.org/entity/Q1902333', 'http://www.wikidata.org/entity/Q1903602', 'http://www.wikidata.org/entity/Q1912807', 'http://www.wikidata.org/entity/Q1917265', 'http://www.wikidata.org/entity/Q1917393', 'http://www.wikidata.org/entity/Q1935815', 'http://www.wikidata.org/entity/Q193645', 'http://www.wikidata.org/entity/Q1952063', 'http://www.wikidata.org/entity/Q19561422', 'http://www.wikidata.org/entity/Q1966469', 'http://www.wikidata.org/entity/Q1971146', 'http://www.wikidata.org/entity/Q19787616', 'http://www.wikidata.org/entity/Q199406', 'http://www.wikidata.org/entity/Q19965844', 'http://www.wikidata.org/entity/Q1997017', 'http://www.wikidata.org/entity/Q2002094', 'http://www.wikidata.org/entity/Q20065940', 'http://www.wikidata.org/entity/Q201500', 'http://www.wikidata.org/entity/Q2018006', 'http://www.wikidata.org/entity/Q2018624', 'http://www.wikidata.org/entity/Q2033376', 'http://www.wikidata.org/entity/Q2041252', 'http://www.wikidata.org/entity/Q205139', 'http://www.wikidata.org/entity/Q2051847', 'http://www.wikidata.org/entity/Q2061143', 'http://www.wikidata.org/entity/Q2065647', 'http://www.wikidata.org/entity/Q2071995', 'http://www.wikidata.org/entity/Q2075755', 'http://www.wikidata.org/entity/Q210173', 'http://www.wikidata.org/entity/Q210289', 'http://www.wikidata.org/entity/Q21069758', 'http://www.wikidata.org/entity/Q2113826', 'http://www.wikidata.org/entity/Q2114588', 'http://www.wikidata.org/entity/Q212175', 'http://www.wikidata.org/entity/Q2131475', 'http://www.wikidata.org/entity/Q2134409', 'http://www.wikidata.org/entity/Q2160123', 'http://www.wikidata.org/entity/Q2160443', 'http://www.wikidata.org/entity/Q2178215', 'http://www.wikidata.org/entity/Q2204603', 'http://www.wikidata.org/entity/Q2205004', 'http://www.wikidata.org/entity/Q22077690', 'http://www.wikidata.org/entity/Q2212853', 'http://www.wikidata.org/entity/Q2215501', 'http://www.wikidata.org/entity/Q2216444', 'http://www.wikidata.org/entity/Q2223014', 'http://www.wikidata.org/entity/Q222798', 'http://www.wikidata.org/entity/Q2231142', 'http://www.wikidata.org/entity/Q2237290', 'http://www.wikidata.org/entity/Q2249186', 'http://www.wikidata.org/entity/Q2265140', 'http://www.wikidata.org/entity/Q2269117', 'http://www.wikidata.org/entity/Q2281105', 'http://www.wikidata.org/entity/Q2282012', 'http://www.wikidata.org/entity/Q22958430', 'http://www.wikidata.org/entity/Q2296396', 'http://www.wikidata.org/entity/Q2299727', 'http://www.wikidata.org/entity/Q2301899', 'http://www.wikidata.org/entity/Q2302261', 'http://www.wikidata.org/entity/Q2308068', 'http://www.wikidata.org/entity/Q2317152', 'http://www.wikidata.org/entity/Q2333645', 'http://www.wikidata.org/entity/Q2346719', 'http://www.wikidata.org/entity/Q2347504', 'http://www.wikidata.org/entity/Q2350926', 'http://www.wikidata.org/entity/Q2351608', 'http://www.wikidata.org/entity/Q2373687', 'http://www.wikidata.org/entity/Q23848', 'http://www.wikidata.org/entity/Q2388958', 'http://www.wikidata.org/entity/Q2389118', 'http://www.wikidata.org/entity/Q2389720', 'http://www.wikidata.org/entity/Q2396601', 'http://www.wikidata.org/entity/Q2398731', 'http://www.wikidata.org/entity/Q24004815', 'http://www.wikidata.org/entity/Q2401961', 'http://www.wikidata.org/entity/Q2405288', 'http://www.wikidata.org/entity/Q2434943', 'http://www.wikidata.org/entity/Q2444116', 'http://www.wikidata.org/entity/Q2452107', 'http://www.wikidata.org/entity/Q24545476', 'http://www.wikidata.org/entity/Q2461095', 'http://www.wikidata.org/entity/Q2498692', 'http://www.wikidata.org/entity/Q25016213', 'http://www.wikidata.org/entity/Q250592', 'http://www.wikidata.org/entity/Q2524882', 'http://www.wikidata.org/entity/Q2545432', 'http://www.wikidata.org/entity/Q2555494', 'http://www.wikidata.org/entity/Q2585526', 'http://www.wikidata.org/entity/Q2589470', 'http://www.wikidata.org/entity/Q2597090', 'http://www.wikidata.org/entity/Q2602149', 'http://www.wikidata.org/entity/Q2605389', 'http://www.wikidata.org/entity/Q2614369', 'http://www.wikidata.org/entity/Q2618892', 'http://www.wikidata.org/entity/Q2620075', 'http://www.wikidata.org/entity/Q2645829', 'http://www.wikidata.org/entity/Q2658419', 'http://www.wikidata.org/entity/Q2660295', 'http://www.wikidata.org/entity/Q2666889', 'http://www.wikidata.org/entity/Q2676832', 'http://www.wikidata.org/entity/Q2686509', 'http://www.wikidata.org/entity/Q2689866', 'http://www.wikidata.org/entity/Q2723748', 'http://www.wikidata.org/entity/Q273076', 'http://www.wikidata.org/entity/Q2732134', 'http://www.wikidata.org/entity/Q27349585', 'http://www.wikidata.org/entity/Q2738133', 'http://www.wikidata.org/entity/Q2750590', 'http://www.wikidata.org/entity/Q276068', 'http://www.wikidata.org/entity/Q2781380', 'http://www.wikidata.org/entity/Q2805529', 'http://www.wikidata.org/entity/Q2850896', 'http://www.wikidata.org/entity/Q2916457', 'http://www.wikidata.org/entity/Q2951433', 'http://www.wikidata.org/entity/Q300779', 'http://www.wikidata.org/entity/Q3026768', 'http://www.wikidata.org/entity/Q309470', 'http://www.wikidata.org/entity/Q313368', 'http://www.wikidata.org/entity/Q313529', 'http://www.wikidata.org/entity/Q313554', 'http://www.wikidata.org/entity/Q313868', 'http://www.wikidata.org/entity/Q3144611', 'http://www.wikidata.org/entity/Q319451', 'http://www.wikidata.org/entity/Q3196381', 'http://www.wikidata.org/entity/Q3209874', 'http://www.wikidata.org/entity/Q3219391', 'http://www.wikidata.org/entity/Q322210', 'http://www.wikidata.org/entity/Q322835', 'http://www.wikidata.org/entity/Q322866', 'http://www.wikidata.org/entity/Q3289097', 'http://www.wikidata.org/entity/Q3296667', 'http://www.wikidata.org/entity/Q3317466', 'http://www.wikidata.org/entity/Q3330992', 'http://www.wikidata.org/entity/Q3367630', 'http://www.wikidata.org/entity/Q344822', 'http://www.wikidata.org/entity/Q3514155', 'http://www.wikidata.org/entity/Q3521902', 'http://www.wikidata.org/entity/Q3534050', 'http://www.wikidata.org/entity/Q355481', 'http://www.wikidata.org/entity/Q3562367', 'http://www.wikidata.org/entity/Q356715', 'http://www.wikidata.org/entity/Q357036', 'http://www.wikidata.org/entity/Q3705319', 'http://www.wikidata.org/entity/Q3754332', 'http://www.wikidata.org/entity/Q376146', 'http://www.wikidata.org/entity/Q3762145', 'http://www.wikidata.org/entity/Q3767568', 'http://www.wikidata.org/entity/Q3837619', 'http://www.wikidata.org/entity/Q3919987', 'http://www.wikidata.org/entity/Q3929797', 'http://www.wikidata.org/entity/Q3973394', 'http://www.wikidata.org/entity/Q405682', 'http://www.wikidata.org/entity/Q4102218', 'http://www.wikidata.org/entity/Q4111188', 'http://www.wikidata.org/entity/Q4112047', 'http://www.wikidata.org/entity/Q4188447', 'http://www.wikidata.org/entity/Q4192381', 'http://www.wikidata.org/entity/Q4212029', 'http://www.wikidata.org/entity/Q4216887', 'http://www.wikidata.org/entity/Q4226412', 'http://www.wikidata.org/entity/Q4251281', 'http://www.wikidata.org/entity/Q4252138', 'http://www.wikidata.org/entity/Q42786392', 'http://www.wikidata.org/entity/Q43191106', 'http://www.wikidata.org/entity/Q433579', 'http://www.wikidata.org/entity/Q4347263', 'http://www.wikidata.org/entity/Q4347986', 'http://www.wikidata.org/entity/Q4349639', 'http://www.wikidata.org/entity/Q4351622', 'http://www.wikidata.org/entity/Q436176', 'http://www.wikidata.org/entity/Q4377045', 'http://www.wikidata.org/entity/Q4401249', 'http://www.wikidata.org/entity/Q4464127', 'http://www.wikidata.org/entity/Q4502786', 'http://www.wikidata.org/entity/Q465105', 'http://www.wikidata.org/entity/Q4760598', 'http://www.wikidata.org/entity/Q4765639', 'http://www.wikidata.org/entity/Q4767267', 'http://www.wikidata.org/entity/Q4797599', 'http://www.wikidata.org/entity/Q4833896', 'http://www.wikidata.org/entity/Q4887822', 'http://www.wikidata.org/entity/Q4889351', 'http://www.wikidata.org/entity/Q4889942', 'http://www.wikidata.org/entity/Q4911881', 'http://www.wikidata.org/entity/Q492677', 'http://www.wikidata.org/entity/Q495464', 'http://www.wikidata.org/entity/Q4956069', 'http://www.wikidata.org/entity/Q49575', 'http://www.wikidata.org/entity/Q496386', 'http://www.wikidata.org/entity/Q506913', 'http://www.wikidata.org/entity/Q511817', 'http://www.wikidata.org/entity/Q5202535', 'http://www.wikidata.org/entity/Q5214487', 'http://www.wikidata.org/entity/Q523309', 'http://www.wikidata.org/entity/Q5235139', 'http://www.wikidata.org/entity/Q5240601', 'http://www.wikidata.org/entity/Q5246126', 'http://www.wikidata.org/entity/Q5263018', 'http://www.wikidata.org/entity/Q528340', 'http://www.wikidata.org/entity/Q5290919', 'http://www.wikidata.org/entity/Q538062', 'http://www.wikidata.org/entity/Q5392650', 'http://www.wikidata.org/entity/Q5394010', 'http://www.wikidata.org/entity/Q5394507', 'http://www.wikidata.org/entity/Q539883', 'http://www.wikidata.org/entity/Q545464', 'http://www.wikidata.org/entity/Q5490378', 'http://www.wikidata.org/entity/Q54912317', 'http://www.wikidata.org/entity/Q54957569', 'http://www.wikidata.org/entity/Q55226721', 'http://www.wikidata.org/entity/Q5525190', 'http://www.wikidata.org/entity/Q5528172', 'http://www.wikidata.org/entity/Q5531061', 'http://www.wikidata.org/entity/Q5560464', 'http://www.wikidata.org/entity/Q562871', 'http://www.wikidata.org/entity/Q56414132', 'http://www.wikidata.org/entity/Q5736141', 'http://www.wikidata.org/entity/Q5788763', 'http://www.wikidata.org/entity/Q57941720', 'http://www.wikidata.org/entity/Q5860409', 'http://www.wikidata.org/entity/Q5864112', 'http://www.wikidata.org/entity/Q5872203', 'http://www.wikidata.org/entity/Q5876210', 'http://www.wikidata.org/entity/Q590792', 'http://www.wikidata.org/entity/Q5929845', 'http://www.wikidata.org/entity/Q5932732', 'http://www.wikidata.org/entity/Q5990031', 'http://www.wikidata.org/entity/Q600700', 'http://www.wikidata.org/entity/Q6027208', 'http://www.wikidata.org/entity/Q60642757', 'http://www.wikidata.org/entity/Q6074256', 'http://www.wikidata.org/entity/Q612855', 'http://www.wikidata.org/entity/Q6145197', 'http://www.wikidata.org/entity/Q6175185', 'http://www.wikidata.org/entity/Q61816822', 'http://www.wikidata.org/entity/Q6202890', 'http://www.wikidata.org/entity/Q6208919', 'http://www.wikidata.org/entity/Q6221178', 'http://www.wikidata.org/entity/Q6240203', 'http://www.wikidata.org/entity/Q6309190', 'http://www.wikidata.org/entity/Q6390677', 'http://www.wikidata.org/entity/Q64860097', 'http://www.wikidata.org/entity/Q64936945', 'http://www.wikidata.org/entity/Q64949475', 'http://www.wikidata.org/entity/Q64985644', 'http://www.wikidata.org/entity/Q64993378', 'http://www.wikidata.org/entity/Q658636', 'http://www.wikidata.org/entity/Q6687998', 'http://www.wikidata.org/entity/Q668856', 'http://www.wikidata.org/entity/Q675810', 'http://www.wikidata.org/entity/Q6793340', 'http://www.wikidata.org/entity/Q6846424', 'http://www.wikidata.org/entity/Q7052586', 'http://www.wikidata.org/entity/Q7087874', 'http://www.wikidata.org/entity/Q708990', 'http://www.wikidata.org/entity/Q711921', 'http://www.wikidata.org/entity/Q7183918', 'http://www.wikidata.org/entity/Q7298839', 'http://www.wikidata.org/entity/Q7319236', 'http://www.wikidata.org/entity/Q7333203', 'http://www.wikidata.org/entity/Q737521', 'http://www.wikidata.org/entity/Q7441108', 'http://www.wikidata.org/entity/Q7477602', 'http://www.wikidata.org/entity/Q7524109', 'http://www.wikidata.org/entity/Q7694080', 'http://www.wikidata.org/entity/Q776453', 'http://www.wikidata.org/entity/Q7781439', 'http://www.wikidata.org/entity/Q7781727', 'http://www.wikidata.org/entity/Q787308', 'http://www.wikidata.org/entity/Q78932', 'http://www.wikidata.org/entity/Q7924906', 'http://www.wikidata.org/entity/Q7982390', 'http://www.wikidata.org/entity/Q8007734', 'http://www.wikidata.org/entity/Q8009347', 'http://www.wikidata.org/entity/Q808916', 'http://www.wikidata.org/entity/Q830257', 'http://www.wikidata.org/entity/Q85647', 'http://www.wikidata.org/entity/Q85974715', 'http://www.wikidata.org/entity/Q85974746', 'http://www.wikidata.org/entity/Q861545', 'http://www.wikidata.org/entity/Q86806', 'http://www.wikidata.org/entity/Q870113', 'http://www.wikidata.org/entity/Q891134', 'http://www.wikidata.org/entity/Q895829', 'http://www.wikidata.org/entity/Q89804', 'http://www.wikidata.org/entity/Q904844', 'http://www.wikidata.org/entity/Q91232485', 'http://www.wikidata.org/entity/Q920288', 'http://www.wikidata.org/entity/Q923409', 'http://www.wikidata.org/entity/Q930965', 'http://www.wikidata.org/entity/Q93341', 'http://www.wikidata.org/entity/Q93487778', 'http://www.wikidata.org/entity/Q936536', 'http://www.wikidata.org/entity/Q9422246', 'http://www.wikidata.org/entity/Q945778', 'http://www.wikidata.org/entity/Q94689370', 'http://www.wikidata.org/entity/Q964682', 'http://www.wikidata.org/entity/Q967230', 'http://www.wikidata.org/entity/Q967916', 'http://www.wikidata.org/entity/Q98308750', 'http://www.wikidata.org/entity/Q99438820', 'http://www.wikidata.org/entity/Q99731455']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954', 'http://www.wikidata.org/entity/Q20899741', 'http://www.wikidata.org/entity/Q244975']</t>
-  </si>
-  <si>
     <t>['1978']</t>
   </si>
   <si>
@@ -1114,18 +1789,12 @@
     <t>['http://www.wikidata.org/entity/Q9215']</t>
   </si>
   <si>
-    <t>['1735-10-30T00:00:00Z']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q39099']</t>
   </si>
   <si>
     <t>['http://www.wikidata.org/entity/Q622762', 'http://www.wikidata.org/entity/Q94967350']</t>
   </si>
   <si>
-    <t xml:space="preserve">['http://www.wikidata.org/entity/Q100695440', 'http://www.wikidata.org/entity/Q1019313', 'http://www.wikidata.org/entity/Q102245375', 'http://www.wikidata.org/entity/Q1039445', 'http://www.wikidata.org/entity/Q104186080', 'http://www.wikidata.org/entity/Q10449219', 'http://www.wikidata.org/entity/Q1047492', 'http://www.wikidata.org/entity/Q1061394', 'http://www.wikidata.org/entity/Q106150403', 'http://www.wikidata.org/entity/Q106363078', 'http://www.wikidata.org/entity/Q1072125', 'http://www.wikidata.org/entity/Q1083890', 'http://www.wikidata.org/entity/Q10855760', 'http://www.wikidata.org/entity/Q10855761', 'http://www.wikidata.org/entity/Q10856210', 'http://www.wikidata.org/entity/Q10859834', 'http://www.wikidata.org/entity/Q10860535', 'http://www.wikidata.org/entity/Q10889854', 'http://www.wikidata.org/entity/Q109368351', 'http://www.wikidata.org/entity/Q10938711', 'http://www.wikidata.org/entity/Q109405713', 'http://www.wikidata.org/entity/Q10943140', 'http://www.wikidata.org/entity/Q109673419', 'http://www.wikidata.org/entity/Q1111504', 'http://www.wikidata.org/entity/Q112224546', 'http://www.wikidata.org/entity/Q11234719', 'http://www.wikidata.org/entity/Q11241368', 'http://www.wikidata.org/entity/Q11261668', 'http://www.wikidata.org/entity/Q112673064', 'http://www.wikidata.org/entity/Q11276631', 'http://www.wikidata.org/entity/Q11285385', 'http://www.wikidata.org/entity/Q11286923', 'http://www.wikidata.org/entity/Q11353972', 'http://www.wikidata.org/entity/Q11354008', 'http://www.wikidata.org/entity/Q11356195', 'http://www.wikidata.org/entity/Q11357220', 'http://www.wikidata.org/entity/Q11358913', 'http://www.wikidata.org/entity/Q11360086', 'http://www.wikidata.org/entity/Q11360847', 'http://www.wikidata.org/entity/Q11361905', 'http://www.wikidata.org/entity/Q11362796', 'http://www.wikidata.org/entity/Q11362797', 'http://www.wikidata.org/entity/Q11362799', 'http://www.wikidata.org/entity/Q11369263', 'http://www.wikidata.org/entity/Q11369927', 'http://www.wikidata.org/entity/Q11370029', 'http://www.wikidata.org/entity/Q11370104', 'http://www.wikidata.org/entity/Q11371742', 'http://www.wikidata.org/entity/Q11373491', 'http://www.wikidata.org/entity/Q11376329', 'http://www.wikidata.org/entity/Q11377524', 'http://www.wikidata.org/entity/Q11378204', 'http://www.wikidata.org/entity/Q11379228', 'http://www.wikidata.org/entity/Q11379335', 'http://www.wikidata.org/entity/Q11382608', 'http://www.wikidata.org/entity/Q11383201', 'http://www.wikidata.org/entity/Q11383217', 'http://www.wikidata.org/entity/Q11385812', 'http://www.wikidata.org/entity/Q11386818', 'http://www.wikidata.org/entity/Q11390867', 'http://www.wikidata.org/entity/Q11390868', 'http://www.wikidata.org/entity/Q11392330', 'http://www.wikidata.org/entity/Q11394726', 'http://www.wikidata.org/entity/Q11395612', 'http://www.wikidata.org/entity/Q11395786', 'http://www.wikidata.org/entity/Q11397118', 'http://www.wikidata.org/entity/Q11398556', 'http://www.wikidata.org/entity/Q11399769', 'http://www.wikidata.org/entity/Q11401908', 'http://www.wikidata.org/entity/Q11402215', 'http://www.wikidata.org/entity/Q11402223', 'http://www.wikidata.org/entity/Q11407776', 'http://www.wikidata.org/entity/Q11409587', 'http://www.wikidata.org/entity/Q11410659', 'http://www.wikidata.org/entity/Q11415949', 'http://www.wikidata.org/entity/Q11415951', 'http://www.wikidata.org/entity/Q11415952', 'http://www.wikidata.org/entity/Q11415953', 'http://www.wikidata.org/entity/Q11416626', 'http://www.wikidata.org/entity/Q11418533', 'http://www.wikidata.org/entity/Q11419386', 'http://www.wikidata.org/entity/Q11419637', 'http://www.wikidata.org/entity/Q11420237', 'http://www.wikidata.org/entity/Q11424450', 'http://www.wikidata.org/entity/Q11424752', 'http://www.wikidata.org/entity/Q11425641', 'http://www.wikidata.org/entity/Q11430798', 'http://www.wikidata.org/entity/Q11431830', 'http://www.wikidata.org/entity/Q11432478', 'http://www.wikidata.org/entity/Q11434172', 'http://www.wikidata.org/entity/Q11434804', 'http://www.wikidata.org/entity/Q11434805', 'http://www.wikidata.org/entity/Q11434806', 'http://www.wikidata.org/entity/Q11434807', 'http://www.wikidata.org/entity/Q11434809', 'http://www.wikidata.org/entity/Q11434813', 'http://www.wikidata.org/entity/Q11434815', 'http://www.wikidata.org/entity/Q11434816', 'http://www.wikidata.org/entity/Q11434819', 'http://www.wikidata.org/entity/Q11435005', 'http://www.wikidata.org/entity/Q11435006', 'http://www.wikidata.org/entity/Q11436454', 'http://www.wikidata.org/entity/Q11436765', 'http://www.wikidata.org/entity/Q11437275', 'http://www.wikidata.org/entity/Q11438136', 'http://www.wikidata.org/entity/Q11438379', 'http://www.wikidata.org/entity/Q11439590', 'http://www.wikidata.org/entity/Q11442082', 'http://www.wikidata.org/entity/Q11443237', 'http://www.wikidata.org/entity/Q11445536', 'http://www.wikidata.org/entity/Q11446412', 'http://www.wikidata.org/entity/Q11447403', 'http://www.wikidata.org/entity/Q11447404', 'http://www.wikidata.org/entity/Q11449014', 'http://www.wikidata.org/entity/Q11449464', 'http://www.wikidata.org/entity/Q11450585', 'http://www.wikidata.org/entity/Q11454772', 'http://www.wikidata.org/entity/Q11458850', 'http://www.wikidata.org/entity/Q11459344', 'http://www.wikidata.org/entity/Q11459579', 'http://www.wikidata.org/entity/Q11460065', 'http://www.wikidata.org/entity/Q11460438', 'http://www.wikidata.org/entity/Q11464517', 'http://www.wikidata.org/entity/Q11465691', 'http://www.wikidata.org/entity/Q11474307', 'http://www.wikidata.org/entity/Q11474346', 'http://www.wikidata.org/entity/Q11475712', 'http://www.wikidata.org/entity/Q11476827', 'http://www.wikidata.org/entity/Q11476897', 'http://www.wikidata.org/entity/Q11477129', 'http://www.wikidata.org/entity/Q11477305', 'http://www.wikidata.org/entity/Q11477410', 'http://www.wikidata.org/entity/Q11481155', 'http://www.wikidata.org/entity/Q11482668', 'http://www.wikidata.org/entity/Q11482669', 'http://www.wikidata.org/entity/Q11483492', 'http://www.wikidata.org/entity/Q11483589', 'http://www.wikidata.org/entity/Q11483827', 'http://www.wikidata.org/entity/Q11484404', 'http://www.wikidata.org/entity/Q11486132', 'http://www.wikidata.org/entity/Q11486908', 'http://www.wikidata.org/entity/Q11486909', 'http://www.wikidata.org/entity/Q11486910', 'http://www.wikidata.org/entity/Q11486911', 'http://www.wikidata.org/entity/Q11487067', 'http://www.wikidata.org/entity/Q11487395', 'http://www.wikidata.org/entity/Q11488768', 'http://www.wikidata.org/entity/Q11489067', 'http://www.wikidata.org/entity/Q11489240', 'http://www.wikidata.org/entity/Q11489251', 'http://www.wikidata.org/entity/Q11490807', 'http://www.wikidata.org/entity/Q11491460', 'http://www.wikidata.org/entity/Q11491674', 'http://www.wikidata.org/entity/Q11492404', 'http://www.wikidata.org/entity/Q11492410', 'http://www.wikidata.org/entity/Q11492883', 'http://www.wikidata.org/entity/Q11492884', 'http://www.wikidata.org/entity/Q11496323', 'http://www.wikidata.org/entity/Q11496324', 'http://www.wikidata.org/entity/Q11496670', 'http://www.wikidata.org/entity/Q11497087', 'http://www.wikidata.org/entity/Q11497519', 'http://www.wikidata.org/entity/Q11500406', 'http://www.wikidata.org/entity/Q11501924', 'http://www.wikidata.org/entity/Q11502024', 'http://www.wikidata.org/entity/Q11502876', 'http://www.wikidata.org/entity/Q11504920', 'http://www.wikidata.org/entity/Q11505281', 'http://www.wikidata.org/entity/Q11505343', 'http://www.wikidata.org/entity/Q11511249', 'http://www.wikidata.org/entity/Q11516644', 'http://www.wikidata.org/entity/Q11520216', 'http://www.wikidata.org/entity/Q11530091', 'http://www.wikidata.org/entity/Q11530093', 'http://www.wikidata.org/entity/Q11532746', 'http://www.wikidata.org/entity/Q11533729', 'http://www.wikidata.org/entity/Q11542683', 'http://www.wikidata.org/entity/Q11542685', 'http://www.wikidata.org/entity/Q11543672', 'http://www.wikidata.org/entity/Q11544654', 'http://www.wikidata.org/entity/Q11544655', 'http://www.wikidata.org/entity/Q11545996', 'http://www.wikidata.org/entity/Q11547731', 'http://www.wikidata.org/entity/Q11548193', 'http://www.wikidata.org/entity/Q11548462', 'http://www.wikidata.org/entity/Q11550173', 'http://www.wikidata.org/entity/Q11550842', 'http://www.wikidata.org/entity/Q11550845', 'http://www.wikidata.org/entity/Q11551591', 'http://www.wikidata.org/entity/Q11552439', 'http://www.wikidata.org/entity/Q11552466', 'http://www.wikidata.org/entity/Q11552477', 'http://www.wikidata.org/entity/Q11552498', 'http://www.wikidata.org/entity/Q11552502', 'http://www.wikidata.org/entity/Q11552549', 'http://www.wikidata.org/entity/Q11553027', 'http://www.wikidata.org/entity/Q11555929', 'http://www.wikidata.org/entity/Q11555966', 'http://www.wikidata.org/entity/Q11556058', 'http://www.wikidata.org/entity/Q11556221', 'http://www.wikidata.org/entity/Q11558501', 'http://www.wikidata.org/entity/Q11558503', 'http://www.wikidata.org/entity/Q11558824', 'http://www.wikidata.org/entity/Q11559068', 'http://www.wikidata.org/entity/Q11559418', 'http://www.wikidata.org/entity/Q11559763', 'http://www.wikidata.org/entity/Q11559986', 'http://www.wikidata.org/entity/Q11562837', 'http://www.wikidata.org/entity/Q11563518', 'http://www.wikidata.org/entity/Q11567224', 'http://www.wikidata.org/entity/Q11567245', 'http://www.wikidata.org/entity/Q11567267', 'http://www.wikidata.org/entity/Q11572200', 'http://www.wikidata.org/entity/Q11572311', 'http://www.wikidata.org/entity/Q11573306', 'http://www.wikidata.org/entity/Q11573823', 'http://www.wikidata.org/entity/Q11574179', 'http://www.wikidata.org/entity/Q11574434', 'http://www.wikidata.org/entity/Q11574442', 'http://www.wikidata.org/entity/Q11574503', 'http://www.wikidata.org/entity/Q11574566', 'http://www.wikidata.org/entity/Q11574873', 'http://www.wikidata.org/entity/Q11576597', 'http://www.wikidata.org/entity/Q11577548', 'http://www.wikidata.org/entity/Q11577742', 'http://www.wikidata.org/entity/Q11578144', 'http://www.wikidata.org/entity/Q11578192', 'http://www.wikidata.org/entity/Q11578542', 'http://www.wikidata.org/entity/Q11579570', 'http://www.wikidata.org/entity/Q11580729', 'http://www.wikidata.org/entity/Q11580862', 'http://www.wikidata.org/entity/Q11580911', 'http://www.wikidata.org/entity/Q11581974', 'http://www.wikidata.org/entity/Q11581975', 'http://www.wikidata.org/entity/Q11583780', 'http://www.wikidata.org/entity/Q11583965', 'http://www.wikidata.org/entity/Q11588028', 'http://www.wikidata.org/entity/Q11588453', 'http://www.wikidata.org/entity/Q11589438', 'http://www.wikidata.org/entity/Q11589594', 'http://www.wikidata.org/entity/Q11591024', 'http://www.wikidata.org/entity/Q11592984', 'http://www.wikidata.org/entity/Q11596394', 'http://www.wikidata.org/entity/Q11598512', 'http://www.wikidata.org/entity/Q11598646', 'http://www.wikidata.org/entity/Q11598647', 'http://www.wikidata.org/entity/Q11599897', 'http://www.wikidata.org/entity/Q11602695', 'http://www.wikidata.org/entity/Q11603507', 'http://www.wikidata.org/entity/Q11603714', 'http://www.wikidata.org/entity/Q11604580', 'http://www.wikidata.org/entity/Q11604657', 'http://www.wikidata.org/entity/Q11605347', 'http://www.wikidata.org/entity/Q11607173', 'http://www.wikidata.org/entity/Q11610036', 'http://www.wikidata.org/entity/Q11612025', 'http://www.wikidata.org/entity/Q11613384', 'http://www.wikidata.org/entity/Q11614676', 'http://www.wikidata.org/entity/Q11616271', 'http://www.wikidata.org/entity/Q11622569', 'http://www.wikidata.org/entity/Q11625567', 'http://www.wikidata.org/entity/Q11626891', 'http://www.wikidata.org/entity/Q11630243', 'http://www.wikidata.org/entity/Q11631382', 'http://www.wikidata.org/entity/Q11633491', 'http://www.wikidata.org/entity/Q11633492', 'http://www.wikidata.org/entity/Q11634353', 'http://www.wikidata.org/entity/Q11635889', 'http://www.wikidata.org/entity/Q11636071', 'http://www.wikidata.org/entity/Q11636883', 'http://www.wikidata.org/entity/Q116373818', 'http://www.wikidata.org/entity/Q11645346', 'http://www.wikidata.org/entity/Q11645453', 'http://www.wikidata.org/entity/Q11647939', 'http://www.wikidata.org/entity/Q11648162', 'http://www.wikidata.org/entity/Q11648224', 'http://www.wikidata.org/entity/Q11650283', 'http://www.wikidata.org/entity/Q11650626', 'http://www.wikidata.org/entity/Q11652193', 'http://www.wikidata.org/entity/Q11652198', 'http://www.wikidata.org/entity/Q11652204', 'http://www.wikidata.org/entity/Q11652207', 'http://www.wikidata.org/entity/Q11655424', 'http://www.wikidata.org/entity/Q11657147', 'http://www.wikidata.org/entity/Q11657359', 'http://www.wikidata.org/entity/Q11659209', 'http://www.wikidata.org/entity/Q11661369', 'http://www.wikidata.org/entity/Q11661370', 'http://www.wikidata.org/entity/Q11661371', 'http://www.wikidata.org/entity/Q11661373', 'http://www.wikidata.org/entity/Q11662600', 'http://www.wikidata.org/entity/Q11664922', 'http://www.wikidata.org/entity/Q11664932', 'http://www.wikidata.org/entity/Q11665527', 'http://www.wikidata.org/entity/Q11665758', 'http://www.wikidata.org/entity/Q11665759', 'http://www.wikidata.org/entity/Q11667955', 'http://www.wikidata.org/entity/Q11667995', 'http://www.wikidata.org/entity/Q11668024', 'http://www.wikidata.org/entity/Q11668037', 'http://www.wikidata.org/entity/Q11668718', 'http://www.wikidata.org/entity/Q11669590', 'http://www.wikidata.org/entity/Q11669595', 'http://www.wikidata.org/entity/Q11669597', 'http://www.wikidata.org/entity/Q11669598', 'http://www.wikidata.org/entity/Q11669599', 'http://www.wikidata.org/entity/Q11669603', 'http://www.wikidata.org/entity/Q11669605', 'http://www.wikidata.org/entity/Q11670635', 'http://www.wikidata.org/entity/Q11673959', 'http://www.wikidata.org/entity/Q11674270', 'http://www.wikidata.org/entity/Q11675635', 'http://www.wikidata.org/entity/Q11675694', 'http://www.wikidata.org/entity/Q11675705', 'http://www.wikidata.org/entity/Q11675721', 'http://www.wikidata.org/entity/Q11675825', 'http://www.wikidata.org/entity/Q11676467', 'http://www.wikidata.org/entity/Q11677072', 'http://www.wikidata.org/entity/Q116774724', 'http://www.wikidata.org/entity/Q11678083', 'http://www.wikidata.org/entity/Q11678144', 'http://www.wikidata.org/entity/Q11678145', 'http://www.wikidata.org/entity/Q11678146', 'http://www.wikidata.org/entity/Q11678147', 'http://www.wikidata.org/entity/Q11678919', 'http://www.wikidata.org/entity/Q1204188', 'http://www.wikidata.org/entity/Q12122598', 'http://www.wikidata.org/entity/Q12168088', 'http://www.wikidata.org/entity/Q122792969', 'http://www.wikidata.org/entity/Q123092880', 'http://www.wikidata.org/entity/Q123554758', 'http://www.wikidata.org/entity/Q123554899', 'http://www.wikidata.org/entity/Q123563180', 'http://www.wikidata.org/entity/Q123568579', 'http://www.wikidata.org/entity/Q123592347', 'http://www.wikidata.org/entity/Q123592528', 'http://www.wikidata.org/entity/Q123630881', 'http://www.wikidata.org/entity/Q123631133', 'http://www.wikidata.org/entity/Q123848497', 'http://www.wikidata.org/entity/Q126617200', 'http://www.wikidata.org/entity/Q130120', 'http://www.wikidata.org/entity/Q130535', 'http://www.wikidata.org/entity/Q1344326', 'http://www.wikidata.org/entity/Q137962', 'http://www.wikidata.org/entity/Q13987', 'http://www.wikidata.org/entity/Q13991', 'http://www.wikidata.org/entity/Q1414691', 'http://www.wikidata.org/entity/Q145371', 'http://www.wikidata.org/entity/Q1475428', 'http://www.wikidata.org/entity/Q14948405', 'http://www.wikidata.org/entity/Q14948406', 'http://www.wikidata.org/entity/Q15231937', 'http://www.wikidata.org/entity/Q15233224', 'http://www.wikidata.org/entity/Q1532472', 'http://www.wikidata.org/entity/Q15914611', 'http://www.wikidata.org/entity/Q15914636', 'http://www.wikidata.org/entity/Q15914793', 'http://www.wikidata.org/entity/Q15914839', 'http://www.wikidata.org/entity/Q15914850', 'http://www.wikidata.org/entity/Q15914965', 'http://www.wikidata.org/entity/Q15915038', 'http://www.wikidata.org/entity/Q15915094', 'http://www.wikidata.org/entity/Q15915371', 'http://www.wikidata.org/entity/Q15915516', 'http://www.wikidata.org/entity/Q15915542', 'http://www.wikidata.org/entity/Q15915739', 'http://www.wikidata.org/entity/Q15915768', 'http://www.wikidata.org/entity/Q15915877', 'http://www.wikidata.org/entity/Q15915985', 'http://www.wikidata.org/entity/Q15916001', 'http://www.wikidata.org/entity/Q15916180', 'http://www.wikidata.org/entity/Q15916186', 'http://www.wikidata.org/entity/Q15916187', 'http://www.wikidata.org/entity/Q15916216', 'http://www.wikidata.org/entity/Q15916253', 'http://www.wikidata.org/entity/Q15916254', 'http://www.wikidata.org/entity/Q15916285', 'http://www.wikidata.org/entity/Q15916297', 'http://www.wikidata.org/entity/Q15916298', 'http://www.wikidata.org/entity/Q15916369', 'http://www.wikidata.org/entity/Q15916370', 'http://www.wikidata.org/entity/Q15916387', 'http://www.wikidata.org/entity/Q15916410', 'http://www.wikidata.org/entity/Q15916434', 'http://www.wikidata.org/entity/Q15916435', 'http://www.wikidata.org/entity/Q15916437', 'http://www.wikidata.org/entity/Q15916438', 'http://www.wikidata.org/entity/Q15916508', 'http://www.wikidata.org/entity/Q15923957', 'http://www.wikidata.org/entity/Q15924538', 'http://www.wikidata.org/entity/Q15925138', 'http://www.wikidata.org/entity/Q15925270', 'http://www.wikidata.org/entity/Q1676132', 'http://www.wikidata.org/entity/Q169589', 'http://www.wikidata.org/entity/Q17021654', 'http://www.wikidata.org/entity/Q17023687', 'http://www.wikidata.org/entity/Q17031459', 'http://www.wikidata.org/entity/Q17039990', 'http://www.wikidata.org/entity/Q17191315', 'http://www.wikidata.org/entity/Q17191378', 'http://www.wikidata.org/entity/Q17192049', 'http://www.wikidata.org/entity/Q17192826', 'http://www.wikidata.org/entity/Q17193690', 'http://www.wikidata.org/entity/Q17210135', 'http://www.wikidata.org/entity/Q17210185', 'http://www.wikidata.org/entity/Q17211889', 'http://www.wikidata.org/entity/Q17214084', 'http://www.wikidata.org/entity/Q17215469', 'http://www.wikidata.org/entity/Q17216064', 'http://www.wikidata.org/entity/Q17216375', 'http://www.wikidata.org/entity/Q17217423', 'http://www.wikidata.org/entity/Q17219919', 'http://www.wikidata.org/entity/Q17221048', 'http://www.wikidata.org/entity/Q17222656', 'http://www.wikidata.org/entity/Q17223389', 'http://www.wikidata.org/entity/Q17225029', 'http://www.wikidata.org/entity/Q17989148', 'http://www.wikidata.org/entity/Q17989626', 'http://www.wikidata.org/entity/Q17992764', 'http://www.wikidata.org/entity/Q17993734', 'http://www.wikidata.org/entity/Q17995776', 'http://www.wikidata.org/entity/Q18003098', 'http://www.wikidata.org/entity/Q18009413', 'http://www.wikidata.org/entity/Q18010599', 'http://www.wikidata.org/entity/Q1803811', 'http://www.wikidata.org/entity/Q18335728', 'http://www.wikidata.org/entity/Q18336591', 'http://www.wikidata.org/entity/Q18336657', 'http://www.wikidata.org/entity/Q18338827', 'http://www.wikidata.org/entity/Q18338974', 'http://www.wikidata.org/entity/Q18339013', 'http://www.wikidata.org/entity/Q18339157', 'http://www.wikidata.org/entity/Q18339362', 'http://www.wikidata.org/entity/Q18339537', 'http://www.wikidata.org/entity/Q18339548', 'http://www.wikidata.org/entity/Q18700735', 'http://www.wikidata.org/entity/Q187366', 'http://www.wikidata.org/entity/Q196701', 'http://www.wikidata.org/entity/Q19926707', 'http://www.wikidata.org/entity/Q19927579', 'http://www.wikidata.org/entity/Q19927913', 'http://www.wikidata.org/entity/Q19928028', 'http://www.wikidata.org/entity/Q1995509', 'http://www.wikidata.org/entity/Q19969455', 'http://www.wikidata.org/entity/Q19969456', 'http://www.wikidata.org/entity/Q19969457', 'http://www.wikidata.org/entity/Q19969459', 'http://www.wikidata.org/entity/Q19969461', 'http://www.wikidata.org/entity/Q19969462', 'http://www.wikidata.org/entity/Q19969463', 'http://www.wikidata.org/entity/Q20043639', 'http://www.wikidata.org/entity/Q20160219', 'http://www.wikidata.org/entity/Q2018422', 'http://www.wikidata.org/entity/Q20207875', 'http://www.wikidata.org/entity/Q20208336', 'http://www.wikidata.org/entity/Q20208605', 'http://www.wikidata.org/entity/Q20220282', 'http://www.wikidata.org/entity/Q20220291', 'http://www.wikidata.org/entity/Q20249559', 'http://www.wikidata.org/entity/Q20251315', 'http://www.wikidata.org/entity/Q20267482', 'http://www.wikidata.org/entity/Q20441459', 'http://www.wikidata.org/entity/Q20441495', 'http://www.wikidata.org/entity/Q20441538', 'http://www.wikidata.org/entity/Q20441672', 'http://www.wikidata.org/entity/Q20441835', 'http://www.wikidata.org/entity/Q20442833', 'http://www.wikidata.org/entity/Q20442886', 'http://www.wikidata.org/entity/Q20454159', 'http://www.wikidata.org/entity/Q20652984', 'http://www.wikidata.org/entity/Q20653009', 'http://www.wikidata.org/entity/Q20653020', 'http://www.wikidata.org/entity/Q20653048', 'http://www.wikidata.org/entity/Q20653083', 'http://www.wikidata.org/entity/Q20653128', 'http://www.wikidata.org/entity/Q20655767', 'http://www.wikidata.org/entity/Q20655779', 'http://www.wikidata.org/entity/Q20655824', 'http://www.wikidata.org/entity/Q20655829', 'http://www.wikidata.org/entity/Q20655854', 'http://www.wikidata.org/entity/Q20655861', 'http://www.wikidata.org/entity/Q20656218', 'http://www.wikidata.org/entity/Q20662194', 'http://www.wikidata.org/entity/Q20662421', 'http://www.wikidata.org/entity/Q20665543', 'http://www.wikidata.org/entity/Q20669152', 'http://www.wikidata.org/entity/Q20669173', 'http://www.wikidata.org/entity/Q20669188', 'http://www.wikidata.org/entity/Q20669201', 'http://www.wikidata.org/entity/Q20669474', 'http://www.wikidata.org/entity/Q20670485', 'http://www.wikidata.org/entity/Q20670486', 'http://www.wikidata.org/entity/Q20670489', 'http://www.wikidata.org/entity/Q20670490', 'http://www.wikidata.org/entity/Q20670802', 'http://www.wikidata.org/entity/Q20670818', 'http://www.wikidata.org/entity/Q20670842', 'http://www.wikidata.org/entity/Q20680346', 'http://www.wikidata.org/entity/Q20681784', 'http://www.wikidata.org/entity/Q20681836', 'http://www.wikidata.org/entity/Q20687296', 'http://www.wikidata.org/entity/Q20706572', 'http://www.wikidata.org/entity/Q20706579', 'http://www.wikidata.org/entity/Q20706699', 'http://www.wikidata.org/entity/Q20709285', 'http://www.wikidata.org/entity/Q2118388', 'http://www.wikidata.org/entity/Q21652956', 'http://www.wikidata.org/entity/Q21652975', 'http://www.wikidata.org/entity/Q21653337', 'http://www.wikidata.org/entity/Q21653909', 'http://www.wikidata.org/entity/Q21654565', 'http://www.wikidata.org/entity/Q2166413', 'http://www.wikidata.org/entity/Q220701', 'http://www.wikidata.org/entity/Q23069893', 'http://www.wikidata.org/entity/Q2407298', 'http://www.wikidata.org/entity/Q242176', 'http://www.wikidata.org/entity/Q24488445', 'http://www.wikidata.org/entity/Q247515', 'http://www.wikidata.org/entity/Q24871573', 'http://www.wikidata.org/entity/Q24872138', 'http://www.wikidata.org/entity/Q24875184', 'http://www.wikidata.org/entity/Q24898648', 'http://www.wikidata.org/entity/Q24902485', 'http://www.wikidata.org/entity/Q27560716', 'http://www.wikidata.org/entity/Q277035', 'http://www.wikidata.org/entity/Q28155659', 'http://www.wikidata.org/entity/Q285468', 'http://www.wikidata.org/entity/Q28682242', 'http://www.wikidata.org/entity/Q28682892', 'http://www.wikidata.org/entity/Q28682901', 'http://www.wikidata.org/entity/Q28683300', 'http://www.wikidata.org/entity/Q28684991', 'http://www.wikidata.org/entity/Q28684995', 'http://www.wikidata.org/entity/Q28687509', 'http://www.wikidata.org/entity/Q28687512', 'http://www.wikidata.org/entity/Q28687517', 'http://www.wikidata.org/entity/Q28687518', 'http://www.wikidata.org/entity/Q28687526', 'http://www.wikidata.org/entity/Q28687528', 'http://www.wikidata.org/entity/Q28687549', 'http://www.wikidata.org/entity/Q28687551', 'http://www.wikidata.org/entity/Q28687556', 'http://www.wikidata.org/entity/Q28687561', 'http://www.wikidata.org/entity/Q28687591', 'http://www.wikidata.org/entity/Q28693411', 'http://www.wikidata.org/entity/Q29980548', 'http://www.wikidata.org/entity/Q30925772', 'http://www.wikidata.org/entity/Q30925773', 'http://www.wikidata.org/entity/Q30931692', 'http://www.wikidata.org/entity/Q30931979', 'http://www.wikidata.org/entity/Q3108859', 'http://www.wikidata.org/entity/Q3199146', 'http://www.wikidata.org/entity/Q3285144', 'http://www.wikidata.org/entity/Q328533', 'http://www.wikidata.org/entity/Q3349795', 'http://www.wikidata.org/entity/Q339004', 'http://www.wikidata.org/entity/Q34783955', 'http://www.wikidata.org/entity/Q34783964', 'http://www.wikidata.org/entity/Q34783974', 'http://www.wikidata.org/entity/Q34784035', 'http://www.wikidata.org/entity/Q34784045', 'http://www.wikidata.org/entity/Q34784074', 'http://www.wikidata.org/entity/Q34784082', 'http://www.wikidata.org/entity/Q34784090', 'http://www.wikidata.org/entity/Q34784099', 'http://www.wikidata.org/entity/Q34784108', 'http://www.wikidata.org/entity/Q34784117', 'http://www.wikidata.org/entity/Q34784145', 'http://www.wikidata.org/entity/Q34784154', 'http://www.wikidata.org/entity/Q34784163', 'http://www.wikidata.org/entity/Q34784172', 'http://www.wikidata.org/entity/Q34784180', 'http://www.wikidata.org/entity/Q34784236', 'http://www.wikidata.org/entity/Q34784245', 'http://www.wikidata.org/entity/Q34784264', 'http://www.wikidata.org/entity/Q34784309', 'http://www.wikidata.org/entity/Q34784328', 'http://www.wikidata.org/entity/Q34784514', 'http://www.wikidata.org/entity/Q34785535', 'http://www.wikidata.org/entity/Q34785547', 'http://www.wikidata.org/entity/Q34787923', 'http://www.wikidata.org/entity/Q34787927', 'http://www.wikidata.org/entity/Q34787936', 'http://www.wikidata.org/entity/Q34787940', 'http://www.wikidata.org/entity/Q34787945', 'http://www.wikidata.org/entity/Q34787948', 'http://www.wikidata.org/entity/Q34787955', 'http://www.wikidata.org/entity/Q34787960', 'http://www.wikidata.org/entity/Q34787964', 'http://www.wikidata.org/entity/Q34787968', 'http://www.wikidata.org/entity/Q34787980', 'http://www.wikidata.org/entity/Q34787985', 'http://www.wikidata.org/entity/Q34788048', 'http://www.wikidata.org/entity/Q34788086', 'http://www.wikidata.org/entity/Q34788091', 'http://www.wikidata.org/entity/Q34788095', 'http://www.wikidata.org/entity/Q34788578', 'http://www.wikidata.org/entity/Q34788581', 'http://www.wikidata.org/entity/Q34788617', 'http://www.wikidata.org/entity/Q34788621', 'http://www.wikidata.org/entity/Q34788699', 'http://www.wikidata.org/entity/Q34795633', 'http://www.wikidata.org/entity/Q34795652', 'http://www.wikidata.org/entity/Q34795659', 'http://www.wikidata.org/entity/Q34795671', 'http://www.wikidata.org/entity/Q34795678', 'http://www.wikidata.org/entity/Q34795686', 'http://www.wikidata.org/entity/Q34795693', 'http://www.wikidata.org/entity/Q34795722', 'http://www.wikidata.org/entity/Q34795734', 'http://www.wikidata.org/entity/Q34795744', 'http://www.wikidata.org/entity/Q34795753', 'http://www.wikidata.org/entity/Q34795770', 'http://www.wikidata.org/entity/Q34795778', 'http://www.wikidata.org/entity/Q34795788', 'http://www.wikidata.org/entity/Q34795804', 'http://www.wikidata.org/entity/Q34795808', 'http://www.wikidata.org/entity/Q34795832', 'http://www.wikidata.org/entity/Q34795844', 'http://www.wikidata.org/entity/Q34795856', 'http://www.wikidata.org/entity/Q34795867', 'http://www.wikidata.org/entity/Q34795874', 'http://www.wikidata.org/entity/Q34795887', 'http://www.wikidata.org/entity/Q34795901', 'http://www.wikidata.org/entity/Q34795907', 'http://www.wikidata.org/entity/Q34795913', 'http://www.wikidata.org/entity/Q34795937', 'http://www.wikidata.org/entity/Q34795942', 'http://www.wikidata.org/entity/Q34795954', 'http://www.wikidata.org/entity/Q34795961', 'http://www.wikidata.org/entity/Q34795967', 'http://www.wikidata.org/entity/Q34795972', 'http://www.wikidata.org/entity/Q34795984', 'http://www.wikidata.org/entity/Q34795990', 'http://www.wikidata.org/entity/Q34795996', 'http://www.wikidata.org/entity/Q34796002', 'http://www.wikidata.org/entity/Q34796008', 'http://www.wikidata.org/entity/Q34796015', 'http://www.wikidata.org/entity/Q34796021', 'http://www.wikidata.org/entity/Q34796028', 'http://www.wikidata.org/entity/Q34796033', 'http://www.wikidata.org/entity/Q34796043', 'http://www.wikidata.org/entity/Q34796055', 'http://www.wikidata.org/entity/Q34796071', 'http://www.wikidata.org/entity/Q34796095', 'http://www.wikidata.org/entity/Q34796102', 'http://www.wikidata.org/entity/Q34796119', 'http://www.wikidata.org/entity/Q34796134', 'http://www.wikidata.org/entity/Q34796146', 'http://www.wikidata.org/entity/Q34796151', 'http://www.wikidata.org/entity/Q34796158', 'http://www.wikidata.org/entity/Q34796163', 'http://www.wikidata.org/entity/Q34796170', 'http://www.wikidata.org/entity/Q34796175', 'http://www.wikidata.org/entity/Q34796180', 'http://www.wikidata.org/entity/Q34861379', 'http://www.wikidata.org/entity/Q34861390', 'http://www.wikidata.org/entity/Q34861523', 'http://www.wikidata.org/entity/Q34861562', 'http://www.wikidata.org/entity/Q34861821', 'http://www.wikidata.org/entity/Q34862653', 'http://www.wikidata.org/entity/Q3579074', 'http://www.wikidata.org/entity/Q3594049', 'http://www.wikidata.org/entity/Q3623017', 'http://www.wikidata.org/entity/Q3785700', 'http://www.wikidata.org/entity/Q382082', 'http://www.wikidata.org/entity/Q38266996', 'http://www.wikidata.org/entity/Q385313', 'http://www.wikidata.org/entity/Q385710', 'http://www.wikidata.org/entity/Q393031', 'http://www.wikidata.org/entity/Q398636', 'http://www.wikidata.org/entity/Q432124', 'http://www.wikidata.org/entity/Q4419675', 'http://www.wikidata.org/entity/Q4419682', 'http://www.wikidata.org/entity/Q4478859', 'http://www.wikidata.org/entity/Q4497854', 'http://www.wikidata.org/entity/Q4518163', 'http://www.wikidata.org/entity/Q4518364', 'http://www.wikidata.org/entity/Q4518483', 'http://www.wikidata.org/entity/Q4518560', 'http://www.wikidata.org/entity/Q4518632', 'http://www.wikidata.org/entity/Q4518662', 'http://www.wikidata.org/entity/Q4518698', 'http://www.wikidata.org/entity/Q4518728', 'http://www.wikidata.org/entity/Q4518764', 'http://www.wikidata.org/entity/Q4518813', 'http://www.wikidata.org/entity/Q4518835', 'http://www.wikidata.org/entity/Q4518882', 'http://www.wikidata.org/entity/Q4518914', 'http://www.wikidata.org/entity/Q4518946', 'http://www.wikidata.org/entity/Q4519060', 'http://www.wikidata.org/entity/Q4519100', 'http://www.wikidata.org/entity/Q4519127', 'http://www.wikidata.org/entity/Q4519202', 'http://www.wikidata.org/entity/Q4519334', 'http://www.wikidata.org/entity/Q4519416', 'http://www.wikidata.org/entity/Q4519472', 'http://www.wikidata.org/entity/Q4520401', 'http://www.wikidata.org/entity/Q4520501', 'http://www.wikidata.org/entity/Q4520623', 'http://www.wikidata.org/entity/Q4520676', 'http://www.wikidata.org/entity/Q4520740', 'http://www.wikidata.org/entity/Q473472', 'http://www.wikidata.org/entity/Q474560', 'http://www.wikidata.org/entity/Q48752569', 'http://www.wikidata.org/entity/Q48752621', 'http://www.wikidata.org/entity/Q490610', 'http://www.wikidata.org/entity/Q49333374', 'http://www.wikidata.org/entity/Q494914', 'http://www.wikidata.org/entity/Q49493', 'http://www.wikidata.org/entity/Q49500', 'http://www.wikidata.org/entity/Q49507', 'http://www.wikidata.org/entity/Q49511', 'http://www.wikidata.org/entity/Q49513', 'http://www.wikidata.org/entity/Q49631357', 'http://www.wikidata.org/entity/Q49631388', 'http://www.wikidata.org/entity/Q49631402', 'http://www.wikidata.org/entity/Q49631408', 'http://www.wikidata.org/entity/Q49631415', 'http://www.wikidata.org/entity/Q49631418', 'http://www.wikidata.org/entity/Q49631448', 'http://www.wikidata.org/entity/Q49631449', 'http://www.wikidata.org/entity/Q49631468', 'http://www.wikidata.org/entity/Q49631471', 'http://www.wikidata.org/entity/Q49631484', 'http://www.wikidata.org/entity/Q49631487', 'http://www.wikidata.org/entity/Q49631489', 'http://www.wikidata.org/entity/Q49631490', 'http://www.wikidata.org/entity/Q49631492', 'http://www.wikidata.org/entity/Q49631493', 'http://www.wikidata.org/entity/Q49631495', 'http://www.wikidata.org/entity/Q49631497', 'http://www.wikidata.org/entity/Q49631501', 'http://www.wikidata.org/entity/Q49631532', 'http://www.wikidata.org/entity/Q49631657', 'http://www.wikidata.org/entity/Q49631707', 'http://www.wikidata.org/entity/Q49631712', 'http://www.wikidata.org/entity/Q49631766', 'http://www.wikidata.org/entity/Q49631801', 'http://www.wikidata.org/entity/Q49631841', 'http://www.wikidata.org/entity/Q49631849', 'http://www.wikidata.org/entity/Q49631851', 'http://www.wikidata.org/entity/Q49631852', 'http://www.wikidata.org/entity/Q49631855', 'http://www.wikidata.org/entity/Q49631874', 'http://www.wikidata.org/entity/Q49631881', 'http://www.wikidata.org/entity/Q49631883', </t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q101461338', 'http://www.wikidata.org/entity/Q102262104', 'http://www.wikidata.org/entity/Q104092039', 'http://www.wikidata.org/entity/Q104754670', 'http://www.wikidata.org/entity/Q104871599', 'http://www.wikidata.org/entity/Q105946950', 'http://www.wikidata.org/entity/Q106239285', 'http://www.wikidata.org/entity/Q106641854', 'http://www.wikidata.org/entity/Q109867618', 'http://www.wikidata.org/entity/Q110409287', 'http://www.wikidata.org/entity/Q110463710', 'http://www.wikidata.org/entity/Q111208612', 'http://www.wikidata.org/entity/Q111317674', 'http://www.wikidata.org/entity/Q111550358', 'http://www.wikidata.org/entity/Q112242085', 'http://www.wikidata.org/entity/Q113053908', 'http://www.wikidata.org/entity/Q113366946', 'http://www.wikidata.org/entity/Q1134747', 'http://www.wikidata.org/entity/Q1138662', 'http://www.wikidata.org/entity/Q114467462', 'http://www.wikidata.org/entity/Q1152240', 'http://www.wikidata.org/entity/Q116163711', 'http://www.wikidata.org/entity/Q116247751', 'http://www.wikidata.org/entity/Q117359492', 'http://www.wikidata.org/entity/Q118315835', 'http://www.wikidata.org/entity/Q1189945', 'http://www.wikidata.org/entity/Q119659108', 'http://www.wikidata.org/entity/Q11975486', 'http://www.wikidata.org/entity/Q1206230', 'http://www.wikidata.org/entity/Q122293401', 'http://www.wikidata.org/entity/Q122678804', 'http://www.wikidata.org/entity/Q125547869', 'http://www.wikidata.org/entity/Q127387727', 'http://www.wikidata.org/entity/Q130487350', 'http://www.wikidata.org/entity/Q130637712', 'http://www.wikidata.org/entity/Q1318049', 'http://www.wikidata.org/entity/Q1407504', 'http://www.wikidata.org/entity/Q1427937', 'http://www.wikidata.org/entity/Q1485545', 'http://www.wikidata.org/entity/Q1501630', 'http://www.wikidata.org/entity/Q1546160', 'http://www.wikidata.org/entity/Q15526612', 'http://www.wikidata.org/entity/Q15991231', 'http://www.wikidata.org/entity/Q16486916', 'http://www.wikidata.org/entity/Q1666928', 'http://www.wikidata.org/entity/Q16827098', 'http://www.wikidata.org/entity/Q16960364', 'http://www.wikidata.org/entity/Q16968519', 'http://www.wikidata.org/entity/Q16984554', 'http://www.wikidata.org/entity/Q16995438', 'http://www.wikidata.org/entity/Q17022874', 'http://www.wikidata.org/entity/Q17051632', 'http://www.wikidata.org/entity/Q17083636', 'http://www.wikidata.org/entity/Q17084604', 'http://www.wikidata.org/entity/Q17156801', 'http://www.wikidata.org/entity/Q17509911', 'http://www.wikidata.org/entity/Q17513408', 'http://www.wikidata.org/entity/Q17762567', 'http://www.wikidata.org/entity/Q18149240', 'http://www.wikidata.org/entity/Q1827515', 'http://www.wikidata.org/entity/Q18378670', 'http://www.wikidata.org/entity/Q18689243', 'http://www.wikidata.org/entity/Q189589', 'http://www.wikidata.org/entity/Q1914308', 'http://www.wikidata.org/entity/Q19384638', 'http://www.wikidata.org/entity/Q215639', 'http://www.wikidata.org/entity/Q22080419', 'http://www.wikidata.org/entity/Q2295361', 'http://www.wikidata.org/entity/Q22977946', 'http://www.wikidata.org/entity/Q24931012', 'http://www.wikidata.org/entity/Q25303143', 'http://www.wikidata.org/entity/Q2633520', 'http://www.wikidata.org/entity/Q26389854', 'http://www.wikidata.org/entity/Q2799043', 'http://www.wikidata.org/entity/Q28127172', 'http://www.wikidata.org/entity/Q3100842', 'http://www.wikidata.org/entity/Q32860542', 'http://www.wikidata.org/entity/Q3339159', 'http://www.wikidata.org/entity/Q33400141', 'http://www.wikidata.org/entity/Q3374416', 'http://www.wikidata.org/entity/Q345760', 'http://www.wikidata.org/entity/Q3490485', 'http://www.wikidata.org/entity/Q37715030', 'http://www.wikidata.org/entity/Q380102', 'http://www.wikidata.org/entity/Q39055182', 'http://www.wikidata.org/entity/Q39468429', 'http://www.wikidata.org/entity/Q4042981', 'http://www.wikidata.org/entity/Q4052145', 'http://www.wikidata.org/entity/Q4068094', 'http://www.wikidata.org/entity/Q41487145', 'http://www.wikidata.org/entity/Q4398717', 'http://www.wikidata.org/entity/Q4647740', 'http://www.wikidata.org/entity/Q4674596', 'http://www.wikidata.org/entity/Q4685837', 'http://www.wikidata.org/entity/Q4686869', 'http://www.wikidata.org/entity/Q4780797', 'http://www.wikidata.org/entity/Q48818116', 'http://www.wikidata.org/entity/Q5027876', 'http://www.wikidata.org/entity/Q50413919', 'http://www.wikidata.org/entity/Q5099325', 'http://www.wikidata.org/entity/Q5148560', 'http://www.wikidata.org/entity/Q5159054', 'http://www.wikidata.org/entity/Q5171655', 'http://www.wikidata.org/entity/Q5241692', 'http://www.wikidata.org/entity/Q5244137', 'http://www.wikidata.org/entity/Q5276228', 'http://www.wikidata.org/entity/Q5297711', 'http://www.wikidata.org/entity/Q5306018', 'http://www.wikidata.org/entity/Q5315592', 'http://www.wikidata.org/entity/Q5387144', 'http://www.wikidata.org/entity/Q53995495', 'http://www.wikidata.org/entity/Q54001625', 'http://www.wikidata.org/entity/Q5437006', 'http://www.wikidata.org/entity/Q5500039', 'http://www.wikidata.org/entity/Q5513790', 'http://www.wikidata.org/entity/Q55985886', 'http://www.wikidata.org/entity/Q5674337', 'http://www.wikidata.org/entity/Q58096291', 'http://www.wikidata.org/entity/Q5872693', 'http://www.wikidata.org/entity/Q59186556', 'http://www.wikidata.org/entity/Q59386608', 'http://www.wikidata.org/entity/Q5973348', 'http://www.wikidata.org/entity/Q60984347', 'http://www.wikidata.org/entity/Q6275230', 'http://www.wikidata.org/entity/Q63043104', 'http://www.wikidata.org/entity/Q6319098', 'http://www.wikidata.org/entity/Q64437945', 'http://www.wikidata.org/entity/Q64627233', 'http://www.wikidata.org/entity/Q65043997', 'http://www.wikidata.org/entity/Q65057672', 'http://www.wikidata.org/entity/Q6537721', 'http://www.wikidata.org/entity/Q6556550', 'http://www.wikidata.org/entity/Q6693139', 'http://www.wikidata.org/entity/Q6717514', 'http://www.wikidata.org/entity/Q6784006', 'http://www.wikidata.org/entity/Q67871918', 'http://www.wikidata.org/entity/Q6944890', 'http://www.wikidata.org/entity/Q7053610', 'http://www.wikidata.org/entity/Q7106584', 'http://www.wikidata.org/entity/Q7111460', 'http://www.wikidata.org/entity/Q7247909', 'http://www.wikidata.org/entity/Q734779', 'http://www.wikidata.org/entity/Q7359254', 'http://www.wikidata.org/entity/Q7376897', 'http://www.wikidata.org/entity/Q7389749', 'http://www.wikidata.org/entity/Q7431857', 'http://www.wikidata.org/entity/Q7507830', 'http://www.wikidata.org/entity/Q7659050', 'http://www.wikidata.org/entity/Q7662029', 'http://www.wikidata.org/entity/Q7670791', 'http://www.wikidata.org/entity/Q7692144', 'http://www.wikidata.org/entity/Q7761583', 'http://www.wikidata.org/entity/Q7832454', 'http://www.wikidata.org/entity/Q7832475', 'http://www.wikidata.org/entity/Q7947769', 'http://www.wikidata.org/entity/Q8030011', 'http://www.wikidata.org/entity/Q8037270', 'http://www.wikidata.org/entity/Q8062804', 'http://www.wikidata.org/entity/Q83988050', 'http://www.wikidata.org/entity/Q85800351', 'http://www.wikidata.org/entity/Q96400234', 'http://www.wikidata.org/entity/Q99333588']</t>
   </si>
   <si>
@@ -1141,9 +1810,6 @@
     <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q837']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q3896131']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q212862']</t>
   </si>
   <si>
@@ -1159,12 +1825,6 @@
     <t>['http://www.wikidata.org/entity/Q100331972', 'http://www.wikidata.org/entity/Q100394144', 'http://www.wikidata.org/entity/Q101218635', 'http://www.wikidata.org/entity/Q102256598', 'http://www.wikidata.org/entity/Q102390777', 'http://www.wikidata.org/entity/Q104483225', 'http://www.wikidata.org/entity/Q10533007', 'http://www.wikidata.org/entity/Q105389038', 'http://www.wikidata.org/entity/Q106157237', 'http://www.wikidata.org/entity/Q106243894', 'http://www.wikidata.org/entity/Q106363582', 'http://www.wikidata.org/entity/Q106798081', 'http://www.wikidata.org/entity/Q107310844', 'http://www.wikidata.org/entity/Q107344844', 'http://www.wikidata.org/entity/Q107369220', 'http://www.wikidata.org/entity/Q107750113', 'http://www.wikidata.org/entity/Q108108930', 'http://www.wikidata.org/entity/Q108142616', 'http://www.wikidata.org/entity/Q108143520', 'http://www.wikidata.org/entity/Q108305316', 'http://www.wikidata.org/entity/Q108419496', 'http://www.wikidata.org/entity/Q108420335', 'http://www.wikidata.org/entity/Q108528226', 'http://www.wikidata.org/entity/Q108801572', 'http://www.wikidata.org/entity/Q110024583', 'http://www.wikidata.org/entity/Q110257591', 'http://www.wikidata.org/entity/Q110438288', 'http://www.wikidata.org/entity/Q11102047', 'http://www.wikidata.org/entity/Q111279614', 'http://www.wikidata.org/entity/Q111378638', 'http://www.wikidata.org/entity/Q1115126', 'http://www.wikidata.org/entity/Q112460780', 'http://www.wikidata.org/entity/Q113045473', 'http://www.wikidata.org/entity/Q113074033', 'http://www.wikidata.org/entity/Q113184346', 'http://www.wikidata.org/entity/Q113232042', 'http://www.wikidata.org/entity/Q113737899', 'http://www.wikidata.org/entity/Q113749117', 'http://www.wikidata.org/entity/Q113772754', 'http://www.wikidata.org/entity/Q113807740', 'http://www.wikidata.org/entity/Q113834191', 'http://www.wikidata.org/entity/Q113843326', 'http://www.wikidata.org/entity/Q114089100', 'http://www.wikidata.org/entity/Q114235854', 'http://www.wikidata.org/entity/Q114616578', 'http://www.wikidata.org/entity/Q1147661', 'http://www.wikidata.org/entity/Q115110628', 'http://www.wikidata.org/entity/Q115180838', 'http://www.wikidata.org/entity/Q115864917', 'http://www.wikidata.org/entity/Q116759188', 'http://www.wikidata.org/entity/Q116765917', 'http://www.wikidata.org/entity/Q117198007', 'http://www.wikidata.org/entity/Q118487290', 'http://www.wikidata.org/entity/Q118762757', 'http://www.wikidata.org/entity/Q11931920', 'http://www.wikidata.org/entity/Q120961856', 'http://www.wikidata.org/entity/Q121300453', 'http://www.wikidata.org/entity/Q121378646', 'http://www.wikidata.org/entity/Q122228916', 'http://www.wikidata.org/entity/Q123117223', 'http://www.wikidata.org/entity/Q123183318', 'http://www.wikidata.org/entity/Q123189154', 'http://www.wikidata.org/entity/Q123196316', 'http://www.wikidata.org/entity/Q123247882', 'http://www.wikidata.org/entity/Q123281296', 'http://www.wikidata.org/entity/Q123282585', 'http://www.wikidata.org/entity/Q123403159', 'http://www.wikidata.org/entity/Q125352819', 'http://www.wikidata.org/entity/Q126363974', 'http://www.wikidata.org/entity/Q128183151', 'http://www.wikidata.org/entity/Q128693220', 'http://www.wikidata.org/entity/Q12873118', 'http://www.wikidata.org/entity/Q12873662', 'http://www.wikidata.org/entity/Q12873744', 'http://www.wikidata.org/entity/Q12874350', 'http://www.wikidata.org/entity/Q12875108', 'http://www.wikidata.org/entity/Q12875311', 'http://www.wikidata.org/entity/Q12875336', 'http://www.wikidata.org/entity/Q12878284', 'http://www.wikidata.org/entity/Q12878447', 'http://www.wikidata.org/entity/Q12880672', 'http://www.wikidata.org/entity/Q12880675', 'http://www.wikidata.org/entity/Q12880677', 'http://www.wikidata.org/entity/Q12881079', 'http://www.wikidata.org/entity/Q12885766', 'http://www.wikidata.org/entity/Q130305674', 'http://www.wikidata.org/entity/Q130632515', 'http://www.wikidata.org/entity/Q130632553', 'http://www.wikidata.org/entity/Q130718161', 'http://www.wikidata.org/entity/Q1329371', 'http://www.wikidata.org/entity/Q13411107', 'http://www.wikidata.org/entity/Q1349114', 'http://www.wikidata.org/entity/Q14153584', 'http://www.wikidata.org/entity/Q14229034', 'http://www.wikidata.org/entity/Q1439570', 'http://www.wikidata.org/entity/Q14500317', 'http://www.wikidata.org/entity/Q14625005', 'http://www.wikidata.org/entity/Q15002185', 'http://www.wikidata.org/entity/Q1509428', 'http://www.wikidata.org/entity/Q15274548', 'http://www.wikidata.org/entity/Q15433778', 'http://www.wikidata.org/entity/Q15651684', 'http://www.wikidata.org/entity/Q15707552', 'http://www.wikidata.org/entity/Q1581009', 'http://www.wikidata.org/entity/Q15983065', 'http://www.wikidata.org/entity/Q15994196', 'http://www.wikidata.org/entity/Q1601376', 'http://www.wikidata.org/entity/Q160478', 'http://www.wikidata.org/entity/Q16199868', 'http://www.wikidata.org/entity/Q16235535', 'http://www.wikidata.org/entity/Q16327244', 'http://www.wikidata.org/entity/Q16327733', 'http://www.wikidata.org/entity/Q16328616', 'http://www.wikidata.org/entity/Q16328851', 'http://www.wikidata.org/entity/Q16328867', 'http://www.wikidata.org/entity/Q16329078', 'http://www.wikidata.org/entity/Q16329346', 'http://www.wikidata.org/entity/Q16330120', 'http://www.wikidata.org/entity/Q16330682', 'http://www.wikidata.org/entity/Q16331916', 'http://www.wikidata.org/entity/Q16332287', 'http://www.wikidata.org/entity/Q16332578', 'http://www.wikidata.org/entity/Q16332651', 'http://www.wikidata.org/entity/Q16512450', 'http://www.wikidata.org/entity/Q16512492', 'http://www.wikidata.org/entity/Q165319', 'http://www.wikidata.org/entity/Q16644246', 'http://www.wikidata.org/entity/Q16711496', 'http://www.wikidata.org/entity/Q16711498', 'http://www.wikidata.org/entity/Q16853551', 'http://www.wikidata.org/entity/Q16874283', 'http://www.wikidata.org/entity/Q16937833', 'http://www.wikidata.org/entity/Q17000036', 'http://www.wikidata.org/entity/Q17315716', 'http://www.wikidata.org/entity/Q17350265', 'http://www.wikidata.org/entity/Q17420765', 'http://www.wikidata.org/entity/Q17420770', 'http://www.wikidata.org/entity/Q1755825', 'http://www.wikidata.org/entity/Q18234229', 'http://www.wikidata.org/entity/Q18335504', 'http://www.wikidata.org/entity/Q18340746', 'http://www.wikidata.org/entity/Q18340750', 'http://www.wikidata.org/entity/Q18392960', 'http://www.wikidata.org/entity/Q18397296', 'http://www.wikidata.org/entity/Q18599700', 'http://www.wikidata.org/entity/Q18599759', 'http://www.wikidata.org/entity/Q1917293', 'http://www.wikidata.org/entity/Q19612083', 'http://www.wikidata.org/entity/Q19672743', 'http://www.wikidata.org/entity/Q19758235', 'http://www.wikidata.org/entity/Q19862442', 'http://www.wikidata.org/entity/Q1987990', 'http://www.wikidata.org/entity/Q19886218', 'http://www.wikidata.org/entity/Q1991236', 'http://www.wikidata.org/entity/Q19939295', 'http://www.wikidata.org/entity/Q19941936', 'http://www.wikidata.org/entity/Q19953561', 'http://www.wikidata.org/entity/Q20011734', 'http://www.wikidata.org/entity/Q20090771', 'http://www.wikidata.org/entity/Q202404', 'http://www.wikidata.org/entity/Q20641089', 'http://www.wikidata.org/entity/Q20648370', 'http://www.wikidata.org/entity/Q20745244', 'http://www.wikidata.org/entity/Q2078267', 'http://www.wikidata.org/entity/Q20897762', 'http://www.wikidata.org/entity/Q20986533', 'http://www.wikidata.org/entity/Q21027277', 'http://www.wikidata.org/entity/Q21031023', 'http://www.wikidata.org/entity/Q21066359', 'http://www.wikidata.org/entity/Q21067158', 'http://www.wikidata.org/entity/Q21114808', 'http://www.wikidata.org/entity/Q21207862', 'http://www.wikidata.org/entity/Q21295004', 'http://www.wikidata.org/entity/Q214622', 'http://www.wikidata.org/entity/Q21620727', 'http://www.wikidata.org/entity/Q21620925', 'http://www.wikidata.org/entity/Q21621189', 'http://www.wikidata.org/entity/Q21996798', 'http://www.wikidata.org/entity/Q2261557', 'http://www.wikidata.org/entity/Q22812105', 'http://www.wikidata.org/entity/Q22958899', 'http://www.wikidata.org/entity/Q23001049', 'http://www.wikidata.org/entity/Q2359693', 'http://www.wikidata.org/entity/Q23677559', 'http://www.wikidata.org/entity/Q23726787', 'http://www.wikidata.org/entity/Q23928168', 'http://www.wikidata.org/entity/Q23928180', 'http://www.wikidata.org/entity/Q24006617', 'http://www.wikidata.org/entity/Q24045397', 'http://www.wikidata.org/entity/Q2460964', 'http://www.wikidata.org/entity/Q25909395', 'http://www.wikidata.org/entity/Q2615465', 'http://www.wikidata.org/entity/Q26703027', 'http://www.wikidata.org/entity/Q26829002', 'http://www.wikidata.org/entity/Q27975949', 'http://www.wikidata.org/entity/Q28106080', 'http://www.wikidata.org/entity/Q28745301', 'http://www.wikidata.org/entity/Q289307', 'http://www.wikidata.org/entity/Q2912337', 'http://www.wikidata.org/entity/Q29346418', 'http://www.wikidata.org/entity/Q301', 'http://www.wikidata.org/entity/Q3057494', 'http://www.wikidata.org/entity/Q30887619', 'http://www.wikidata.org/entity/Q310712', 'http://www.wikidata.org/entity/Q3136115', 'http://www.wikidata.org/entity/Q3229712', 'http://www.wikidata.org/entity/Q3296541', 'http://www.wikidata.org/entity/Q330232', 'http://www.wikidata.org/entity/Q330897', 'http://www.wikidata.org/entity/Q3314731', 'http://www.wikidata.org/entity/Q3341850', 'http://www.wikidata.org/entity/Q343292', 'http://www.wikidata.org/entity/Q353059', 'http://www.wikidata.org/entity/Q3556566', 'http://www.wikidata.org/entity/Q3558422', 'http://www.wikidata.org/entity/Q3562201', 'http://www.wikidata.org/entity/Q3564132', 'http://www.wikidata.org/entity/Q3565521', 'http://www.wikidata.org/entity/Q3566247', 'http://www.wikidata.org/entity/Q368044', 'http://www.wikidata.org/entity/Q3699388', 'http://www.wikidata.org/entity/Q3731188', 'http://www.wikidata.org/entity/Q3776568', 'http://www.wikidata.org/entity/Q38127864', 'http://www.wikidata.org/entity/Q382090', 'http://www.wikidata.org/entity/Q3839783', 'http://www.wikidata.org/entity/Q3876538', 'http://www.wikidata.org/entity/Q3935791', 'http://www.wikidata.org/entity/Q40203914', 'http://www.wikidata.org/entity/Q4065802', 'http://www.wikidata.org/entity/Q4104376', 'http://www.wikidata.org/entity/Q41660974', 'http://www.wikidata.org/entity/Q4172824', 'http://www.wikidata.org/entity/Q4172835', 'http://www.wikidata.org/entity/Q4308314', 'http://www.wikidata.org/entity/Q438440', 'http://www.wikidata.org/entity/Q440558', 'http://www.wikidata.org/entity/Q463405', 'http://www.wikidata.org/entity/Q4675877', 'http://www.wikidata.org/entity/Q4751927', 'http://www.wikidata.org/entity/Q4762991', 'http://www.wikidata.org/entity/Q4763003', 'http://www.wikidata.org/entity/Q4789952', 'http://www.wikidata.org/entity/Q4796489', 'http://www.wikidata.org/entity/Q48232422', 'http://www.wikidata.org/entity/Q48976256', 'http://www.wikidata.org/entity/Q5113522', 'http://www.wikidata.org/entity/Q52498604', 'http://www.wikidata.org/entity/Q52573880', 'http://www.wikidata.org/entity/Q5277663', 'http://www.wikidata.org/entity/Q535221', 'http://www.wikidata.org/entity/Q537976', 'http://www.wikidata.org/entity/Q53864990', 'http://www.wikidata.org/entity/Q541682', 'http://www.wikidata.org/entity/Q54803547', 'http://www.wikidata.org/entity/Q55078491', 'http://www.wikidata.org/entity/Q55351080', 'http://www.wikidata.org/entity/Q5546866', 'http://www.wikidata.org/entity/Q5548437', 'http://www.wikidata.org/entity/Q56021315', 'http://www.wikidata.org/entity/Q56628168', 'http://www.wikidata.org/entity/Q56852961', 'http://www.wikidata.org/entity/Q5802175', 'http://www.wikidata.org/entity/Q58198309', 'http://www.wikidata.org/entity/Q58503135', 'http://www.wikidata.org/entity/Q58755716', 'http://www.wikidata.org/entity/Q59512002', 'http://www.wikidata.org/entity/Q59614661', 'http://www.wikidata.org/entity/Q6001459', 'http://www.wikidata.org/entity/Q60286852', 'http://www.wikidata.org/entity/Q6038194', 'http://www.wikidata.org/entity/Q6038808', 'http://www.wikidata.org/entity/Q60582822', 'http://www.wikidata.org/entity/Q60583087', 'http://www.wikidata.org/entity/Q60677632', 'http://www.wikidata.org/entity/Q6081551', 'http://www.wikidata.org/entity/Q6084720', 'http://www.wikidata.org/entity/Q6155960', 'http://www.wikidata.org/entity/Q62591624', 'http://www.wikidata.org/entity/Q62603850', 'http://www.wikidata.org/entity/Q63254170', 'http://www.wikidata.org/entity/Q63982897', 'http://www.wikidata.org/entity/Q64615787', 'http://www.wikidata.org/entity/Q6467637', 'http://www.wikidata.org/entity/Q6517023', 'http://www.wikidata.org/entity/Q65273468', 'http://www.wikidata.org/entity/Q657600', 'http://www.wikidata.org/entity/Q65926208', 'http://www.wikidata.org/entity/Q65961421', 'http://www.wikidata.org/entity/Q6751216', 'http://www.wikidata.org/entity/Q6751217', 'http://www.wikidata.org/entity/Q6751225', 'http://www.wikidata.org/entity/Q6761479', 'http://www.wikidata.org/entity/Q6761597', 'http://www.wikidata.org/entity/Q6795819', 'http://www.wikidata.org/entity/Q6835691', 'http://www.wikidata.org/entity/Q6863224', 'http://www.wikidata.org/entity/Q68867937', 'http://www.wikidata.org/entity/Q704707', 'http://www.wikidata.org/entity/Q7067631', 'http://www.wikidata.org/entity/Q70843750', 'http://www.wikidata.org/entity/Q71013124', 'http://www.wikidata.org/entity/Q718276', 'http://www.wikidata.org/entity/Q719110', 'http://www.wikidata.org/entity/Q7312347', 'http://www.wikidata.org/entity/Q7363221', 'http://www.wikidata.org/entity/Q748140', 'http://www.wikidata.org/entity/Q767151', 'http://www.wikidata.org/entity/Q77038923', 'http://www.wikidata.org/entity/Q7781871', 'http://www.wikidata.org/entity/Q77846610', 'http://www.wikidata.org/entity/Q7925550', 'http://www.wikidata.org/entity/Q81217357', 'http://www.wikidata.org/entity/Q81678162', 'http://www.wikidata.org/entity/Q821985', 'http://www.wikidata.org/entity/Q82291289', 'http://www.wikidata.org/entity/Q84048201', 'http://www.wikidata.org/entity/Q87652519', 'http://www.wikidata.org/entity/Q88314564', 'http://www.wikidata.org/entity/Q88360684', 'http://www.wikidata.org/entity/Q88361390', 'http://www.wikidata.org/entity/Q88380768', 'http://www.wikidata.org/entity/Q88383715', 'http://www.wikidata.org/entity/Q88488624', 'http://www.wikidata.org/entity/Q88657263', 'http://www.wikidata.org/entity/Q88710225', 'http://www.wikidata.org/entity/Q88710463', 'http://www.wikidata.org/entity/Q88796507', 'http://www.wikidata.org/entity/Q89259891', 'http://www.wikidata.org/entity/Q90157181', 'http://www.wikidata.org/entity/Q9033451', 'http://www.wikidata.org/entity/Q91442809', 'http://www.wikidata.org/entity/Q92781', 'http://www.wikidata.org/entity/Q93233224', 'http://www.wikidata.org/entity/Q9340768', 'http://www.wikidata.org/entity/Q93737213', 'http://www.wikidata.org/entity/Q93785423', 'http://www.wikidata.org/entity/Q94329', 'http://www.wikidata.org/entity/Q95203707', 'http://www.wikidata.org/entity/Q95309443', 'http://www.wikidata.org/entity/Q95329588', 'http://www.wikidata.org/entity/Q95349620', 'http://www.wikidata.org/entity/Q96176197', 'http://www.wikidata.org/entity/Q96395743', 'http://www.wikidata.org/entity/Q969675', 'http://www.wikidata.org/entity/Q97486765', 'http://www.wikidata.org/entity/Q98216546', 'http://www.wikidata.org/entity/Q98792917', 'http://www.wikidata.org/entity/Q98831182', 'http://www.wikidata.org/entity/Q98836152', 'http://www.wikidata.org/entity/Q99167687']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q210669']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q11366', 'http://www.wikidata.org/entity/Q11399', 'http://www.wikidata.org/entity/Q1428637', 'http://www.wikidata.org/entity/Q1641839', 'http://www.wikidata.org/entity/Q181861', 'http://www.wikidata.org/entity/Q186472', 'http://www.wikidata.org/entity/Q206159', 'http://www.wikidata.org/entity/Q217467', 'http://www.wikidata.org/entity/Q27190', 'http://www.wikidata.org/entity/Q650316', 'http://www.wikidata.org/entity/Q76092', 'http://www.wikidata.org/entity/Q885561']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q138578']</t>
   </si>
   <si>
@@ -1177,24 +1837,12 @@
     <t>['http://www.wikidata.org/entity/Q1348730', 'http://www.wikidata.org/entity/Q39864', 'http://www.wikidata.org/entity/Q40317']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q4799733']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q1362', 'http://www.wikidata.org/entity/Q3037', 'http://www.wikidata.org/entity/Q37400', 'http://www.wikidata.org/entity/Q5838', 'http://www.wikidata.org/entity/Q9270', 'http://www.wikidata.org/entity/Q956', 'http://www.wikidata.org/entity/Q987']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q103817549', 'http://www.wikidata.org/entity/Q104137', 'http://www.wikidata.org/entity/Q1125083', 'http://www.wikidata.org/entity/Q126699', 'http://www.wikidata.org/entity/Q1305799', 'http://www.wikidata.org/entity/Q1418932', 'http://www.wikidata.org/entity/Q1423573', 'http://www.wikidata.org/entity/Q1627161', 'http://www.wikidata.org/entity/Q174683', 'http://www.wikidata.org/entity/Q184255', 'http://www.wikidata.org/entity/Q332497', 'http://www.wikidata.org/entity/Q3382188', 'http://www.wikidata.org/entity/Q375186', 'http://www.wikidata.org/entity/Q399823', 'http://www.wikidata.org/entity/Q477630', 'http://www.wikidata.org/entity/Q502189', 'http://www.wikidata.org/entity/Q503338', 'http://www.wikidata.org/entity/Q544434', 'http://www.wikidata.org/entity/Q54812267', 'http://www.wikidata.org/entity/Q577306', 'http://www.wikidata.org/entity/Q598338', 'http://www.wikidata.org/entity/Q602522', 'http://www.wikidata.org/entity/Q611424', 'http://www.wikidata.org/entity/Q653251', 'http://www.wikidata.org/entity/Q741196', 'http://www.wikidata.org/entity/Q785461', 'http://www.wikidata.org/entity/Q906705']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q1007', 'http://www.wikidata.org/entity/Q1008', 'http://www.wikidata.org/entity/Q1032', 'http://www.wikidata.org/entity/Q1041', 'http://www.wikidata.org/entity/Q18408563', 'http://www.wikidata.org/entity/Q1929699', 'http://www.wikidata.org/entity/Q2386787', 'http://www.wikidata.org/entity/Q5148343', 'http://www.wikidata.org/entity/Q5148520', 'http://www.wikidata.org/entity/Q620942', 'http://www.wikidata.org/entity/Q862701', 'http://www.wikidata.org/entity/Q912', 'http://www.wikidata.org/entity/Q945', 'http://www.wikidata.org/entity/Q962', 'http://www.wikidata.org/entity/Q965']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q100271515', 'http://www.wikidata.org/entity/Q100329955', 'http://www.wikidata.org/entity/Q100597341', 'http://www.wikidata.org/entity/Q100740692', 'http://www.wikidata.org/entity/Q100860934', 'http://www.wikidata.org/entity/Q1009535', 'http://www.wikidata.org/entity/Q101026979', 'http://www.wikidata.org/entity/Q101545880', 'http://www.wikidata.org/entity/Q101627559', 'http://www.wikidata.org/entity/Q1016833', 'http://www.wikidata.org/entity/Q101706322', 'http://www.wikidata.org/entity/Q102276948', 'http://www.wikidata.org/entity/Q102398478', 'http://www.wikidata.org/entity/Q10244', 'http://www.wikidata.org/entity/Q10253', 'http://www.wikidata.org/entity/Q1025481', 'http://www.wikidata.org/entity/Q10259922', 'http://www.wikidata.org/entity/Q10265921', 'http://www.wikidata.org/entity/Q10265947', 'http://www.wikidata.org/entity/Q10274', 'http://www.wikidata.org/entity/Q10281749', 'http://www.wikidata.org/entity/Q10281751', 'http://www.wikidata.org/entity/Q10281780', 'http://www.wikidata.org/entity/Q10281783', 'http://www.wikidata.org/entity/Q10281787', 'http://www.wikidata.org/entity/Q10281793', 'http://www.wikidata.org/entity/Q10281798', 'http://www.wikidata.org/entity/Q10283187', 'http://www.wikidata.org/entity/Q10313072', 'http://www.wikidata.org/entity/Q10329424', 'http://www.wikidata.org/entity/Q1033140', 'http://www.wikidata.org/entity/Q103407630', 'http://www.wikidata.org/entity/Q103408482', 'http://www.wikidata.org/entity/Q1034573', 'http://www.wikidata.org/entity/Q103461996', 'http://www.wikidata.org/entity/Q10379695', 'http://www.wikidata.org/entity/Q103821550', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q103956800', 'http://www.wikidata.org/entity/Q10398273', 'http://www.wikidata.org/entity/Q103987830', 'http://www.wikidata.org/entity/Q104013369', 'http://www.wikidata.org/entity/Q104051143', 'http://www.wikidata.org/entity/Q10405623', 'http://www.wikidata.org/entity/Q10405661', 'http://www.wikidata.org/entity/Q10411424', 'http://www.wikidata.org/entity/Q10412386', 'http://www.wikidata.org/entity/Q10416096', 'http://www.wikidata.org/entity/Q10418897', 'http://www.wikidata.org/entity/Q104224166', 'http://www.wikidata.org/entity/Q1043596', 'http://www.wikidata.org/entity/Q104601590', 'http://www.wikidata.org/entity/Q104625773', 'http://www.wikidata.org/entity/Q104758920', 'http://www.wikidata.org/entity/Q10481350', 'http://www.wikidata.org/entity/Q104842151', 'http://www.wikidata.org/entity/Q104842171', 'http://www.wikidata.org/entity/Q104844735', 'http://www.wikidata.org/entity/Q104853673', 'http://www.wikidata.org/entity/Q104861126', 'http://www.wikidata.org/entity/Q10488275', 'http://www.wikidata.org/entity/Q1049141', 'http://www.wikidata.org/entity/Q104920297', 'http://www.wikidata.org/entity/Q10494624', 'http://www.wikidata.org/entity/Q10495385', 'http://www.wikidata.org/entity/Q10495964', 'http://www.wikidata.org/entity/Q10496086', 'http://www.wikidata.org/entity/Q10501512', 'http://www.wikidata.org/entity/Q1050292', 'http://www.wikidata.org/entity/Q105043914', 'http://www.wikidata.org/entity/Q105047091', 'http://www.wikidata.org/entity/Q105047582', 'http://www.wikidata.org/entity/Q105047587', 'http://www.wikidata.org/entity/Q105121443', 'http://www.wikidata.org/entity/Q105271464', 'http://www.wikidata.org/entity/Q105360445', 'http://www.wikidata.org/entity/Q105393636', 'http://www.wikidata.org/entity/Q105393711', 'http://www.wikidata.org/entity/Q105394069', 'http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q10541293', 'http://www.wikidata.org/entity/Q1054558', 'http://www.wikidata.org/entity/Q1054975', 'http://www.wikidata.org/entity/Q10560877', 'http://www.wikidata.org/entity/Q105663779', 'http://www.wikidata.org/entity/Q105742385', 'http://www.wikidata.org/entity/Q105742388', 'http://www.wikidata.org/entity/Q10586365', 'http://www.wikidata.org/entity/Q1058840', 'http://www.wikidata.org/entity/Q105888686', 'http://www.wikidata.org/entity/Q1059995', 'http://www.wikidata.org/entity/Q106010', 'http://www.wikidata.org/entity/Q10601007', 'http://www.wikidata.org/entity/Q10601355', 'http://www.wikidata.org/entity/Q106019359', 'http://www.wikidata.org/entity/Q106043577', 'http://www.wikidata.org/entity/Q106078232', 'http://www.wikidata.org/entity/Q106113886', 'http://www.wikidata.org/entity/Q106200291', 'http://www.wikidata.org/entity/Q106240773', 'http://www.wikidata.org/entity/Q106290028', 'http://www.wikidata.org/entity/Q106307776', 'http://www.wikidata.org/entity/Q10631904', 'http://www.wikidata.org/entity/Q106331005', 'http://www.wikidata.org/entity/Q106333', 'http://www.wikidata.org/entity/Q106349026', 'http://www.wikidata.org/entity/Q106369745', 'http://www.wikidata.org/entity/Q106436015', 'http://www.wikidata.org/entity/Q106462957', 'http://www.wikidata.org/entity/Q106505905', 'http://www.wikidata.org/entity/Q106658464', 'http://www.wikidata.org/entity/Q106658575', 'http://www.wikidata.org/entity/Q106658749', 'http://www.wikidata.org/entity/Q106658879', 'http://www.wikidata.org/entity/Q106659060', 'http://www.wikidata.org/entity/Q106663543', 'http://www.wikidata.org/entity/Q106663566', 'http://www.wikidata.org/entity/Q106663587', 'http://www.wikidata.org/entity/Q106663613', 'http://www.wikidata.org/entity/Q106663745', 'http://www.wikidata.org/entity/Q106663779', 'http://www.wikidata.org/entity/Q106663799', 'http://www.wikidata.org/entity/Q106664025', 'http://www.wikidata.org/entity/Q106664072', 'http://www.wikidata.org/entity/Q106664114', 'http://www.wikidata.org/entity/Q10666884', 'http://www.wikidata.org/entity/Q106675733', 'http://www.wikidata.org/entity/Q106689897', 'http://www.wikidata.org/entity/Q10669318', 'http://www.wikidata.org/entity/Q10669370', 'http://www.wikidata.org/entity/Q10669371', 'http://www.wikidata.org/entity/Q106698317', 'http://www.wikidata.org/entity/Q106708800', 'http://www.wikidata.org/entity/Q106806190', 'http://www.wikidata.org/entity/Q106810895', 'http://www.wikidata.org/entity/Q106855753', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q10689145', 'http://www.wikidata.org/entity/Q10689146', 'http://www.wikidata.org/entity/Q106899527', 'http://www.wikidata.org/entity/Q10698576', 'http://www.wikidata.org/entity/Q10698931', 'http://www.wikidata.org/entity/Q10698932', 'http://www.wikidata.org/entity/Q10698935', 'http://www.wikidata.org/entity/Q10698936', 'http://www.wikidata.org/entity/Q10698937', 'http://www.wikidata.org/entity/Q10699347', 'http://www.wikidata.org/entity/Q107015910', 'http://www.wikidata.org/entity/Q10701677', 'http://www.wikidata.org/entity/Q10701968', 'http://www.wikidata.org/entity/Q1070318', 'http://www.wikidata.org/entity/Q1070437', 'http://www.wikidata.org/entity/Q107139413', 'http://www.wikidata.org/entity/Q10714715', 'http://www.wikidata.org/entity/Q10726425', 'http://www.wikidata.org/entity/Q10726998', 'http://www.wikidata.org/entity/Q107296290', 'http://www.wikidata.org/entity/Q107309593', 'http://www.wikidata.org/entity/Q107438167', 'http://www.wikidata.org/entity/Q107486932', 'http://www.wikidata.org/entity/Q107643630', 'http://www.wikidata.org/entity/Q107718805', 'http://www.wikidata.org/entity/Q107739995', 'http://www.wikidata.org/entity/Q108010714', 'http://www.wikidata.org/entity/Q108101493', 'http://www.wikidata.org/entity/Q108120675', 'http://www.wikidata.org/entity/Q108131371', 'http://www.wikidata.org/entity/Q108131396', 'http://www.wikidata.org/entity/Q108177441', 'http://www.wikidata.org/entity/Q108183111', 'http://www.wikidata.org/entity/Q108219988', 'http://www.wikidata.org/entity/Q108265918', 'http://www.wikidata.org/entity/Q108305674', 'http://www.wikidata.org/entity/Q108315106', 'http://www.wikidata.org/entity/Q108333212', 'http://www.wikidata.org/entity/Q108338128', 'http://www.wikidata.org/entity/Q108367189', 'http://www.wikidata.org/entity/Q108392466', 'http://www.wikidata.org/entity/Q108404671', 'http://www.wikidata.org/entity/Q108424805', 'http://www.wikidata.org/entity/Q108447771', 'http://www.wikidata.org/entity/Q108456662', 'http://www.wikidata.org/entity/Q108540687', 'http://www.wikidata.org/entity/Q10854390', 'http://www.wikidata.org/entity/Q10854401', 'http://www.wikidata.org/entity/Q10855559', 'http://www.wikidata.org/entity/Q108581891', 'http://www.wikidata.org/entity/Q10862448', 'http://www.wikidata.org/entity/Q108660772', 'http://www.wikidata.org/entity/Q10868404', 'http://www.wikidata.org/entity/Q108730127', 'http://www.wikidata.org/entity/Q108745010', 'http://www.wikidata.org/entity/Q108749396', 'http://www.wikidata.org/entity/Q108749484', 'http://www.wikidata.org/entity/Q108783890', 'http://www.wikidata.org/entity/Q108803354', 'http://www.wikidata.org/entity/Q108803791', 'http://www.wikidata.org/entity/Q108814176', 'http://www.wikidata.org/entity/Q10881633', 'http://www.wikidata.org/entity/Q108923501', 'http://www.wikidata.org/entity/Q108927805', 'http://www.wikidata.org/entity/Q108936669', 'http://www.wikidata.org/entity/Q108936865', 'http://www.wikidata.org/entity/Q1090024', 'http://www.wikidata.org/entity/Q10901070', 'http://www.wikidata.org/entity/Q109040869', 'http://www.wikidata.org/entity/Q10909572', 'http://www.wikidata.org/entity/Q109121006', 'http://www.wikidata.org/entity/Q1091428', 'http://www.wikidata.org/entity/Q10921475', 'http://www.wikidata.org/entity/Q10921477', 'http://www.wikidata.org/entity/Q109285268', 'http://www.wikidata.org/entity/Q109310919', 'http://www.wikidata.org/entity/Q109311258', 'http://www.wikidata.org/entity/Q109311824', 'http://www.wikidata.org/entity/Q109329448', 'http://www.wikidata.org/entity/Q109329455', 'http://www.wikidata.org/entity/Q109356066', 'http://www.wikidata.org/entity/Q109381834', 'http://www.wikidata.org/entity/Q109381883', 'http://www.wikidata.org/entity/Q109440429', 'http://www.wikidata.org/entity/Q109455204', 'http://www.wikidata.org/entity/Q109500716', 'http://www.wikidata.org/entity/Q1095258', 'http://www.wikidata.org/entity/Q10955171', 'http://www.wikidata.org/entity/Q109558468', 'http://www.wikidata.org/entity/Q109593799', 'http://www.wikidata.org/entity/Q109609391', 'http://www.wikidata.org/entity/Q10964022', 'http://www.wikidata.org/entity/Q109727087', 'http://www.wikidata.org/entity/Q109796906', 'http://www.wikidata.org/entity/Q109827527', 'http://www.wikidata.org/entity/Q109838056', 'http://www.wikidata.org/entity/Q10985961', 'http://www.wikidata.org/entity/Q109908577', 'http://www.wikidata.org/entity/Q109923166', 'http://www.wikidata.org/entity/Q11002663', 'http://www.wikidata.org/entity/Q110064747', 'http://www.wikidata.org/entity/Q110091424', 'http://www.wikidata.org/entity/Q110128398', 'http://www.wikidata.org/entity/Q110192210', 'http://www.wikidata.org/entity/Q110206440', 'http://www.wikidata.org/entity/Q110239836', 'http://www.wikidata.org/entity/Q110246928', 'http://www.wikidata.org/entity/Q110413817', 'http://www.wikidata.org/entity/Q1105149', 'http://www.wikidata.org/entity/Q110639888', 'http://www.wikidata.org/entity/Q110707177', 'http://www.wikidata.org/entity/Q110712627', 'http://www.wikidata.org/entity/Q110738072', 'http://www.wikidata.org/entity/Q1107928', 'http://www.wikidata.org/entity/Q110804043', 'http://www.wikidata.org/entity/Q11095193', 'http://www.wikidata.org/entity/Q110962934', 'http://www.wikidata.org/entity/Q111149458', 'http://www.wikidata.org/entity/Q111162467', 'http://www.wikidata.org/entity/Q111191757', 'http://www.wikidata.org/entity/Q111202983', 'http://www.wikidata.org/entity/Q111242836', 'http://www.wikidata.org/entity/Q111242852', 'http://www.wikidata.org/entity/Q111333928', 'http://www.wikidata.org/entity/Q111551849', 'http://www.wikidata.org/entity/Q111551982', 'http://www.wikidata.org/entity/Q111552242', 'http://www.wikidata.org/entity/Q11156396', 'http://www.wikidata.org/entity/Q11156590', 'http://www.wikidata.org/entity/Q11156602', 'http://www.wikidata.org/entity/Q111574867', 'http://www.wikidata.org/entity/Q111585601', 'http://www.wikidata.org/entity/Q111586257', 'http://www.wikidata.org/entity/Q111588212', 'http://www.wikidata.org/entity/Q111588631', 'http://www.wikidata.org/entity/Q111591927', 'http://www.wikidata.org/entity/Q111592030', 'http://www.wikidata.org/entity/Q111592221', 'http://www.wikidata.org/entity/Q111592231', 'http://www.wikidata.org/entity/Q111592392', 'http://www.wikidata.org/entity/Q111593121', 'http://www.wikidata.org/entity/Q111599061', 'http://www.wikidata.org/entity/Q111605534', 'http://www.wikidata.org/entity/Q111605537', 'http://www.wikidata.org/entity/Q111605672', 'http://www.wikidata.org/entity/Q111605780', 'http://www.wikidata.org/entity/Q111619857', 'http://www.wikidata.org/entity/Q111621136', 'http://www.wikidata.org/entity/Q111633412', 'http://www.wikidata.org/entity/Q111639188', 'http://www.wikidata.org/entity/Q111639464', 'http://www.wikidata.org/entity/Q111639796', 'http://www.wikidata.org/entity/Q111640394', 'http://www.wikidata.org/entity/Q111644691', 'http://www.wikidata.org/entity/Q111644855', 'http://www.wikidata.org/entity/Q111646483', 'http://www.wikidata.org/entity/Q111646603', 'http://www.wikidata.org/entity/Q111646902', 'http://www.wikidata.org/entity/Q111646942', 'http://www.wikidata.org/entity/Q111647178', 'http://www.wikidata.org/entity/Q111647244', 'http://www.wikidata.org/entity/Q111648147', 'http://www.wikidata.org/entity/Q111648327', 'http://www.wikidata.org/entity/Q111648357', 'http://www.wikidata.org/entity/Q111649462', 'http://www.wikidata.org/entity/Q111649590', 'http://www.wikidata.org/entity/Q111649647', 'http://www.wikidata.org/entity/Q111649691', 'http://www.wikidata.org/entity/Q111649876', 'http://www.wikidata.org/entity/Q111649919', 'http://www.wikidata.org/entity/Q111653594', 'http://www.wikidata.org/entity/Q111653613', 'http://www.wikidata.org/entity/Q111653631', 'http://www.wikidata.org/entity/Q111653637', 'http://www.wikidata.org/entity/Q111653675', 'http://www.wikidata.org/entity/Q111653779', 'http://www.wikidata.org/entity/Q111653938', 'http://www.wikidata.org/entity/Q111653958', 'http://www.wikidata.org/entity/Q111653969', 'http://www.wikidata.org/entity/Q111654007', 'http://www.wikidata.org/entity/Q111654040', 'http://www.wikidata.org/entity/Q111654093', 'http://www.wikidata.org/entity/Q111654098', 'http://www.wikidata.org/entity/Q111654121', 'http://www.wikidata.org/entity/Q111654136', 'http://www.wikidata.org/entity/Q111654241', 'http://www.wikidata.org/entity/Q111654346', 'http://www.wikidata.org/entity/Q111654469', 'http://www.wikidata.org/entity/Q111654484', 'http://www.wikidata.org/entity/Q111655654', 'http://www.wikidata.org/entity/Q111658731', 'http://www.wikidata.org/entity/Q111658801', 'http://www.wikidata.org/entity/Q111658833', 'http://www.wikidata.org/entity/Q111658927', 'http://www.wikidata.org/entity/Q111661297', 'http://www.wikidata.org/entity/Q111661840', 'http://www.wikidata.org/entity/Q111661872', 'http://www.wikidata.org/entity/Q111661886', 'http://www.wikidata.org/entity/Q111662034', 'http://www.wikidata.org/entity/Q111662035', 'http://www.wikidata.org/entity/Q111662040', 'http://www.wikidata.org/entity/Q111662133', 'http://www.wikidata.org/entity/Q111663221', 'http://www.wikidata.org/entity/Q111665328', 'http://www.wikidata.org/entity/Q111665519', 'http://www.wikidata.org/entity/Q111666301', 'http://www.wikidata.org/entity/Q111670117', 'http://www.wikidata.org/entity/Q111670231', 'http://www.wikidata.org/entity/Q111670397', 'http://www.wikidata.org/entity/Q111670481', 'http://www.wikidata.org/entity/Q111670617', 'http://www.wikidata.org/entity/Q111670624', 'http://www.wikidata.org/entity/Q111670628', 'http://www.wikidata.org/entity/Q111671698', 'http://www.wikidata.org/entity/Q111671968', 'http://www.wikidata.org/entity/Q111672442', 'http://www.wikidata.org/entity/Q111675204', 'http://www.wikidata.org/entity/Q111675217', 'http://www.wikidata.org/entity/Q111675293', 'http://www.wikidata.org/entity/Q111675405', 'http://www.wikidata.org/entity/Q111675518', 'http://www.wikidata.org/entity/Q111675816', 'http://www.wikidata.org/entity/Q111676530', 'http://www.wikidata.org/entity/Q111676789', 'http://www.wikidata.org/entity/Q111676828', 'http://www.wikidata.org/entity/Q111676959', 'http://www.wikidata.org/entity/Q111679720', 'http://www.wikidata.org/entity/Q111679753', 'http://www.wikidata.org/entity/Q111679830', 'http://www.wikidata.org/entity/Q111679840', 'http://www.wikidata.org/entity/Q111679871', 'http://www.wikidata.org/entity/Q111679978', 'http://www.wikidata.org/entity/Q111680097', 'http://www.wikidata.org/entity/Q111680142', 'http://www.wikidata.org/entity/Q111680149', 'http://www.wikidata.org/entity/Q111680197', 'http://www.wikidata.org/entity/Q111680221', 'http://www.wikidata.org/entity/Q111680229', 'http://www.wikidata.org/entity/Q111693657', 'http://www.wikidata.org/entity/Q111693675', 'http://www.wikidata.org/entity/Q111693696', 'http://www.wikidata.org/entity/Q111693773', 'http://www.wikidata.org/entity/Q111693781', 'http://www.wikidata.org/entity/Q111693947', 'http://www.wikidata.org/entity/Q111694017', 'http://www.wikidata.org/entity/Q111695525', 'http://www.wikidata.org/entity/Q111702011', 'http://www.wikidata.org/entity/Q111702051', 'http://www.wikidata.org/entity/Q111702063', 'http://www.wikidata.org/entity/Q111705727', 'http://www.wikidata.org/entity/Q111708136', 'http://www.wikidata.org/entity/Q111711151', 'http://www.wikidata.org/entity/Q111711160', 'http://www.wikidata.org/entity/Q111711162', 'http://www.wikidata.org/entity/Q111711184', 'http://www.wikidata.org/entity/Q111711222', 'http://www.wikidata.org/entity/Q111711264', 'http://www.wikidata.org/entity/Q111711268', 'http://www.wikidata.org/entity/Q111711270', 'http://www.wikidata.org/entity/Q111711273', 'http://www.wikidata.org/entity/Q111711278', 'http://www.wikidata.org/entity/Q111711311', 'http://www.wikidata.org/entity/Q111711342', 'http://www.wikidata.org/entity/Q111711421', 'http://www.wikidata.org/entity/Q111711540', 'http://www.wikidata.org/entity/Q111711547', 'http://www.wikidata.org/entity/Q111711661', 'http://www.wikidata.org/entity/Q111711757', 'http://www.wikidata.org/entity/Q111711903', 'http://www.wikidata.org/entity/Q111711907', 'http://www.wikidata.org/entity/Q111712005', 'http://www.wikidata.org/entity/Q111712010', 'http://www.wikidata.org/entity/Q111712059', 'http://www.wikidata.org/entity/Q111712123', 'http://www.wikidata.org/entity/Q111716408', 'http://www.wikidata.org/entity/Q111719293', 'http://www.wikidata.org/entity/Q111725575', 'http://www.wikidata.org/entity/Q111725911', 'http://www.wikidata.org/entity/Q111725919', 'http://www.wikidata.org/entity/Q111726390', 'http://www.wikidata.org/entity/Q111726615', 'http://www.wikidata.org/entity/Q111726617', 'http://www.wikidata.org/entity/Q111726635', 'http://www.wikidata.org/entity/Q111726669', 'http://www.wikidata.org/entity/Q111726714', 'http://www.wikidata.org/entity/Q111726768', 'http://www.wikidata.org/entity/Q111726774', 'http://www.wikidata.org/entity/Q111726793', 'http://www.wikidata.org/entity/Q111726805', 'http://www.wikidata.org/entity/Q111732603', 'http://www.wikidata.org/entity/Q111734330', 'http://www.wikidata.org/entity/Q111734453', 'http://www.wikidata.org/entity/Q111734646', 'http://www.wikidata.org/entity/Q111734661', 'http://www.wikidata.org/entity/Q111734681', 'http://www.wikidata.org/entity/Q111734708', 'http://www.wikidata.org/entity/Q111734879', 'http://www.wikidata.org/entity/Q111734906', 'http://www.wikidata.org/entity/Q111734910', 'http://www.wikidata.org/entity/Q111734978', 'http://www.wikidata.org/entity/Q111735009', 'http://www.wikidata.org/entity/Q111735146', 'http://www.wikidata.org/entity/Q111735183', 'http://www.wikidata.org/entity/Q111735311', 'http://www.wikidata.org/entity/Q111738073', 'http://www.wikidata.org/entity/Q111738315', 'http://www.wikidata.org/entity/Q111738552', 'http://www.wikidata.org/entity/Q111738564', 'http://www.wikidata.org/entity/Q111738762', 'http://www.wikidata.org/entity/Q111738881', 'http://www.wikidata.org/entity/Q111743473', 'http://www.wikidata.org/entity/Q111743614', 'http://www.wikidata.org/entity/Q111743635', 'http://www.wikidata.org/entity/Q111743658', 'http://www.wikidata.org/entity/Q111743894', 'http://www.wikidata.org/entity/Q111743903', 'http://www.wikidata.org/entity/Q111743905', 'http://www.wikidata.org/entity/Q111743922', 'http://www.wikidata.org/entity/Q111744105', 'http://www.wikidata.org/entity/Q111744185', 'http://www.wikidata.org/entity/Q111744196', 'http://www.wikidata.org/entity/Q111744206', 'http://www.wikidata.org/entity/Q111744231', 'http://www.wikidata.org/entity/Q111744233', 'http://www.wikidata.org/entity/Q111744287', 'http://www.wikidata.org/entity/Q111750057', 'http://www.wikidata.org/entity/Q111750098', 'http://www.wikidata.org/entity/Q111750104', 'http://www.wikidata.org/entity/Q111750108', 'http://www.wikidata.org/entity/Q111750391', 'http://www.wikidata.org/entity/Q111750396', 'http://www.wikidata.org/entity/Q111750414', 'http://www.wikidata.org/entity/Q111750482', 'http://www.wikidata.org/entity/Q111750486', 'http://www.wikidata.org/entity/Q111750538', 'http://www.wikidata.org/entity/Q111750619', 'http://www.wikidata.org/entity/Q111750632', 'http://www.wikidata.org/entity/Q111750636', 'http://www.wikidata.org/entity/Q111750803', 'http://www.wikidata.org/entity/Q111772339', 'http://www.wikidata.org/entity/Q111772429', 'http://www.wikidata.org/entity/Q111772455', 'http://www.wikidata.org/entity/Q111772465', 'http://www.wikidata.org/entity/Q111772467', 'http://www.wikidata.org/entity/Q111772470', 'http://www.wikidata.org/entity/Q111772479', 'http://www.wikidata.org/entity/Q111772481', 'http://www.wikidata.org/entity/Q111772492', 'http://www.wikidata.org/entity/Q111772538', 'http://www.wikidata.org/entity/Q111772542', 'http://www.wikidata.org/entity/Q111772579', 'http://www.wikidata.org/entity/Q111772903', 'http://www.wikidata.org/entity/Q111774488', 'http://www.wikidata.org/entity/Q111774855', 'http://www.wikidata.org/entity/Q111775976', 'http://www.wikidata.org/entity/Q111781307', 'http://www.wikidata.org/entity/Q111781313', 'http://www.wikidata.org/entity/Q111781415', 'http://www.wikidata.org/entity/Q111782305', 'http://www.wikidata.org/entity/Q111782406', 'http://www.wikidata.org/entity/Q111792237', 'http://www.wikidata.org/entity/Q111792287', 'http://www.wikidata.org/entity/Q111792297', 'http://www.wikidata.org/entity/Q111792422', 'http://www.wikidata.org/entity/Q111792427', 'http://www.wikidata.org/entity/Q111792455', 'http://www.wikidata.org/entity/Q111792652', 'http://www.wikidata.org/entity/Q111792657', 'http://www.wikidata.org/entity/Q111792669', 'http://www.wikidata.org/entity/Q111795166', 'http://www.wikidata.org/entity/Q111795170', 'http://www.wikidata.org/entity/Q111795181', 'http://www.wikidata.org/entity/Q111795190', 'http://www.wikidata.org/entity/Q111795208', 'http://www.wikidata.org/entity/Q111795217', 'http://www.wikidata.org/entity/Q111795226', 'http://www.wikidata.org/entity/Q111795230', 'http://www.wikidata.org/entity/Q111795234', 'http://www.wikidata.org/entity/Q111795238', 'http://www.wikidata.org/entity/Q111798789', 'http://www.wikidata.org/entity/Q111799191', 'http://www.wikidata.org/entity/Q111799265', 'http://www.wikidata.org/entity/Q111799326', 'http://www.wikidata.org/entity/Q111799364', 'http://www.wikidata.org/entity/Q111799715', 'http://www.wikidata.org/entity/Q111800151', 'http://www.wikidata.org/entity/Q111800560', 'http://www.wikidata.org/entity/Q111800590', 'http://www.wikidata.org/entity/Q111800661', 'http://www.wikidata.org/entity/Q111800678', 'http://www.wikidata.org/entity/Q111800735', 'http://www.wikidata.org/entity/Q111800758', 'http://www.wikidata.org/entity/Q111801201', 'http://www.wikidata.org/entity/Q111801219', 'http://www.wikidata.org/entity/Q111801257', 'http://www.wikidata.org/entity/Q111801366', 'http://www.wikidata.org/entity/Q111801395', 'http://www.wikidata.org/entity/Q111801411', 'http://www.wikidata.org/entity/Q111801450', 'http://www.wikidata.org/entity/Q111801507', 'http://www.wikidata.org/entity/Q111801550', 'http://www.wikidata.org/entity/Q111810594', 'http://www.wikidata.org/entity/Q111810721', 'http://www.wikidata.org/entity/Q111811564', 'http://www.wikidata.org/entity/Q111811624', 'http://www.wikidata.org/entity/Q111811681', 'http://www.wikidata.org/entity/Q111812563', 'http://www.wikidata.org/entity/Q111812584', 'http://www.wikidata.org/entity/Q111812855', 'http://www.wikidata.org/entity/Q111816790', 'http://www.wikidata.org/entity/Q111817714', 'http://www.wikidata.org/entity/Q111817744', 'http://www.wikidata.org/entity/Q111817829', 'http://www.wikidata.org/entity/Q111817846', 'http://www.wikidata.org/entity/Q111817920', 'http://www.wikidata.org/entity/Q111818123', 'http://www.wikidata.org/entity/Q111824276', 'http://www.wikidata.org/entity/Q111824296', 'http://www.wikidata.org/entity/Q111824414', 'http://www.wikidata.org/entity/Q111824439', 'http://www.wikidata.org/entity/Q111824771', 'http://www.wikidata.org/entity/Q111824800', 'http://www.wikidata.org/entity/Q111824823', 'http://www.wikidata.org/entity/Q111824918', 'http://www.wikidata.org/entity/Q111825400', 'http://www.wikidata.org/entity/Q111825424', 'http://www.wikidata.org/entity/Q111825449', 'http://www.wikidata.org/entity/Q111825554', 'http://www.wikidata.org/entity/Q111825613', 'http://www.wikidata.org/entity/Q111825677', 'http://www.wikidata.org/entity/Q111825713', 'http://www.wikidata.org/entity/Q111825832', 'http://www.wikidata.org/entity/Q111826063', 'http://www.wikidata.org/entity/Q111826089', 'http://www.wikidata.org/entity/Q111830034', 'http://www.wikidata.org/entity/Q111830188', 'http://www.wikidata.org/entity/Q111837290', 'http://www.wikidata.org/entity/Q111837438', 'http://www.wikidata.org/entity/Q111837464', 'http://www.wikidata.org/entity/Q111837474', 'http://www.wikidata.org/entity/Q111837785', 'http://www.wikidata.org/entity/Q111837834', 'http://www.wikidata.org/entity/Q111837845', 'http://www.wikidata.org/entity/Q111837855', 'http://www.wikidata.org/entity/Q111837912', 'http://www.wikidata.org/entity/Q111837991', 'http://www.wikidata.org/entity/Q111846538', 'http://www.wikidata.org/entity/Q111848069', 'http://www.wikidata.org/entity/Q111848409', 'http://www.wikidata.org/entity/Q111848456', 'http://www.wikidata.org/entity/Q111848558', 'http://www.wikidata.org/entity/Q111848588', 'http://www.wikidata.org/entity/Q111848721', 'http://www.wikidata.org/entity/Q111848749', 'http://www.wikidata.org/entity/Q111848889', 'http://www.wikidata.org/entity/Q111848989', 'http://www.wikidata.org/entity/Q111850874', 'http://www.wikidata.org/entity/Q111903596', 'http://www.wikidata.org/entity/Q111903847', 'http://www.wikidata.org/entity/Q111903850', 'http://www.wikidata.org/entity/Q111903876', 'http://www.wikidata.org/entity/Q111903878', 'http://www.wikidata.org/entity/Q111903929', 'http://www.wikidata.org/entity/Q111903935', 'http://www.wikidata.org/entity/Q111903958', 'http://www.wikidata.org/entity/Q111904025', 'http://www.wikidata.org/entity/Q111904053', 'http://www.wikidata.org/entity/Q111904059', 'http://www.wikidata.org/entity/Q111904155', 'http://www.wikidata.org/entity/Q111905212', 'http://www.wikidata.org/entity/Q111905225', 'http://www.wikidata.org/entity/Q111905272', 'http://www.wikidata.org/entity/Q111906585', 'http://www.wikidata.org/entity/Q111906632', 'http://www.wikidata.org/entity/Q111906707', 'http://www.wikidata.org/entity/Q111907290', 'http://www.wikidata.org/entity/Q111907317', 'http://www.wikidata.org/entity/Q111908878', 'http://www.wikidata.org/entity/Q111908880', 'http://www.wikidata.org/entity/Q111908884', 'http://www.wikidata.org/entity/Q111908910', 'http://www.wikidata.org/entity/Q111909231', 'http://www.wikidata.org/entity/Q111909314', 'http://www.wikidata.org/entity/Q111909357', 'http://www.wikidata.org/entity/Q111909361', 'http://www.wikidata.org/entity/Q111909369', 'http://www.wikidata.org/entity/Q111909483', 'http://www.wikidata.org/entity/Q111909520', 'http://www.wikidata.org/entity/Q111909557', 'http://www.wikidata.org/entity/Q111909632', 'http://www.wikidata.org/entity/Q111909656', 'http://www.wikidata.org/entity/Q111909659', 'http://www.wikidata.org/entity/Q111909665', 'http://www.wikidata.org/entity/Q111909679', 'http://www.wikidata.org/entity/Q111909683', 'http://www.wikidata.org/entity/Q111909686', 'http://www.wikidata.org/entity/Q111914764', 'http://www.wikidata.org/entity/Q111918622', 'http://www.wikidata.org/entity/Q111968636', 'http://www.wikidata.org/entity/Q111972328', 'http://www.wikidata.org/entity/Q111972588', 'http://www.wikidata.org/entity/Q111972596', 'http://www.wikidata.org/entity/Q111972626', 'http://www.wikidata.org/entity/Q111972641', 'http://www.wikidata.org/entity/Q111972655', 'http://www.wikidata.org/entity/Q111972667', 'http://www.wikidata.org/entity/Q111972760', 'http://www.wikidata.org/entity/Q111972775', 'http://www.wikidata.org/entity/Q111981575', 'http://www.wikidata.org/entity/Q111981578', 'http://www.wikidata.org/entity/Q111981586', 'http://www.wikidata.org/entity/Q111981600', 'http://www.wikidata.org/entity/Q111981655', 'http://www.wikidata.org/entity/Q111981806', 'http://www.wikidata.org/entity/Q111984435', 'http://www.wikidata.org/entity/Q111993442', 'http://www.wikidata.org/entity/Q111993561', 'http://www.wikidata.org/entity/Q112028016', 'http://www.wikidata.org/entity/Q112028058', 'http://www.wikidata.org/entity/Q112030707', 'http://www.wikidata.org/entity/Q112037464', 'http://www.wikidata.org/entity/Q112038287', 'http://www.wikidata.org/entity/Q112040430', 'http://www.wikidata.org/entity/Q112045555', 'http://www.wikidata.org/entity/Q11205278', 'http://www.wikidata.org/entity/Q112053302', 'http://www.wikidata.org/entity/Q112055', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112063713', 'http://www.wikidata.org/entity/Q112075710', 'http://www.wikidata.org/entity/Q112087493', 'http://www.wikidata.org/entity/Q112127159', 'http://www.wikidata.org/entity/Q112127176', 'http://www.wikidata.org/entity/Q112183440', 'http://www.wikidata.org/entity/Q112183753', 'http://www.wikidata.org/entity/Q112190885', 'http://www.wikidata.org/entity/Q11219195', 'http://www.wikidata.org/entity/Q112263083', 'http://www.wikidata.org/entity/Q112292803', 'http://www.wikidata.org/entity/Q11237670', 'http://www.wikidata.org/entity/Q11244589', 'http://www.wikidata.org/entity/Q11255045', 'http://www.wikidata.org/entity/Q112613424', 'http://www.wikidata.org/entity/Q112630989', 'http://www.wikidata.org/entity/Q112667083', 'http://www.wikidata.org/entity/Q112667550', 'http://www.wikidata.org/entity/Q112667845', 'http://www.wikidata.org/entity/Q112667901', 'http://www.wikidata.org/entity/Q112669313', 'http://www.wikidata.org/entity/Q112669383', 'http://www.wikidata.org/entity/Q112674649', 'http://www.wikidata.org/entity/Q112678738', 'http://www.wikidata.org/entity/Q112681996', 'http://www.wikidata.org/entity/Q11269', 'http://www.wikidata.org/entity/Q112746421', 'http://www.wikidata.org/entity/Q112747808', 'http://www.wikidata.org/entity/Q112748137', 'http://www.wikidata.org/entity/Q112769957', 'http://www.wikidata.org/entity/Q11277431', 'http://www.wikidata.org/entity/Q11278649', 'http://www.wikidata.org/entity/Q1128065', 'http://www.wikidata.org/entity/Q112894936', 'http://www.wikidata.org/entity/Q112894949', 'http://www.wikidata.org/entity/Q112894986', 'http://www.wikidata.org/entity/Q112971391', 'http://www.wikidata.org/entity/Q112971396', 'http://www.wikidata.org/entity/Q112971410', 'http://www.wikidata.org/entity/Q112971413', 'http://www.wikidata.org/entity/Q113015050', 'http://www.wikidata.org/entity/Q113040064', 'http://www.wikidata.org/entity/Q113072738', 'http://www.wikidata.org/entity/Q113090457', 'http://www.wikidata.org/entity/Q113114857', 'http://www.wikidata.org/entity/Q1131707', 'http://www.wikidata.org/entity/Q113232600', 'http://www.wikidata.org/entity/Q113272299', 'http://www.wikidata.org/entity/Q113272409', 'http://www.wikidata.org/entity/Q113272932', 'http://www.wikidata.org/entity/Q113325889', 'http://www.wikidata.org/entity/Q113383597', 'http://www.wikidata.org/entity/Q113406974', 'http://www.wikidata.org/entity/Q113458549', 'http://www.wikidata.org/entity/Q113458586', 'http://www.wikidata.org/entity/Q113470219', 'http://www.wikidata.org/entity/Q113470239', 'http://www.wikidata.org/entity/Q113470340', 'http://www.wikidata.org/entity/Q113470387', 'http://www.wikidata.org/entity/Q113470512', 'http://www.wikidata.org/entity/Q113470522', 'http://www.wikidata.org/entity/Q113470532', 'http://www.wikidata.org/entity/Q113485231', 'http://www.wikidata.org/entity/Q113499373', 'http://www.wikidata.org/entity/Q113499420', 'http://www.wikidata</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q15920068', 'http://www.wikidata.org/entity/Q222897', 'http://www.wikidata.org/entity/Q3567209', 'http://www.wikidata.org/entity/Q61046702', 'http://www.wikidata.org/entity/Q7303029']</t>
-  </si>
-  <si>
     <t>['1971-04-12T00:00:00Z', '1972-12-19T00:00:00Z', '1973-09-05T00:00:00Z', '1973-12-03T00:00:00Z']</t>
   </si>
   <si>
@@ -1225,33 +1873,21 @@
     <t>['http://www.wikidata.org/entity/Q102483', 'http://www.wikidata.org/entity/Q1153825', 'http://www.wikidata.org/entity/Q121180', 'http://www.wikidata.org/entity/Q123469', 'http://www.wikidata.org/entity/Q127349', 'http://www.wikidata.org/entity/Q129155', 'http://www.wikidata.org/entity/Q129173', 'http://www.wikidata.org/entity/Q129187', 'http://www.wikidata.org/entity/Q131318', 'http://www.wikidata.org/entity/Q131326', 'http://www.wikidata.org/entity/Q131487', 'http://www.wikidata.org/entity/Q131549', 'http://www.wikidata.org/entity/Q132589', 'http://www.wikidata.org/entity/Q132684', 'http://www.wikidata.org/entity/Q132695', 'http://www.wikidata.org/entity/Q132701', 'http://www.wikidata.org/entity/Q132723', 'http://www.wikidata.org/entity/Q133042', 'http://www.wikidata.org/entity/Q134641', 'http://www.wikidata.org/entity/Q134644', 'http://www.wikidata.org/entity/Q1403', 'http://www.wikidata.org/entity/Q159552', 'http://www.wikidata.org/entity/Q160478', 'http://www.wikidata.org/entity/Q165823', 'http://www.wikidata.org/entity/Q18143', 'http://www.wikidata.org/entity/Q222944', 'http://www.wikidata.org/entity/Q225554', 'http://www.wikidata.org/entity/Q226525', 'http://www.wikidata.org/entity/Q23434', 'http://www.wikidata.org/entity/Q2344210', 'http://www.wikidata.org/entity/Q234819', 'http://www.wikidata.org/entity/Q241248', 'http://www.wikidata.org/entity/Q25351', 'http://www.wikidata.org/entity/Q254032', 'http://www.wikidata.org/entity/Q25973', 'http://www.wikidata.org/entity/Q272855', 'http://www.wikidata.org/entity/Q274334', 'http://www.wikidata.org/entity/Q317877', 'http://www.wikidata.org/entity/Q33760', 'http://www.wikidata.org/entity/Q34189', 'http://www.wikidata.org/entity/Q34474', 'http://www.wikidata.org/entity/Q34670', 'http://www.wikidata.org/entity/Q34743', 'http://www.wikidata.org/entity/Q37030', 'http://www.wikidata.org/entity/Q37060', 'http://www.wikidata.org/entity/Q37327', 'http://www.wikidata.org/entity/Q37767', 'http://www.wikidata.org/entity/Q38049', 'http://www.wikidata.org/entity/Q38392', 'http://www.wikidata.org/entity/Q392', 'http://www.wikidata.org/entity/Q39212', 'http://www.wikidata.org/entity/Q39803', 'http://www.wikidata.org/entity/Q40213', 'http://www.wikidata.org/entity/Q40826', 'http://www.wikidata.org/entity/Q40874', 'http://www.wikidata.org/entity/Q41042', 'http://www.wikidata.org/entity/Q41223', 'http://www.wikidata.org/entity/Q41488', 'http://www.wikidata.org/entity/Q41502', 'http://www.wikidata.org/entity/Q42037', 'http://www.wikidata.org/entity/Q42122', 'http://www.wikidata.org/entity/Q42156', 'http://www.wikidata.org/entity/Q42247', 'http://www.wikidata.org/entity/Q42398', 'http://www.wikidata.org/entity/Q42443', 'http://www.wikidata.org/entity/Q42552', 'http://www.wikidata.org/entity/Q42596', 'http://www.wikidata.org/entity/Q42747', 'http://www.wikidata.org/entity/Q43293', 'http://www.wikidata.org/entity/Q43440', 'http://www.wikidata.org/entity/Q43523', 'http://www.wikidata.org/entity/Q43736', 'http://www.wikidata.org/entity/Q44107', 'http://www.wikidata.org/entity/Q44183', 'http://www.wikidata.org/entity/Q443868', 'http://www.wikidata.org/entity/Q44519', 'http://www.wikidata.org/entity/Q44593', 'http://www.wikidata.org/entity/Q45970', 'http://www.wikidata.org/entity/Q46405', 'http://www.wikidata.org/entity/Q46602', 'http://www.wikidata.org/entity/Q46739', 'http://www.wikidata.org/entity/Q47162', 'http://www.wikidata.org/entity/Q47243', 'http://www.wikidata.org/entity/Q47484', 'http://www.wikidata.org/entity/Q47561', 'http://www.wikidata.org/entity/Q47619', 'http://www.wikidata.org/entity/Q47695', 'http://www.wikidata.org/entity/Q47755', 'http://www.wikidata.org/entity/Q49747', 'http://www.wikidata.org/entity/Q5646626', 'http://www.wikidata.org/entity/Q57074', 'http://www.wikidata.org/entity/Q5878', 'http://www.wikidata.org/entity/Q6538', 'http://www.wikidata.org/entity/Q7176', 'http://www.wikidata.org/entity/Q72334', 'http://www.wikidata.org/entity/Q7241', 'http://www.wikidata.org/entity/Q75603', 'http://www.wikidata.org/entity/Q75612', 'http://www.wikidata.org/entity/Q76487', 'http://www.wikidata.org/entity/Q765', 'http://www.wikidata.org/entity/Q7728', 'http://www.wikidata.org/entity/Q80064', 'http://www.wikidata.org/entity/Q80095', 'http://www.wikidata.org/entity/Q80321', 'http://www.wikidata.org/entity/Q80871', 'http://www.wikidata.org/entity/Q80889', 'http://www.wikidata.org/entity/Q80900', 'http://www.wikidata.org/entity/Q81685', 'http://www.wikidata.org/entity/Q82248', 'http://www.wikidata.org/entity/Q83038', 'http://www.wikidata.org/entity/Q83059', 'http://www.wikidata.org/entity/Q83184', 'http://www.wikidata.org/entity/Q862', 'http://www.wikidata.org/entity/Q8998', 'http://www.wikidata.org/entity/Q93137', 'http://www.wikidata.org/entity/Q93157', 'http://www.wikidata.org/entity/Q93356', 'http://www.wikidata.org/entity/Q9364']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q14280']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q100249671', 'http://www.wikidata.org/entity/Q1026959', 'http://www.wikidata.org/entity/Q1027629', 'http://www.wikidata.org/entity/Q1036753', 'http://www.wikidata.org/entity/Q1039172', 'http://www.wikidata.org/entity/Q1050088', 'http://www.wikidata.org/entity/Q106959617', 'http://www.wikidata.org/entity/Q109094', 'http://www.wikidata.org/entity/Q110182609', 'http://www.wikidata.org/entity/Q1103685', 'http://www.wikidata.org/entity/Q11290964', 'http://www.wikidata.org/entity/Q1138796', 'http://www.wikidata.org/entity/Q11409656', 'http://www.wikidata.org/entity/Q11473196', 'http://www.wikidata.org/entity/Q116745984', 'http://www.wikidata.org/entity/Q1173729', 'http://www.wikidata.org/entity/Q1238872', 'http://www.wikidata.org/entity/Q124042030', 'http://www.wikidata.org/entity/Q12469951', 'http://www.wikidata.org/entity/Q1248972', 'http://www.wikidata.org/entity/Q1266275', 'http://www.wikidata.org/entity/Q1282429', 'http://www.wikidata.org/entity/Q1282945', 'http://www.wikidata.org/entity/Q1282967', 'http://www.wikidata.org/entity/Q130324694', 'http://www.wikidata.org/entity/Q1308870', 'http://www.wikidata.org/entity/Q1311188', 'http://www.wikidata.org/entity/Q1318323', 'http://www.wikidata.org/entity/Q1347472', 'http://www.wikidata.org/entity/Q13571046', 'http://www.wikidata.org/entity/Q13571677', 'http://www.wikidata.org/entity/Q1364120', 'http://www.wikidata.org/entity/Q1412239', 'http://www.wikidata.org/entity/Q144622', 'http://www.wikidata.org/entity/Q1452661', 'http://www.wikidata.org/entity/Q1453118', 'http://www.wikidata.org/entity/Q14545268', 'http://www.wikidata.org/entity/Q1454645', 'http://www.wikidata.org/entity/Q1535887', 'http://www.wikidata.org/entity/Q15453836', 'http://www.wikidata.org/entity/Q15485363', 'http://www.wikidata.org/entity/Q1557440', 'http://www.wikidata.org/entity/Q15815145', 'http://www.wikidata.org/entity/Q1583816', 'http://www.wikidata.org/entity/Q15840407', 'http://www.wikidata.org/entity/Q15851160', 'http://www.wikidata.org/entity/Q16017359', 'http://www.wikidata.org/entity/Q1607887', 'http://www.wikidata.org/entity/Q16090563', 'http://www.wikidata.org/entity/Q161753', 'http://www.wikidata.org/entity/Q1622068', 'http://www.wikidata.org/entity/Q1631802', 'http://www.wikidata.org/entity/Q163861', 'http://www.wikidata.org/entity/Q1675549', 'http://www.wikidata.org/entity/Q1678838', 'http://www.wikidata.org/entity/Q1687893', 'http://www.wikidata.org/entity/Q1689131', 'http://www.wikidata.org/entity/Q1689347', 'http://www.wikidata.org/entity/Q1691548', 'http://www.wikidata.org/entity/Q1701204', 'http://www.wikidata.org/entity/Q1701748', 'http://www.wikidata.org/entity/Q1702274', 'http://www.wikidata.org/entity/Q1703633', 'http://www.wikidata.org/entity/Q17306038', 'http://www.wikidata.org/entity/Q17352853', 'http://www.wikidata.org/entity/Q1738588', 'http://www.wikidata.org/entity/Q1738949', 'http://www.wikidata.org/entity/Q1740093', 'http://www.wikidata.org/entity/Q1745395', 'http://www.wikidata.org/entity/Q177824', 'http://www.wikidata.org/entity/Q1779', 'http://www.wikidata.org/entity/Q1791341', 'http://www.wikidata.org/entity/Q1806037', 'http://www.wikidata.org/entity/Q1820504', 'http://www.wikidata.org/entity/Q18410973', 'http://www.wikidata.org/entity/Q1872759', 'http://www.wikidata.org/entity/Q188046', 'http://www.wikidata.org/entity/Q1902146', 'http://www.wikidata.org/entity/Q1903353', 'http://www.wikidata.org/entity/Q1912807', 'http://www.wikidata.org/entity/Q1917393', 'http://www.wikidata.org/entity/Q19275122', 'http://www.wikidata.org/entity/Q1935815', 'http://www.wikidata.org/entity/Q193645', 'http://www.wikidata.org/entity/Q19561422', 'http://www.wikidata.org/entity/Q19629147', 'http://www.wikidata.org/entity/Q1971146', 'http://www.wikidata.org/entity/Q19832476', 'http://www.wikidata.org/entity/Q199406', 'http://www.wikidata.org/entity/Q19960682', 'http://www.wikidata.org/entity/Q19962541', 'http://www.wikidata.org/entity/Q19968522', 'http://www.wikidata.org/entity/Q201500', 'http://www.wikidata.org/entity/Q2041252', 'http://www.wikidata.org/entity/Q204943', 'http://www.wikidata.org/entity/Q2061143', 'http://www.wikidata.org/entity/Q2075755', 'http://www.wikidata.org/entity/Q210173', 'http://www.wikidata.org/entity/Q210289', 'http://www.wikidata.org/entity/Q2216444', 'http://www.wikidata.org/entity/Q222798', 'http://www.wikidata.org/entity/Q22670541', 'http://www.wikidata.org/entity/Q22958430', 'http://www.wikidata.org/entity/Q2302261', 'http://www.wikidata.org/entity/Q2347504', 'http://www.wikidata.org/entity/Q23874600', 'http://www.wikidata.org/entity/Q2396601', 'http://www.wikidata.org/entity/Q2401961', 'http://www.wikidata.org/entity/Q2405288', 'http://www.wikidata.org/entity/Q2478090', 'http://www.wikidata.org/entity/Q2544934', 'http://www.wikidata.org/entity/Q26196818', 'http://www.wikidata.org/entity/Q2645829', 'http://www.wikidata.org/entity/Q2686238', 'http://www.wikidata.org/entity/Q273076', 'http://www.wikidata.org/entity/Q276068', 'http://www.wikidata.org/entity/Q27916182', 'http://www.wikidata.org/entity/Q313368', 'http://www.wikidata.org/entity/Q313529', 'http://www.wikidata.org/entity/Q313868', 'http://www.wikidata.org/entity/Q3196381', 'http://www.wikidata.org/entity/Q322210', 'http://www.wikidata.org/entity/Q329362', 'http://www.wikidata.org/entity/Q344822', 'http://www.wikidata.org/entity/Q355481', 'http://www.wikidata.org/entity/Q356715', 'http://www.wikidata.org/entity/Q376146', 'http://www.wikidata.org/entity/Q432924', 'http://www.wikidata.org/entity/Q436176', 'http://www.wikidata.org/entity/Q465105', 'http://www.wikidata.org/entity/Q4760598', 'http://www.wikidata.org/entity/Q4767267', 'http://www.wikidata.org/entity/Q4797599', 'http://www.wikidata.org/entity/Q4833896', 'http://www.wikidata.org/entity/Q491100', 'http://www.wikidata.org/entity/Q4911881', 'http://www.wikidata.org/entity/Q492677', 'http://www.wikidata.org/entity/Q495464', 'http://www.wikidata.org/entity/Q49575', 'http://www.wikidata.org/entity/Q4998586', 'http://www.wikidata.org/entity/Q510651', 'http://www.wikidata.org/entity/Q5214487', 'http://www.wikidata.org/entity/Q5220273', 'http://www.wikidata.org/entity/Q523899', 'http://www.wikidata.org/entity/Q5263018', 'http://www.wikidata.org/entity/Q528340', 'http://www.wikidata.org/entity/Q5290919', 'http://www.wikidata.org/entity/Q539159', 'http://www.wikidata.org/entity/Q5392650', 'http://www.wikidata.org/entity/Q5394010', 'http://www.wikidata.org/entity/Q539883', 'http://www.wikidata.org/entity/Q545464', 'http://www.wikidata.org/entity/Q54957569', 'http://www.wikidata.org/entity/Q5508594', 'http://www.wikidata.org/entity/Q5525190', 'http://www.wikidata.org/entity/Q5531061', 'http://www.wikidata.org/entity/Q558118', 'http://www.wikidata.org/entity/Q562871', 'http://www.wikidata.org/entity/Q5736141', 'http://www.wikidata.org/entity/Q590792', 'http://www.wikidata.org/entity/Q600700', 'http://www.wikidata.org/entity/Q6074256', 'http://www.wikidata.org/entity/Q612855', 'http://www.wikidata.org/entity/Q6175185', 'http://www.wikidata.org/entity/Q6208919', 'http://www.wikidata.org/entity/Q6221178', 'http://www.wikidata.org/entity/Q6224104', 'http://www.wikidata.org/entity/Q6240203', 'http://www.wikidata.org/entity/Q6309190', 'http://www.wikidata.org/entity/Q64683137', 'http://www.wikidata.org/entity/Q64985242', 'http://www.wikidata.org/entity/Q65028314', 'http://www.wikidata.org/entity/Q65028506', 'http://www.wikidata.org/entity/Q65032384', 'http://www.wikidata.org/entity/Q65034989', 'http://www.wikidata.org/entity/Q65034994', 'http://www.wikidata.org/entity/Q658636', 'http://www.wikidata.org/entity/Q6687998', 'http://www.wikidata.org/entity/Q668856', 'http://www.wikidata.org/entity/Q675810', 'http://www.wikidata.org/entity/Q6793340', 'http://www.wikidata.org/entity/Q6846424', 'http://www.wikidata.org/entity/Q6849142', 'http://www.wikidata.org/entity/Q7052586', 'http://www.wikidata.org/entity/Q70552207', 'http://www.wikidata.org/entity/Q7087874', 'http://www.wikidata.org/entity/Q708990', 'http://www.wikidata.org/entity/Q711921', 'http://www.wikidata.org/entity/Q713273', 'http://www.wikidata.org/entity/Q727418', 'http://www.wikidata.org/entity/Q7298839', 'http://www.wikidata.org/entity/Q737521', 'http://www.wikidata.org/entity/Q743585', 'http://www.wikidata.org/entity/Q7441108', 'http://www.wikidata.org/entity/Q7524109', 'http://www.wikidata.org/entity/Q7614243', 'http://www.wikidata.org/entity/Q7694080', 'http://www.wikidata.org/entity/Q772645', 'http://www.wikidata.org/entity/Q776453', 'http://www.wikidata.org/entity/Q7781439', 'http://www.wikidata.org/entity/Q7781727', 'http://www.wikidata.org/entity/Q7924906', 'http://www.wikidata.org/entity/Q7982390', 'http://www.wikidata.org/entity/Q8009347', 'http://www.wikidata.org/entity/Q807401', 'http://www.wikidata.org/entity/Q808916', 'http://www.wikidata.org/entity/Q861545', 'http://www.wikidata.org/entity/Q861938', 'http://www.wikidata.org/entity/Q870113', 'http://www.wikidata.org/entity/Q887760', 'http://www.wikidata.org/entity/Q888472', 'http://www.wikidata.org/entity/Q888620', 'http://www.wikidata.org/entity/Q888671', 'http://www.wikidata.org/entity/Q895829', 'http://www.wikidata.org/entity/Q923409', 'http://www.wikidata.org/entity/Q93341', 'http://www.wikidata.org/entity/Q936536', 'http://www.wikidata.org/entity/Q973166', 'http://www.wikidata.org/entity/Q975609', 'http://www.wikidata.org/entity/Q98308750', 'http://www.wikidata.org/entity/Q99438820']</t>
   </si>
   <si>
     <t>['http://www.wikidata.org/entity/Q100149428', 'http://www.wikidata.org/entity/Q100159428', 'http://www.wikidata.org/entity/Q100159740', 'http://www.wikidata.org/entity/Q100233973', 'http://www.wikidata.org/entity/Q100234056', 'http://www.wikidata.org/entity/Q100255739', 'http://www.wikidata.org/entity/Q100268106', 'http://www.wikidata.org/entity/Q100718552', 'http://www.wikidata.org/entity/Q100718566', 'http://www.wikidata.org/entity/Q100719358', 'http://www.wikidata.org/entity/Q100720834', 'http://www.wikidata.org/entity/Q100721176', 'http://www.wikidata.org/entity/Q100723552', 'http://www.wikidata.org/entity/Q100723716', 'http://www.wikidata.org/entity/Q100741864', 'http://www.wikidata.org/entity/Q100747188', 'http://www.wikidata.org/entity/Q100751464', 'http://www.wikidata.org/entity/Q100753561', 'http://www.wikidata.org/entity/Q100753967', 'http://www.wikidata.org/entity/Q100759002', 'http://www.wikidata.org/entity/Q100759458', 'http://www.wikidata.org/entity/Q100761605', 'http://www.wikidata.org/entity/Q100766876', 'http://www.wikidata.org/entity/Q100766896', 'http://www.wikidata.org/entity/Q100768753', 'http://www.wikidata.org/entity/Q100769398', 'http://www.wikidata.org/entity/Q100769656', 'http://www.wikidata.org/entity/Q100769714', 'http://www.wikidata.org/entity/Q100770818', 'http://www.wikidata.org/entity/Q100771309', 'http://www.wikidata.org/entity/Q100771698', 'http://www.wikidata.org/entity/Q100774597', 'http://www.wikidata.org/entity/Q100775493', 'http://www.wikidata.org/entity/Q100776047', 'http://www.wikidata.org/entity/Q100776321', 'http://www.wikidata.org/entity/Q100779909', 'http://www.wikidata.org/entity/Q100779924', 'http://www.wikidata.org/entity/Q100781781', 'http://www.wikidata.org/entity/Q100782988', 'http://www.wikidata.org/entity/Q100784464', 'http://www.wikidata.org/entity/Q100785232', 'http://www.wikidata.org/entity/Q100787706', 'http://www.wikidata.org/entity/Q100789903', 'http://www.wikidata.org/entity/Q100792158', 'http://www.wikidata.org/entity/Q100793447', 'http://www.wikidata.org/entity/Q100793756', 'http://www.wikidata.org/entity/Q100794271', 'http://www.wikidata.org/entity/Q100794996', 'http://www.wikidata.org/entity/Q100795231', 'http://www.wikidata.org/entity/Q100796414', 'http://www.wikidata.org/entity/Q100796580', 'http://www.wikidata.org/entity/Q100798031', 'http://www.wikidata.org/entity/Q100798302', 'http://www.wikidata.org/entity/Q100798640', 'http://www.wikidata.org/entity/Q100798922', 'http://www.wikidata.org/entity/Q100801342', 'http://www.wikidata.org/entity/Q100802268', 'http://www.wikidata.org/entity/Q100805424', 'http://www.wikidata.org/entity/Q100806402', 'http://www.wikidata.org/entity/Q100806617', 'http://www.wikidata.org/entity/Q100808900', 'http://www.wikidata.org/entity/Q100819704', 'http://www.wikidata.org/entity/Q100868390', 'http://www.wikidata.org/entity/Q100869366', 'http://www.wikidata.org/entity/Q100870520', 'http://www.wikidata.org/entity/Q100871090', 'http://www.wikidata.org/entity/Q100874361', 'http://www.wikidata.org/entity/Q100874765', 'http://www.wikidata.org/entity/Q100876161', 'http://www.wikidata.org/entity/Q100877072', 'http://www.wikidata.org/entity/Q100880911', 'http://www.wikidata.org/entity/Q100884422', 'http://www.wikidata.org/entity/Q100884743', 'http://www.wikidata.org/entity/Q100888756', 'http://www.wikidata.org/entity/Q100889736', 'http://www.wikidata.org/entity/Q100890360', 'http://www.wikidata.org/entity/Q100892340', 'http://www.wikidata.org/entity/Q100892958', 'http://www.wikidata.org/entity/Q100893004', 'http://www.wikidata.org/entity/Q100893220', 'http://www.wikidata.org/entity/Q100893856', 'http://www.wikidata.org/entity/Q100894411', 'http://www.wikidata.org/entity/Q100894417', 'http://www.wikidata.org/entity/Q100905529', 'http://www.wikidata.org/entity/Q100907217', 'http://www.wikidata.org/entity/Q100907395', 'http://www.wikidata.org/entity/Q100907778', 'http://www.wikidata.org/entity/Q100911168', 'http://www.wikidata.org/entity/Q100911312', 'http://www.wikidata.org/entity/Q100914058', 'http://www.wikidata.org/entity/Q100917187', 'http://www.wikidata.org/entity/Q100917336', 'http://www.wikidata.org/entity/Q100918539', 'http://www.wikidata.org/entity/Q100919123', 'http://www.wikidata.org/entity/Q100922723', 'http://www.wikidata.org/entity/Q100922847', 'http://www.wikidata.org/entity/Q100924163', 'http://www.wikidata.org/entity/Q100925349', 'http://www.wikidata.org/entity/Q100929792', 'http://www.wikidata.org/entity/Q100930247', 'http://www.wikidata.org/entity/Q100934497', 'http://www.wikidata.org/entity/Q100935310', 'http://www.wikidata.org/entity/Q100935721', 'http://www.wikidata.org/entity/Q100935989', 'http://www.wikidata.org/entity/Q100939038', 'http://www.wikidata.org/entity/Q100940712', 'http://www.wikidata.org/entity/Q100942674', 'http://www.wikidata.org/entity/Q1009435', 'http://www.wikidata.org/entity/Q100944889', 'http://www.wikidata.org/entity/Q100951898', 'http://www.wikidata.org/entity/Q100952898', 'http://www.wikidata.org/entity/Q100958614', 'http://www.wikidata.org/entity/Q100961111', 'http://www.wikidata.org/entity/Q100963772', 'http://www.wikidata.org/entity/Q100963834', 'http://www.wikidata.org/entity/Q100964085', 'http://www.wikidata.org/entity/Q100981581', 'http://www.wikidata.org/entity/Q100981767', 'http://www.wikidata.org/entity/Q100981910', 'http://www.wikidata.org/entity/Q100987430', 'http://www.wikidata.org/entity/Q100987618', 'http://www.wikidata.org/entity/Q101072753', 'http://www.wikidata.org/entity/Q101385200', 'http://www.wikidata.org/entity/Q102007152', 'http://www.wikidata.org/entity/Q102282451', 'http://www.wikidata.org/entity/Q102400266', 'http://www.wikidata.org/entity/Q10261637', 'http://www.wikidata.org/entity/Q102955', 'http://www.wikidata.org/entity/Q10307612', 'http://www.wikidata.org/entity/Q1032471', 'http://www.wikidata.org/entity/Q1032693', 'http://www.wikidata.org/entity/Q1034012', 'http://www.wikidata.org/entity/Q1039453', 'http://www.wikidata.org/entity/Q104165992', 'http://www.wikidata.org/entity/Q104166462', 'http://www.wikidata.org/entity/Q104361', 'http://www.wikidata.org/entity/Q104375', 'http://www.wikidata.org/entity/Q104870461', 'http://www.wikidata.org/entity/Q105101971', 'http://www.wikidata.org/entity/Q105102366', 'http://www.wikidata.org/entity/Q105394701', 'http://www.wikidata.org/entity/Q1053971', 'http://www.wikidata.org/entity/Q105465865', 'http://www.wikidata.org/entity/Q105501473', 'http://www.wikidata.org/entity/Q1055229', 'http://www.wikidata.org/entity/Q105622399', 'http://www.wikidata.org/entity/Q105632314', 'http://www.wikidata.org/entity/Q1056335', 'http://www.wikidata.org/entity/Q1056746', 'http://www.wikidata.org/entity/Q1058595', 'http://www.wikidata.org/entity/Q1061731', 'http://www.wikidata.org/entity/Q1061776', 'http://www.wikidata.org/entity/Q106279', 'http://www.wikidata.org/entity/Q106338045', 'http://www.wikidata.org/entity/Q106448577', 'http://www.wikidata.org/entity/Q106451', 'http://www.wikidata.org/entity/Q106473444', 'http://www.wikidata.org/entity/Q106519612', 'http://www.wikidata.org/entity/Q106524904', 'http://www.wikidata.org/entity/Q106616516', 'http://www.wikidata.org/entity/Q106627490', 'http://www.wikidata.org/entity/Q106635227', 'http://www.wikidata.org/entity/Q106660414', 'http://www.wikidata.org/entity/Q106671635', 'http://www.wikidata.org/entity/Q106671703', 'http://www.wikidata.org/entity/Q106677205', 'http://www.wikidata.org/entity/Q106680697', 'http://www.wikidata.org/entity/Q106720122', 'http://www.wikidata.org/entity/Q106778918', 'http://www.wikidata.org/entity/Q106781914', 'http://www.wikidata.org/entity/Q106806341', 'http://www.wikidata.org/entity/Q106817973', 'http://www.wikidata.org/entity/Q106818099', 'http://www.wikidata.org/entity/Q106818169', 'http://www.wikidata.org/entity/Q106818559', 'http://www.wikidata.org/entity/Q106818739', 'http://www.wikidata.org/entity/Q106825117', 'http://www.wikidata.org/entity/Q106963403', 'http://www.wikidata.org/entity/Q106963499', 'http://www.wikidata.org/entity/Q106977533', 'http://www.wikidata.org/entity/Q107093740', 'http://www.wikidata.org/entity/Q107118384', 'http://www.wikidata.org/entity/Q107151952', 'http://www.wikidata.org/entity/Q107152625', 'http://www.wikidata.org/entity/Q107178241', 'http://www.wikidata.org/entity/Q107178269', 'http://www.wikidata.org/entity/Q107185703', 'http://www.wikidata.org/entity/Q107207765', 'http://www.wikidata.org/entity/Q107253264', 'http://www.wikidata.org/entity/Q107287851', 'http://www.wikidata.org/entity/Q107287942', 'http://www.wikidata.org/entity/Q107305764', 'http://www.wikidata.org/entity/Q107309089', 'http://www.wikidata.org/entity/Q107314128', 'http://www.wikidata.org/entity/Q107327655', 'http://www.wikidata.org/entity/Q107337984', 'http://www.wikidata.org/entity/Q107344389', 'http://www.wikidata.org/entity/Q107355280', 'http://www.wikidata.org/entity/Q107363162', 'http://www.wikidata.org/entity/Q107369214', 'http://www.wikidata.org/entity/Q107378373', 'http://www.wikidata.org/entity/Q107419969', 'http://www.wikidata.org/entity/Q107422938', 'http://www.wikidata.org/entity/Q107504019', 'http://www.wikidata.org/entity/Q107504309', 'http://www.wikidata.org/entity/Q107530183', 'http://www.wikidata.org/entity/Q107549720', 'http://www.wikidata.org/entity/Q107585991', 'http://www.wikidata.org/entity/Q107586380', 'http://www.wikidata.org/entity/Q107588913', 'http://www.wikidata.org/entity/Q1075978', 'http://www.wikidata.org/entity/Q1075984', 'http://www.wikidata.org/entity/Q1076942', 'http://www.wikidata.org/entity/Q1077184', 'http://www.wikidata.org/entity/Q1077193', 'http://www.wikidata.org/entity/Q1077292', 'http://www.wikidata.org/entity/Q1077437', 'http://www.wikidata.org/entity/Q107752619', 'http://www.wikidata.org/entity/Q1077607', 'http://www.wikidata.org/entity/Q1077613', 'http://www.wikidata.org/entity/Q1077634', 'http://www.wikidata.org/entity/Q108112686', 'http://www.wikidata.org/entity/Q108113174', 'http://www.wikidata.org/entity/Q108152227', 'http://www.wikidata.org/entity/Q108170613', 'http://www.wikidata.org/entity/Q1081976', 'http://www.wikidata.org/entity/Q108291', 'http://www.wikidata.org/entity/Q108293322', 'http://www.wikidata.org/entity/Q1082954', 'http://www.wikidata.org/entity/Q108307199', 'http://www.wikidata.org/entity/Q10831393', 'http://www.wikidata.org/entity/Q108314957', 'http://www.wikidata.org/entity/Q108333', 'http://www.wikidata.org/entity/Q108444645', 'http://www.wikidata.org/entity/Q108464191', 'http://www.wikidata.org/entity/Q108502580', 'http://www.wikidata.org/entity/Q108560985', 'http://www.wikidata.org/entity/Q108561381', 'http://www.wikidata.org/entity/Q108650400', 'http://www.wikidata.org/entity/Q108697360', 'http://www.wikidata.org/entity/Q1086985', 'http://www.wikidata.org/entity/Q108733631', 'http://www.wikidata.org/entity/Q108757835', 'http://www.wikidata.org/entity/Q108761974', 'http://www.wikidata.org/entity/Q10877291', 'http://www.wikidata.org/entity/Q108809817', 'http://www.wikidata.org/entity/Q108822235', 'http://www.wikidata.org/entity/Q108823000', 'http://www.wikidata.org/entity/Q108858175', 'http://www.wikidata.org/entity/Q108870659', 'http://www.wikidata.org/entity/Q108915542', 'http://www.wikidata.org/entity/Q1089188', 'http://www.wikidata.org/entity/Q10917065', 'http://www.wikidata.org/entity/Q1091785', 'http://www.wikidata.org/entity/Q109336431', 'http://www.wikidata.org/entity/Q1093458', 'http://www.wikidata.org/entity/Q109425776', 'http://www.wikidata.org/entity/Q109463904', 'http://www.wikidata.org/entity/Q109468740', 'http://www.wikidata.org/entity/Q109524417', 'http://www.wikidata.org/entity/Q109540571', 'http://www.wikidata.org/entity/Q109540589', 'http://www.wikidata.org/entity/Q109544933', 'http://www.wikidata.org/entity/Q109553878', 'http://www.wikidata.org/entity/Q109728722', 'http://www.wikidata.org/entity/Q1097554', 'http://www.wikidata.org/entity/Q109780503', 'http://www.wikidata.org/entity/Q109780810', 'http://www.wikidata.org/entity/Q109829337', 'http://www.wikidata.org/entity/Q109829404', 'http://www.wikidata.org/entity/Q10983515', 'http://www.wikidata.org/entity/Q109851380', 'http://www.wikidata.org/entity/Q109853277', 'http://www.wikidata.org/entity/Q109933627', 'http://www.wikidata.org/entity/Q109967900', 'http://www.wikidata.org/entity/Q109983648', 'http://www.wikidata.org/entity/Q110024215', 'http://www.wikidata.org/entity/Q110070283', 'http://www.wikidata.org/entity/Q1101335', 'http://www.wikidata.org/entity/Q11019119', 'http://www.wikidata.org/entity/Q1102088', 'http://www.wikidata.org/entity/Q110252034', 'http://www.wikidata.org/entity/Q110271131', 'http://www.wikidata.org/entity/Q110322226', 'http://www.wikidata.org/entity/Q1103788', 'http://www.wikidata.org/entity/Q1103821', 'http://www.wikidata.org/entity/Q110457791', 'http://www.wikidata.org/entity/Q110546841', 'http://www.wikidata.org/entity/Q110619093', 'http://www.wikidata.org/entity/Q110619637', 'http://www.wikidata.org/entity/Q110637006', 'http://www.wikidata.org/entity/Q110664194', 'http://www.wikidata.org/entity/Q110914467', 'http://www.wikidata.org/entity/Q110983769', 'http://www.wikidata.org/entity/Q111008', 'http://www.wikidata.org/entity/Q111025353', 'http://www.wikidata.org/entity/Q111025906', 'http://www.wikidata.org/entity/Q111031599', 'http://www.wikidata.org/entity/Q111049849', 'http://www.wikidata.org/entity/Q111049873', 'http://www.wikidata.org/entity/Q111049881', 'http://www.wikidata.org/entity/Q111049894', 'http://www.wikidata.org/entity/Q1111021', 'http://www.wikidata.org/entity/Q1111167', 'http://www.wikidata.org/entity/Q1111983', 'http://www.wikidata.org/entity/Q1112016', 'http://www.wikidata.org/entity/Q1112771', 'http://www.wikidata.org/entity/Q1112996', 'http://www.wikidata.org/entity/Q1113963', 'http://www.wikidata.org/entity/Q1114256', 'http://www.wikidata.org/entity/Q111508849', 'http://www.wikidata.org/entity/Q1115784', 'http://www.wikidata.org/entity/Q1115975', 'http://www.wikidata.org/entity/Q1116123', 'http://www.wikidata.org/entity/Q111631232', 'http://www.wikidata.org/entity/Q111765767', 'http://www.wikidata.org/entity/Q1117816', 'http://www.wikidata.org/entity/Q1118250', 'http://www.wikidata.org/entity/Q1119099', 'http://www.wikidata.org/entity/Q1119288', 'http://www.wikidata.org/entity/Q112062135', 'http://www.wikidata.org/entity/Q112073280', 'http://www.wikidata.org/entity/Q112080040', 'http://www.wikidata.org/entity/Q1120880', 'http://www.wikidata.org/entity/Q112148353', 'http://www.wikidata.org/entity/Q112183592', 'http://www.wikidata.org/entity/Q112435', 'http://www.wikidata.org/entity/Q112449', 'http://www.wikidata.org/entity/Q1125388', 'http://www.wikidata.org/entity/Q1125913', 'http://www.wikidata.org/entity/Q1125990', 'http://www.wikidata.org/entity/Q112625459', 'http://www.wikidata.org/entity/Q1126347', 'http://www.wikidata.org/entity/Q112659357', 'http://www.wikidata.org/entity/Q112687854', 'http://www.wikidata.org/entity/Q112726895', 'http://www.wikidata.org/entity/Q112894312', 'http://www.wikidata.org/entity/Q11289612', 'http://www.wikidata.org/entity/Q112913802', 'http://www.wikidata.org/entity/Q11299322', 'http://www.wikidata.org/entity/Q11299342', 'http://www.wikidata.org/entity/Q113112644', 'http://www.wikidata.org/entity/Q113202398', 'http://www.wikidata.org/entity/Q113214570', 'http://www.wikidata.org/entity/Q113215147', 'http://www.wikidata.org/entity/Q1132365', 'http://www.wikidata.org/entity/Q1132507', 'http://www.wikidata.org/entity/Q1132527', 'http://www.wikidata.org/entity/Q1132528', 'http://www.wikidata.org/entity/Q1132658', 'http://www.wikidata.org/entity/Q1132738', 'http://www.wikidata.org/entity/Q1132834', 'http://www.wikidata.org/entity/Q113291458', 'http://www.wikidata.org/entity/Q113292358', 'http://www.wikidata.org/entity/Q113292554', 'http://www.wikidata.org/entity/Q113292603', 'http://www.wikidata.org/entity/Q113298428', 'http://www.wikidata.org/entity/Q1134048', 'http://www.wikidata.org/entity/Q1134258', 'http://www.wikidata.org/entity/Q113494597', 'http://www.wikidata.org/entity/Q113549293', 'http://www.wikidata.org/entity/Q113566316', 'http://www.wikidata.org/entity/Q113569', 'http://www.wikidata.org/entity/Q113576', 'http://www.wikidata.org/entity/Q113649755', 'http://www.wikidata.org/entity/Q113661680', 'http://www.wikidata.org/entity/Q113674416', 'http://www.wikidata.org/entity/Q11379850', 'http://www.wikidata.org/entity/Q1138128', 'http://www.wikidata.org/entity/Q1138514', 'http://www.wikidata.org/entity/Q1138783', 'http://www.wikidata.org/entity/Q11401248', 'http://www.wikidata.org/entity/Q114032183', 'http://www.wikidata.org/entity/Q114045156', 'http://www.wikidata.org/entity/Q1141637', 'http://www.wikidata.org/entity/Q1142331', 'http://www.wikidata.org/entity/Q114349752', 'http://www.wikidata.org/entity/Q114566945', 'http://www.wikidata.org/entity/Q114667692', 'http://www.wikidata.org/entity/Q1147376', 'http://www.wikidata.org/entity/Q114857113', 'http://www.wikidata.org/entity/Q114863064', 'http://www.wikidata.org/entity/Q11500583', 'http://www.wikidata.org/entity/Q1150317', 'http://www.wikidata.org/entity/Q115102703', 'http://www.wikidata.org/entity/Q1151037', 'http://www.wikidata.org/entity/Q115119808', 'http://www.wikidata.org/entity/Q115154999', 'http://www.wikidata.org/entity/Q115161001', 'http://www.wikidata.org/entity/Q115161434', 'http://www.wikidata.org/entity/Q1152506', 'http://www.wikidata.org/entity/Q115475940', 'http://www.wikidata.org/entity/Q115581265', 'http://www.wikidata.org/entity/Q115629', 'http://www.wikidata.org/entity/Q115634', 'http://www.wikidata.org/entity/Q115722', 'http://www.wikidata.org/entity/Q1159084', 'http://www.wikidata.org/entity/Q115915', 'http://www.wikidata.org/entity/Q1160342', 'http://www.wikidata.org/entity/Q116037', 'http://www.wikidata.org/entity/Q116176311', 'http://www.wikidata.org/entity/Q116176433', 'http://www.wikidata.org/entity/Q116185196', 'http://www.wikidata.org/entity/Q116186160', 'http://www.wikidata.org/entity/Q116189529', 'http://www.wikidata.org/entity/Q116195972', 'http://www.wikidata.org/entity/Q116198', 'http://www.wikidata.org/entity/Q116198940', 'http://www.wikidata.org/entity/Q116254', 'http://www.wikidata.org/entity/Q116257813', 'http://www.wikidata.org/entity/Q116431030', 'http://www.wikidata.org/entity/Q1164595', 'http://www.wikidata.org/entity/Q116551', 'http://www.wikidata.org/entity/Q1165980', 'http://www.wikidata.org/entity/Q1166617', 'http://www.wikidata.org/entity/Q116699', 'http://www.wikidata.org/entity/Q116783152', 'http://www.wikidata.org/entity/Q11685267', 'http://www.wikidata.org/entity/Q11693116', 'http://www.wikidata.org/entity/Q11699292', 'http://www.wikidata.org/entity/Q11699400', 'http://www.wikidata.org/entity/Q11702775', 'http://www.wikidata.org/entity/Q117037725', 'http://www.wikidata.org/entity/Q117038081', 'http://www.wikidata.org/entity/Q1170394', 'http://www.wikidata.org/entity/Q11716504', 'http://www.wikidata.org/entity/Q11720871', 'http://www.wikidata.org/entity/Q11721059', 'http://www.wikidata.org/entity/Q117220242', 'http://www.wikidata.org/entity/Q11722423', 'http://www.wikidata.org/entity/Q11722534', 'http://www.wikidata.org/entity/Q11724895', 'http://www.wikidata.org/entity/Q11727964', 'http://www.wikidata.org/entity/Q1173006', 'http://www.wikidata.org/entity/Q117348117', 'http://www.wikidata.org/entity/Q117350394', 'http://www.wikidata.org/entity/Q117360100', 'http://www.wikidata.org/entity/Q11739472', 'http://www.wikidata.org/entity/Q11743625', 'http://www.wikidata.org/entity/Q11748193', 'http://www.wikidata.org/entity/Q11748226', 'http://www.wikidata.org/entity/Q11749180', 'http://www.wikidata.org/entity/Q11749793', 'http://www.wikidata.org/entity/Q11753337', 'http://www.wikidata.org/entity/Q11754931', 'http://www.wikidata.org/entity/Q11754983', 'http://www.wikidata.org/entity/Q11765656', 'http://www.wikidata.org/entity/Q11767971', 'http://www.wikidata.org/entity/Q11768324', 'http://www.wikidata.org/entity/Q11768382', 'http://www.wikidata.org/entity/Q11768625', 'http://www.wikidata.org/entity/Q11770209', 'http://www.wikidata.org/entity/Q11770367', 'http://www.wikidata.org/entity/Q11771408', 'http://www.wikidata.org/entity/Q11778743', 'http://www.wikidata.org/entity/Q11778794', 'http://www.wikidata.org/entity/Q11779346', 'http://www.wikidata.org/entity/Q11781314', 'http://www.wikidata.org/entity/Q11781980', 'http://www.wikidata.org/entity/Q1178241', 'http://www.wikidata.org/entity/Q11790090', 'http://www.wikidata.org/entity/Q11791016', 'http://www.wikidata.org/entity/Q1179612', 'http://www.wikidata.org/entity/Q11798199', 'http://www.wikidata.org/entity/Q118067', 'http://www.wikidata.org/entity/Q11813536', 'http://www.wikidata.org/entity/Q11813953', 'http://www.wikidata.org/entity/Q11813969', 'http://www.wikidata.org/entity/Q11814182', 'http://www.wikidata.org/entity/Q11814272', 'http://www.wikidata.org/entity/Q11814493', 'http://www.wikidata.org/entity/Q11817884', 'http://www.wikidata.org/entity/Q11818115', 'http://www.wikidata.org/entity/Q11818159', 'http://www.wikidata.org/entity/Q118235978', 'http://www.wikidata.org/entity/Q11833807', 'http://www.wikidata.org/entity/Q11835010', 'http://www.wikidata.org/entity/Q11857841', 'http://www.wikidata.org/entity/Q118842860', 'http://www.wikidata.org/entity/Q1188603', 'http://www.wikidata.org/entity/Q11891970', 'http://www.wikidata.org/entity/Q11892200', 'http://www.wikidata.org/entity/Q1189243', 'http://www.wikidata.org/entity/Q118929123', 'http://www.wikidata.org/entity/Q1189516', 'http://www.wikidata.org/entity/Q119478026', 'http://www.wikidata.org/entity/Q1195813', 'http://www.wikidata.org/entity/Q1200325', 'http://www.wikidata.org/entity/Q1200330', 'http://www.wikidata.org/entity/Q1200332', 'http://www.wikidata.org/entity/Q120098', 'http://www.wikidata.org/entity/Q12023140', 'http://www.wikidata.org/entity/Q12058834', 'http://www.wikidata.org/entity/Q1206898', 'http://www.wikidata.org/entity/Q120758808', 'http://www.wikidata.org/entity/Q121345616', 'http://www.wikidata.org/entity/Q121509892', 'http://www.wikidata.org/entity/Q121647', 'http://www.wikidata.org/entity/Q121819110', 'http://www.wikidata.org/entity/Q1225976', 'http://www.wikidata.org/entity/Q1226046', 'http://www.wikidata.org/entity/Q122618263', 'http://www.wikidata.org/entity/Q12269620', 'http://www.wikidata.org/entity/Q1227980', 'http://www.wikidata.org/entity/Q122906791', 'http://www.wikidata.org/entity/Q122917377', 'http://www.wikidata.org/entity/Q122920596', 'http://www.wikidata.org/entity/Q122943752', 'http://www.wikidata.org/entity/Q122952', 'http://www.wikidata.org/entity/Q123040', 'http://www.wikidata.org/entity/Q123146620', 'http://www.wikidata.org/entity/Q123248759', 'http://www.wikidata.org/entity/Q123248763', 'http://www.wikidata.org/entity/Q123248782', 'http://www.wikidata.org/entity/Q123248783', 'http://www.wikidata.org/entity/Q123258476', 'http://www.wikidata.org/entity/Q123258478', 'http://www.wikidata.org/entity/Q123259128', 'http://www.wikidata.org/entity/Q123335401', 'http://www.wikidata.org/entity/Q123379966', 'http://www.wikidata.org/entity/Q12360491', 'http://www.wikidata.org/entity/Q123684928', 'http://www.wikidata.org/entity/Q123741611', 'http://www.wikidata.org/entity/Q1238103', 'http://www.wikidata.org/entity/Q12387305', 'http://www.wikidata.org/entity/Q124048598', 'http://www.wikidata.org/entity/Q124131733', 'http://www.wikidata.org/entity/Q1242197', 'http://www.wikidata.org/entity/Q124328139', 'http://www.wikidata.org/entity/Q124540519', 'http://www.wikidata.org/entity/Q124620825', 'http://www.wikidata.org/entity/Q124637208', 'http://www.wikidata.org/entity/Q124694773', 'http://www.wikidata.org/entity/Q124694878', 'http://www.wikidata.org/entity/Q125017196', 'http://www.wikidata.org/entity/Q125080586', 'http://www.wikidata.org/entity/Q1254600', 'http://www.wikidata.org/entity/Q125563664', 'http://www.wikidata.org/entity/Q125563895', 'http://www.wikidata.org/entity/Q125563998', 'http://www.wikidata.org/entity/Q125569524', 'http://www.wikidata.org/entity/Q126114396', 'http://www.wikidata.org/entity/Q12633139', 'http://www.wikidata.org/entity/Q12633230', 'http://www.wikidata.org/entity/Q12641301', 'http://www.wikidata.org/entity/Q12643733', 'http://www.wikidata.org/entity/Q1264436', 'http://www.wikidata.org/entity/Q126487461', 'http://www.wikidata.org/entity/Q126487462', 'http://www.wikidata.org/entity/Q12649488', 'http://www.wikidata.org/entity/Q12659740', 'http://www.wikidata.org/entity/Q1267570', 'http://www.wikidata.org/entity/Q1267622', 'http://www.wikidata.org/entity/Q126923070', 'http://www.wikidata.org/entity/Q126947594', 'http://www.wikidata.org/entity/Q1270684', 'http://www.wikidata.org/entity/Q1273047', 'http://www.wikidata.org/entity/Q12749074', 'http://www.wikidata.org/entity/Q127561', 'http://www.wikidata.org/entity/Q12756207', 'http://www.wikidata.org/entity/Q1277708', 'http://www.wikidata.org/entity/Q1279010', 'http://www.wikidata.org/entity/Q127925147', 'http://www.wikidata.org/entity/Q1279973', 'http://www.wikidata.org/entity/Q128188', 'http://www.wikidata.org/entity/Q1282320', 'http://www.wikidata.org/entity/Q1282809', 'http://www.wikidata.org/entity/Q128530', 'http://www.wikidata.org/entity/Q12858621', 'http://www.wikidata.org/entity/Q1286476', 'http://www.wikidata.org/entity/Q12875341', 'http://www.wikidata.org/entity/Q12880385', 'http://www.wikidata.org/entity/Q1289729', 'http://www.wikidata.org/entity/Q129041', 'http://www.wikidata.org/entity/Q12911186', 'http://www.wikidata.org/entity/Q1291124', 'http://www.wikidata.org/entity/Q1292529', 'http://www.wikidata.org/entity/Q1293573', 'http://www.wikidata.org/entity/Q1296648', 'http://www.wikidata.org/entity/Q12981769', 'http://www.wikidata.org/entity/Q130215388', 'http://www.wikidata.org/entity/Q130221109', 'http://www.wikidata.org/entity/Q130240633', 'http://www.wikidata.org/entity/Q130242077', 'http://www.wikidata.org/entity/Q130298106', 'http://www.wikidata.org/entity/Q1314733', 'http://www.wikidata.org/entity/Q131942', 'http://www.wikidata.org/entity/Q132208', 'http://www.wikidata.org/entity/Q1327649', 'http://www.wikidata.org/entity/Q1328504', 'http://www.wikidata.org/entity/Q1332856', 'http://www.wikidata.org/entity/Q1334238', 'http://www.wikidata.org/entity/Q1336737', 'http://www.wikidata.org/entity/Q1338315', 'http://www.wikidata.org/entity/Q1339658', 'http://www.wikidata.org/entity/Q13410394', 'http://www.wikidata.org/entity/Q13416839', 'http://www.wikidata.org/entity/Q134183', 'http://www.wikidata.org/entity/Q1343292', 'http://www.wikidata.org/entity/Q13464007', 'http://www.wikidata.org/entity/Q135109', 'http://www.wikidata.org/entity/Q13512907', 'http://www.wikidata.org/entity/Q13515766', 'http://www.wikidata.org/entity/Q135167', 'http://www.wikidata.org/entity/Q1351678', 'http://www.wikidata.org/entity/Q1353620', 'http://www.wikidata.org/entity/Q1355070', 'http://www.wikidata.org/entity/Q13561021', 'http://www.wikidata.org/entity/Q13563911', 'http://www.wikidata.org/entity/Q1356519', 'http://www.wikidata.org/entity/Q13582445', 'http://www.wikidata.org/entity/Q1358452', 'http://www.wikidata.org/entity/Q1359588', 'http://www.wikidata.org/entity/Q13605907', 'http://www.wikidata.org/entity/Q13605931', 'http://www.wikidata.org/entity/Q13605936', 'http://www.wikidata.org/entity/Q13605944', 'http://www.wikidata.org/entity/Q13605975', 'http://www.wikidata.org/entity/Q13605982', 'http://www.wikidata.org/entity/Q13606007', 'http://www.wikidata.org/entity/Q1361081', 'http://www.wikidata.org/entity/Q1362580', 'http://www.wikidata.org/entity/Q1362664', 'http://www.wikidata.org/entity/Q1362904', 'http://www.wikidata.org/entity/Q1363177', 'http://www.wikidata.org/entity/Q1363787', 'http://www.wikidata.org/entity/Q1363884', 'http://www.wikidata.org/entity/Q1363974', 'http://www.wikidata.org/entity/Q1364009', 'http://www.wikidata.org/entity/Q1364223', 'http://www.wikidata.org/entity/Q1365630', 'http://www.wikidata.org/entity/Q1365645', 'http://www.wikidata.org/entity/Q1366501', 'http://www.wikidata.org/entity/Q1370831', 'http://www.wikidata.org/entity/Q13708767', 'http://www.wikidata.org/entity/Q13709114', 'http://www.wikidata.org/entity/Q1370925', 'http://www.wikidata.org/entity/Q1371485', 'http://www.wikidata.org/entity/Q1373712', 'http://www.wikidata.org/entity/Q137450', 'http://www.wikidata.org/entity/Q1375461', 'http://www.wikidata.org/entity/Q1375950', 'http://www.wikidata.org/entity/Q1377443', 'http://www.wikidata.org/entity/Q1380489', 'http://www.wikidata.org/entity/Q1380719', 'http://www.wikidata.org/entity/Q1381445', 'http://www.wikidata.org/entity/Q1381732', 'http://www.wikidata.org/entity/Q13860876', 'http://www.wikidata.org/entity/Q13876407', 'http://www.wikidata.org/entity/Q1387820', 'http://www.wikidata.org/entity/Q13899976', 'http://www.wikidata.org/entity/Q1390262', 'http://www.wikidata.org/entity/Q1392517', 'http://www.wikidata.org/entity/Q13930506', 'http://www.wikidata.org/entity/Q13930814', 'http://www.wikidata.org/entity/Q1393378', 'http://www.wikidata.org/entity/Q1393433', 'http://www.wikidata.org/entity/Q139376', 'http://www.wikidata.org/entity/Q1398536', 'http://www.wikidata.org/entity/Q1401783', 'http://www.wikidata.org/entity/Q1406261', 'http://www.wikidata.org/entity/Q14073727', 'http://www.wikidata.org/entity/Q1407902', 'http://www.wikidata.org/entity/Q1408291', 'http://www.wikidata.org/entity/Q14088570', 'http://www.wikidata.org/entity/Q1413920', 'http://www.wikidata.org/entity/Q14163514', 'http://www.wikidata.org/entity/Q14172158', 'http://www.wikidata.org/entity/Q14172238', 'http://www.wikidata.org/entity/Q1421720', 'http://www.wikidata.org/entity/Q142214', 'http://www.wikidata.org/entity/Q1422575', 'http://www.wikidata.org/entity/Q1424128', 'http://www.wikidata.org/entity/Q1424134', 'http://www.wikidata.org/entity/Q1424165', 'http://www.wikidata.org/entity/Q1424414', 'http://www.wikidata.org/entity/Q1424455', 'http://www.wikidata.org/entity/Q1424462', 'http://www.wikidata.org/entity/Q1424475', 'http://www.wikidata.org/entity/Q1424495', 'http://www.wikidata.org/entity/Q1424502', 'http://www.wikidata.org/entity/Q1429702', 'http://www.wikidata.org/entity/Q14320215', 'http://www.wikidata.org/entity/Q14324145', 'http://www.wikidata.org/entity/Q14324284', 'http://www.wikidata.org/entity/Q14324339', 'http://www.wikidata.org/entity/Q14324358', 'http://www.wikidata.org/entity/Q14324364', 'http://www.wikidata.org/entity/Q14325764', 'http://www.wikidata.org/entity/Q14325768', 'http://www.wikidata.org/entity/Q1432596', 'http://www.wikidata.org/entity/Q14326804', 'http://www.wikidata.org/entity/Q14327036', 'http://www.wikidata.org/entity/Q14327270', 'http://www.wikidata.org/entity/Q14327391', 'http://www.wikidata.org/entity/Q14327750', 'http://www.wikidata.org/entity/Q14329123', 'http://www.wikidata.org/entity/Q14329138', 'http://www.wikidata.org/entity/Q14329365', 'http://www.wikidata.org/entity/Q14329497', 'http://www.wikidata.org/entity/Q14329695', 'http://www.wikidata.org/entity/Q14330245', 'http://www.wikidata.org/entity/Q14330465', 'http://www.wikidata.org/entity/Q14330469', 'http://www.wikidata.org/entity/Q1435883', 'http://www.wikidata.org/entity/Q1438347', 'http://www.wikidata.org/entity/Q1438348', 'http://www.wikidata.org/entity/Q1439529', 'http://www.wikidata.org/entity/Q1439541', 'http://www.wikidata.org/entity/Q14399923', 'http://www.wikidata.org/entity/Q1440606', 'http://www.wikidata.org/entity/Q1441343', 'http://www.wikidata.org/entity/Q1441397', 'http://www.wikidata.org/entity/Q1441492', 'http://www.wikidata.org/entity/Q1441499', 'http://www.wikidata.org/entity/Q1442053', 'http://www.wikidata.org/entity/Q1442329', 'http://www.wikidata.org/entity/Q14425572', 'http://www.wikidata.org/entity/Q14427097', 'http://www.wikidata.org/entity/Q14432081', 'http://www.wikidata.org/entity/Q1444910', 'http://www.wikidata.org/entity/Q1444934', 'http://www.wikidata.org/entity/Q1445196', 'http://www.wikidata.org/entity/Q1445455', 'http://www.wikidata.org/entity/Q1445762', 'http://www.wikidata.org/entity/Q1445827', 'http://www.wikidata.org/entity/Q144703', 'http://www.wikidata.org/entity/Q1449836', 'http://www.wikidata.org/entity/Q1449882', 'http://www.wikidata.org/entity/Q1452892', 'http://www.wikidata.org/entity/Q1453383', 'http://www.wikidata.org/entity/Q1454479', 'http://www.wikidata.org/entity/Q1455079', 'http://www.wikidata.org/entity/Q1458225', 'http://www.wikidata.org/entity/Q1458255', 'http://www.wikidata.org/entity/Q1458276', 'http://www.wikidata.org/entity/Q1458282', 'http://www.wikidata.org/entity/Q1458307', 'http://www.wikidata.org/entity/Q1458320', 'http://www.wikidata.org/entity/Q1458331', 'http://www.wikidata.org/entity/Q1458344', 'http://www.wikidata.org/entity/Q1458359', 'http://www.wikidata.org/entity/Q145840</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q100151816', 'http://www.wikidata.org/entity/Q101490959', 'http://www.wikidata.org/entity/Q101492327', 'http://www.wikidata.org/entity/Q1042258', 'http://www.wikidata.org/entity/Q10474461', 'http://www.wikidata.org/entity/Q10509157', 'http://www.wikidata.org/entity/Q105118495', 'http://www.wikidata.org/entity/Q10558160', 'http://www.wikidata.org/entity/Q106228741', 'http://www.wikidata.org/entity/Q1065590', 'http://www.wikidata.org/entity/Q107128661', 'http://www.wikidata.org/entity/Q1096922', 'http://www.wikidata.org/entity/Q1173914', 'http://www.wikidata.org/entity/Q124285622', 'http://www.wikidata.org/entity/Q125118333', 'http://www.wikidata.org/entity/Q125397277', 'http://www.wikidata.org/entity/Q129674231', 'http://www.wikidata.org/entity/Q1356211', 'http://www.wikidata.org/entity/Q1371542', 'http://www.wikidata.org/entity/Q1453597', 'http://www.wikidata.org/entity/Q1507832', 'http://www.wikidata.org/entity/Q15966855', 'http://www.wikidata.org/entity/Q16146513', 'http://www.wikidata.org/entity/Q16163013', 'http://www.wikidata.org/entity/Q16214810', 'http://www.wikidata.org/entity/Q1648234', 'http://www.wikidata.org/entity/Q1655475', 'http://www.wikidata.org/entity/Q16598377', 'http://www.wikidata.org/entity/Q1685756', 'http://www.wikidata.org/entity/Q1686437', 'http://www.wikidata.org/entity/Q16944482', 'http://www.wikidata.org/entity/Q16977455', 'http://www.wikidata.org/entity/Q16977456', 'http://www.wikidata.org/entity/Q16977477', 'http://www.wikidata.org/entity/Q16977559', 'http://www.wikidata.org/entity/Q1699362', 'http://www.wikidata.org/entity/Q1703195', 'http://www.wikidata.org/entity/Q17057003', 'http://www.wikidata.org/entity/Q17144475', 'http://www.wikidata.org/entity/Q17279925', 'http://www.wikidata.org/entity/Q17280065', 'http://www.wikidata.org/entity/Q17280963', 'http://www.wikidata.org/entity/Q17284905', 'http://www.wikidata.org/entity/Q17284928', 'http://www.wikidata.org/entity/Q17298627', 'http://www.wikidata.org/entity/Q17303639', 'http://www.wikidata.org/entity/Q17306893', 'http://www.wikidata.org/entity/Q17327586', 'http://www.wikidata.org/entity/Q17327760', 'http://www.wikidata.org/entity/Q17352178', 'http://www.wikidata.org/entity/Q17352188', 'http://www.wikidata.org/entity/Q1740253', 'http://www.wikidata.org/entity/Q179952', 'http://www.wikidata.org/entity/Q18412697', 'http://www.wikidata.org/entity/Q18515962', 'http://www.wikidata.org/entity/Q18589449', 'http://www.wikidata.org/entity/Q18620693', 'http://www.wikidata.org/entity/Q18811153', 'http://www.wikidata.org/entity/Q1907692', 'http://www.wikidata.org/entity/Q1927207', 'http://www.wikidata.org/entity/Q1927514', 'http://www.wikidata.org/entity/Q19560231', 'http://www.wikidata.org/entity/Q19643722', 'http://www.wikidata.org/entity/Q19643731', 'http://www.wikidata.org/entity/Q19643733', 'http://www.wikidata.org/entity/Q19872307', 'http://www.wikidata.org/entity/Q19956337', 'http://www.wikidata.org/entity/Q19956650', 'http://www.wikidata.org/entity/Q19956753', 'http://www.wikidata.org/entity/Q2018463', 'http://www.wikidata.org/entity/Q20641558', 'http://www.wikidata.org/entity/Q20641651', 'http://www.wikidata.org/entity/Q20986521', 'http://www.wikidata.org/entity/Q2134271', 'http://www.wikidata.org/entity/Q2146518', 'http://www.wikidata.org/entity/Q2161068', 'http://www.wikidata.org/entity/Q2178030', 'http://www.wikidata.org/entity/Q2178054', 'http://www.wikidata.org/entity/Q2277399', 'http://www.wikidata.org/entity/Q2336395', 'http://www.wikidata.org/entity/Q2350107', 'http://www.wikidata.org/entity/Q24266711', 'http://www.wikidata.org/entity/Q24450398', 'http://www.wikidata.org/entity/Q2600084', 'http://www.wikidata.org/entity/Q2601973', 'http://www.wikidata.org/entity/Q2641446', 'http://www.wikidata.org/entity/Q28145338', 'http://www.wikidata.org/entity/Q28145349', 'http://www.wikidata.org/entity/Q28145357', 'http://www.wikidata.org/entity/Q29077561', 'http://www.wikidata.org/entity/Q29161403', 'http://www.wikidata.org/entity/Q302914', 'http://www.wikidata.org/entity/Q304222', 'http://www.wikidata.org/entity/Q30532844', 'http://www.wikidata.org/entity/Q3438358', 'http://www.wikidata.org/entity/Q3640619', 'http://www.wikidata.org/entity/Q372749', 'http://www.wikidata.org/entity/Q373986', 'http://www.wikidata.org/entity/Q3788418', 'http://www.wikidata.org/entity/Q3805894', 'http://www.wikidata.org/entity/Q3808641', 'http://www.wikidata.org/entity/Q3903429', 'http://www.wikidata.org/entity/Q393288', 'http://www.wikidata.org/entity/Q3984246', 'http://www.wikidata.org/entity/Q4168933', 'http://www.wikidata.org/entity/Q4281245', 'http://www.wikidata.org/entity/Q4320324', 'http://www.wikidata.org/entity/Q43252374', 'http://www.wikidata.org/entity/Q444083', 'http://www.wikidata.org/entity/Q446027', 'http://www.wikidata.org/entity/Q446040', 'http://www.wikidata.org/entity/Q446060', 'http://www.wikidata.org/entity/Q4576036', 'http://www.wikidata.org/entity/Q47501255', 'http://www.wikidata.org/entity/Q4775558', 'http://www.wikidata.org/entity/Q4831692', 'http://www.wikidata.org/entity/Q4965405', 'http://www.wikidata.org/entity/Q504142', 'http://www.wikidata.org/entity/Q5075274', 'http://www.wikidata.org/entity/Q5080928', 'http://www.wikidata.org/entity/Q5082378', 'http://www.wikidata.org/entity/Q51090087', 'http://www.wikidata.org/entity/Q51090088', 'http://www.wikidata.org/entity/Q5171387', 'http://www.wikidata.org/entity/Q5218912', 'http://www.wikidata.org/entity/Q522722', 'http://www.wikidata.org/entity/Q5257150', 'http://www.wikidata.org/entity/Q5258750', 'http://www.wikidata.org/entity/Q5318734', 'http://www.wikidata.org/entity/Q5341660', 'http://www.wikidata.org/entity/Q5342530', 'http://www.wikidata.org/entity/Q5369048', 'http://www.wikidata.org/entity/Q5387450', 'http://www.wikidata.org/entity/Q54667230', 'http://www.wikidata.org/entity/Q55183403', 'http://www.wikidata.org/entity/Q5522971', 'http://www.wikidata.org/entity/Q55956335', 'http://www.wikidata.org/entity/Q56600130', 'http://www.wikidata.org/entity/Q5718354', 'http://www.wikidata.org/entity/Q57262270', 'http://www.wikidata.org/entity/Q587134', 'http://www.wikidata.org/entity/Q5981460', 'http://www.wikidata.org/entity/Q5982979', 'http://www.wikidata.org/entity/Q617595', 'http://www.wikidata.org/entity/Q61787980', 'http://www.wikidata.org/entity/Q6185765', 'http://www.wikidata.org/entity/Q6185783', 'http://www.wikidata.org/entity/Q6199667', 'http://www.wikidata.org/entity/Q6209096', 'http://www.wikidata.org/entity/Q6228011', 'http://www.wikidata.org/entity/Q62512800', 'http://www.wikidata.org/entity/Q6273795', 'http://www.wikidata.org/entity/Q6280016', 'http://www.wikidata.org/entity/Q6284402', 'http://www.wikidata.org/entity/Q633332', 'http://www.wikidata.org/entity/Q6437934', 'http://www.wikidata.org/entity/Q6554673', 'http://www.wikidata.org/entity/Q6668992', 'http://www.wikidata.org/entity/Q66827884', 'http://www.wikidata.org/entity/Q66841118', 'http://www.wikidata.org/entity/Q66938881', 'http://www.wikidata.org/entity/Q66939442', 'http://www.wikidata.org/entity/Q6764669', 'http://www.wikidata.org/entity/Q6775566', 'http://www.wikidata.org/entity/Q6776550', 'http://www.wikidata.org/entity/Q680512', 'http://www.wikidata.org/entity/Q6932071', 'http://www.wikidata.org/entity/Q7087842', 'http://www.wikidata.org/entity/Q71035154', 'http://www.wikidata.org/entity/Q718040', 'http://www.wikidata.org/entity/Q7197493', 'http://www.wikidata.org/entity/Q7279212', 'http://www.wikidata.org/entity/Q7297466', 'http://www.wikidata.org/entity/Q7308644', 'http://www.wikidata.org/entity/Q736771', 'http://www.wikidata.org/entity/Q7406948', 'http://www.wikidata.org/entity/Q7428345', 'http://www.wikidata.org/entity/Q7441461', 'http://www.wikidata.org/entity/Q745555', 'http://www.wikidata.org/entity/Q7463162', 'http://www.wikidata.org/entity/Q7463312', 'http://www.wikidata.org/entity/Q7463323', 'http://www.wikidata.org/entity/Q75135779', 'http://www.wikidata.org/entity/Q7519908', 'http://www.wikidata.org/entity/Q75635489', 'http://www.wikidata.org/entity/Q7608617', 'http://www.wikidata.org/entity/Q7611949', 'http://www.wikidata.org/entity/Q762057', 'http://www.wikidata.org/entity/Q768060', 'http://www.wikidata.org/entity/Q785842', 'http://www.wikidata.org/entity/Q7931678', 'http://www.wikidata.org/entity/Q79981875', 'http://www.wikidata.org/entity/Q8739830', 'http://www.wikidata.org/entity/Q8742822', 'http://www.wikidata.org/entity/Q8854881', 'http://www.wikidata.org/entity/Q887449', 'http://www.wikidata.org/entity/Q913048', 'http://www.wikidata.org/entity/Q92303735', 'http://www.wikidata.org/entity/Q93318463', 'http://www.wikidata.org/entity/Q93318464', 'http://www.wikidata.org/entity/Q93318466', 'http://www.wikidata.org/entity/Q94606737', 'http://www.wikidata.org/entity/Q949755', 'http://www.wikidata.org/entity/Q951577', 'http://www.wikidata.org/entity/Q952394', 'http://www.wikidata.org/entity/Q968613', 'http://www.wikidata.org/entity/Q983145', 'http://www.wikidata.org/entity/Q983148', 'http://www.wikidata.org/entity/Q98785910', 'http://www.wikidata.org/entity/Q98852975', 'http://www.wikidata.org/entity/Q98930910', 'http://www.wikidata.org/entity/Q98930945']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q3808']</t>
-  </si>
-  <si>
     <t>['1811']</t>
   </si>
   <si>
     <t>['http://www.wikidata.org/entity/Q1009884', 'http://www.wikidata.org/entity/Q10335385', 'http://www.wikidata.org/entity/Q10340525', 'http://www.wikidata.org/entity/Q103929698', 'http://www.wikidata.org/entity/Q104865', 'http://www.wikidata.org/entity/Q109490108', 'http://www.wikidata.org/entity/Q109490152', 'http://www.wikidata.org/entity/Q109490367', 'http://www.wikidata.org/entity/Q109490394', 'http://www.wikidata.org/entity/Q109491455', 'http://www.wikidata.org/entity/Q109491621', 'http://www.wikidata.org/entity/Q109491693', 'http://www.wikidata.org/entity/Q109493060', 'http://www.wikidata.org/entity/Q109493064', 'http://www.wikidata.org/entity/Q1100407', 'http://www.wikidata.org/entity/Q1100745', 'http://www.wikidata.org/entity/Q11685717', 'http://www.wikidata.org/entity/Q118114238', 'http://www.wikidata.org/entity/Q118490', 'http://www.wikidata.org/entity/Q12040315', 'http://www.wikidata.org/entity/Q121567180', 'http://www.wikidata.org/entity/Q1243689', 'http://www.wikidata.org/entity/Q13519676', 'http://www.wikidata.org/entity/Q13889299', 'http://www.wikidata.org/entity/Q1406012', 'http://www.wikidata.org/entity/Q152298', 'http://www.wikidata.org/entity/Q152318', 'http://www.wikidata.org/entity/Q154269', 'http://www.wikidata.org/entity/Q157931', 'http://www.wikidata.org/entity/Q159681', 'http://www.wikidata.org/entity/Q16153519', 'http://www.wikidata.org/entity/Q16522978', 'http://www.wikidata.org/entity/Q17426654', 'http://www.wikidata.org/entity/Q17426873', 'http://www.wikidata.org/entity/Q17427763', 'http://www.wikidata.org/entity/Q17593757', 'http://www.wikidata.org/entity/Q18236847', 'http://www.wikidata.org/entity/Q18352451', 'http://www.wikidata.org/entity/Q19366412', 'http://www.wikidata.org/entity/Q202933', 'http://www.wikidata.org/entity/Q203026', 'http://www.wikidata.org/entity/Q21106378', 'http://www.wikidata.org/entity/Q21154027', 'http://www.wikidata.org/entity/Q21481122', 'http://www.wikidata.org/entity/Q21856852', 'http://www.wikidata.org/entity/Q221615', 'http://www.wikidata.org/entity/Q2474284', 'http://www.wikidata.org/entity/Q252726', 'http://www.wikidata.org/entity/Q255764', 'http://www.wikidata.org/entity/Q261731', 'http://www.wikidata.org/entity/Q26255563', 'http://www.wikidata.org/entity/Q2655329', 'http://www.wikidata.org/entity/Q266359', 'http://www.wikidata.org/entity/Q26776784', 'http://www.wikidata.org/entity/Q26837347', 'http://www.wikidata.org/entity/Q280301', 'http://www.wikidata.org/entity/Q281604', 'http://www.wikidata.org/entity/Q28195006', 'http://www.wikidata.org/entity/Q283544', 'http://www.wikidata.org/entity/Q312474', 'http://www.wikidata.org/entity/Q313399', 'http://www.wikidata.org/entity/Q313815', 'http://www.wikidata.org/entity/Q314921', 'http://www.wikidata.org/entity/Q317792', 'http://www.wikidata.org/entity/Q320068', 'http://www.wikidata.org/entity/Q3329196', 'http://www.wikidata.org/entity/Q342338', 'http://www.wikidata.org/entity/Q342953', 'http://www.wikidata.org/entity/Q345288', 'http://www.wikidata.org/entity/Q345658', 'http://www.wikidata.org/entity/Q347977', 'http://www.wikidata.org/entity/Q348205', 'http://www.wikidata.org/entity/Q3492123', 'http://www.wikidata.org/entity/Q3501233', 'http://www.wikidata.org/entity/Q352137', 'http://www.wikidata.org/entity/Q3553627', 'http://www.wikidata.org/entity/Q355433', 'http://www.wikidata.org/entity/Q358525', 'http://www.wikidata.org/entity/Q360038', 'http://www.wikidata.org/entity/Q360060', 'http://www.wikidata.org/entity/Q362180', 'http://www.wikidata.org/entity/Q362819', 'http://www.wikidata.org/entity/Q362998', 'http://www.wikidata.org/entity/Q364451', 'http://www.wikidata.org/entity/Q365317', 'http://www.wikidata.org/entity/Q375659', 'http://www.wikidata.org/entity/Q376688', 'http://www.wikidata.org/entity/Q381541', 'http://www.wikidata.org/entity/Q382150', 'http://www.wikidata.org/entity/Q382184', 'http://www.wikidata.org/entity/Q4098485', 'http://www.wikidata.org/entity/Q4131995', 'http://www.wikidata.org/entity/Q4181402', 'http://www.wikidata.org/entity/Q4196202', 'http://www.wikidata.org/entity/Q431006', 'http://www.wikidata.org/entity/Q432752', 'http://www.wikidata.org/entity/Q433046', 'http://www.wikidata.org/entity/Q434409', 'http://www.wikidata.org/entity/Q434546', 'http://www.wikidata.org/entity/Q434555', 'http://www.wikidata.org/entity/Q440178', 'http://www.wikidata.org/entity/Q44371', 'http://www.wikidata.org/entity/Q446233', 'http://www.wikidata.org/entity/Q446531', 'http://www.wikidata.org/entity/Q446720', 'http://www.wikidata.org/entity/Q447311', 'http://www.wikidata.org/entity/Q448491', 'http://www.wikidata.org/entity/Q448538', 'http://www.wikidata.org/entity/Q448872', 'http://www.wikidata.org/entity/Q449577', 'http://www.wikidata.org/entity/Q450834', 'http://www.wikidata.org/entity/Q451259', 'http://www.wikidata.org/entity/Q453764', 'http://www.wikidata.org/entity/Q455669', 'http://www.wikidata.org/entity/Q457064', 'http://www.wikidata.org/entity/Q461807', 'http://www.wikidata.org/entity/Q465461', 'http://www.wikidata.org/entity/Q465724', 'http://www.wikidata.org/entity/Q465748', 'http://www.wikidata.org/entity/Q466069', 'http://www.wikidata.org/entity/Q466075', 'http://www.wikidata.org/entity/Q466483', 'http://www.wikidata.org/entity/Q466513', 'http://www.wikidata.org/entity/Q467623', 'http://www.wikidata.org/entity/Q467732', 'http://www.wikidata.org/entity/Q468250', 'http://www.wikidata.org/entity/Q468258', 'http://www.wikidata.org/entity/Q470256', 'http://www.wikidata.org/entity/Q471486', 'http://www.wikidata.org/entity/Q4715991', 'http://www.wikidata.org/entity/Q472491', 'http://www.wikidata.org/entity/Q472497', 'http://www.wikidata.org/entity/Q487622', 'http://www.wikidata.org/entity/Q487984', 'http://www.wikidata.org/entity/Q488008', 'http://www.wikidata.org/entity/Q488043', 'http://www.wikidata.org/entity/Q4994273', 'http://www.wikidata.org/entity/Q502101', 'http://www.wikidata.org/entity/Q50379072', 'http://www.wikidata.org/entity/Q50379654', 'http://www.wikidata.org/entity/Q50379760', 'http://www.wikidata.org/entity/Q50379793', 'http://www.wikidata.org/entity/Q520334', 'http://www.wikidata.org/entity/Q520760', 'http://www.wikidata.org/entity/Q535157', 'http://www.wikidata.org/entity/Q535172', 'http://www.wikidata.org/entity/Q535234', 'http://www.wikidata.org/entity/Q535280', 'http://www.wikidata.org/entity/Q535831', 'http://www.wikidata.org/entity/Q538639', 'http://www.wikidata.org/entity/Q539358', 'http://www.wikidata.org/entity/Q555679', 'http://www.wikidata.org/entity/Q560360', 'http://www.wikidata.org/entity/Q592219', 'http://www.wikidata.org/entity/Q620632', 'http://www.wikidata.org/entity/Q641389', 'http://www.wikidata.org/entity/Q6740250', 'http://www.wikidata.org/entity/Q706809', 'http://www.wikidata.org/entity/Q708452', 'http://www.wikidata.org/entity/Q708484', 'http://www.wikidata.org/entity/Q708489', 'http://www.wikidata.org/entity/Q7086024', 'http://www.wikidata.org/entity/Q708689', 'http://www.wikidata.org/entity/Q709634', 'http://www.wikidata.org/entity/Q711010', 'http://www.wikidata.org/entity/Q722142', 'http://www.wikidata.org/entity/Q725659', 'http://www.wikidata.org/entity/Q7258156', 'http://www.wikidata.org/entity/Q727902', 'http://www.wikidata.org/entity/Q728371', 'http://www.wikidata.org/entity/Q730170', 'http://www.wikidata.org/entity/Q730220', 'http://www.wikidata.org/entity/Q7327', 'http://www.wikidata.org/entity/Q7454059', 'http://www.wikidata.org/entity/Q8070504', 'http://www.wikidata.org/entity/Q820606', 'http://www.wikidata.org/entity/Q834956', 'http://www.wikidata.org/entity/Q85859878', 'http://www.wikidata.org/entity/Q85861593', 'http://www.wikidata.org/entity/Q85867505', 'http://www.wikidata.org/entity/Q927249', 'http://www.wikidata.org/entity/Q928034', 'http://www.wikidata.org/entity/Q956160', 'http://www.wikidata.org/entity/Q9601011', 'http://www.wikidata.org/entity/Q963226', 'http://www.wikidata.org/entity/Q975217']</t>
   </si>
   <si>
-    <t>['381488']</t>
-  </si>
-  <si>
     <t>['352600']</t>
   </si>
   <si>
@@ -1271,9 +1907,6 @@
   </si>
   <si>
     <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q154804']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q2420722']</t>
   </si>
   <si>
     <t>None</t>
@@ -1281,287 +1914,86 @@
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q2743 ; p:P86 wd:Q2808 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q2743 ; p:P86 wd:Q2808 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"MAX\\": mismatched input \'MAX\' expecting {\'{\', WHERE, FROM}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 22,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT ?uri ?uriLabel MAX(?elevation) AS ?maxElevation WHERE { ?uri wdt:P31 wd:Q8502; wdt:P131 wd:Q38; wdt:P2044 ?elevation. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } } GROUP BY ?uri ORDER BY DESC(?maxElevation) LIMIT 1",\n        "startIndex": 320,\n        "stopIndex": 322\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT ?uri ?uriLabel MAX(?elevation) AS ?maxElevation WHERE { ?uri wdt:P31 wd:Q8502; wdt:P131 wd:Q38; wdt:P2044 ?elevation. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } } GROUP BY ?uri ORDER BY DESC(?maxElevation) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q476028 ; wdt:P118 wd:Q82595 . }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q476028 ; wdt:P118 wd:Q82595 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: token recognition error at: \'`\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 56,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?item WHERE { wd:Q37079 wdt:P26 ?item } ``` This query fetches all entities (?item) that are spouses of Tom Cruise (wd:Q37079) in Wikidata. &lt;sparql&gt; SELECT DISTINCT ?item WHERE { wd:Q37079 wdt:P26 ?item }",\n        "startIndex": 354,\n        "stopIndex": 354\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?item WHERE { wd:Q37079 wdt:P26 ?item } ``` This query fetches all entities (?item) that are spouses of Tom Cruise (wd:Q37079) in Wikidata. &lt;sparql&gt; SELECT DISTINCT ?item WHERE { wd:Q37079 wdt:P26 ?item }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 37,\n        "query": "SELECT DISTINCT ?actor WHERE { ?film wdt:P57 wd:Q16297 ; wdt:P161 ?actor . }",\n        "startIndex": 37,\n        "stopIndex": 43\n    },\n    "query": "SELECT DISTINCT ?actor WHERE { ?film wdt:P57 wd:Q16297 ; wdt:P161 ?actor . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 169,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?author ?authorLabel WHERE { wd:Q726382 wdt:P50 ?author . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" . ?author rdfs:label ?authorLabel . } }",\n        "startIndex": 467,\n        "stopIndex": 480\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?author ?authorLabel WHERE { wd:Q726382 wdt:P50 ?author . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" . ?author rdfs:label ?authorLabel . } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 146,\n        "total": 146\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502 ; p:P2044 ?elevation . } ORDER BY DESC(?elevation) LIMIT 1",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502 ; p:P2044 ?elevation . } ORDER BY DESC(?elevation) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: REGEX expressions are currently supported only on variables.",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 161,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT (COUNT(DISTINCT ?item) AS ?c) WHERE { ?item wdt:P31 wd:Q4830453. ?item p:P452 ?stmt. ?stmt ps:P452 ?industry. ?industry rdfs:label ?industryLabel. FILTER(REGEX(LCASE(?industryLabel), \\"advertising\\")) }",\n        "startIndex": 459,\n        "stopIndex": 501\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT (COUNT(DISTINCT ?item) AS ?c) WHERE { ?item wdt:P31 wd:Q4830453. ?item p:P452 ?stmt. ?stmt ps:P452 ?industry. ?industry rdfs:label ?industryLabel. FILTER(REGEX(LCASE(?industryLabel), \\"advertising\\")) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 51,\n        "query": "SELECT (COUNT(DISTINCT ?item) AS ?c) WHERE { ?item wdt:P31 wd:Q11424 ; wdt:P161 wd:Q38111 }",\n        "startIndex": 51,\n        "stopIndex": 57\n    },\n    "query": "SELECT (COUNT(DISTINCT ?item) AS ?c) WHERE { ?item wdt:P31 wd:Q11424 ; wdt:P161 wd:Q38111 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 202,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?city ?cityLabel ?population WHERE { ?city wdt:P31 wd:Q515 . ?city wdt:P1082 ?population . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" . } } ORDER BY ASC(?population) LIMIT 1",\n        "startIndex": 500,\n        "stopIndex": 513\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?city ?cityLabel ?population WHERE { ?city wdt:P31 wd:Q515 . ?city wdt:P1082 ?population . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" . } } ORDER BY ASC(?population) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 21,\n        "query": "SELECT ?date WHERE { wd:Q53713 p:P570 ?statement . ?statement ps:P570 ?date . }",\n        "startIndex": 21,\n        "stopIndex": 29\n    },\n    "query": "SELECT ?date WHERE { wd:Q53713 p:P570 ?statement . ?statement ps:P570 ?date . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 210,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?item ?itemLabel WHERE { ?item wdt:P31 wd:Q482994 ; wdt:P175 wd:Q15862 ; wdt:P577 ?date . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" . } } ORDER BY ?date LIMIT 1",\n        "startIndex": 508,\n        "stopIndex": 521\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?item ?itemLabel WHERE { ?item wdt:P31 wd:Q482994 ; wdt:P175 wd:Q15862 ; wdt:P577 ?date . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" . } } ORDER BY ?date LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix p was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item p:P161 ?statement_1 . ?statement_1 ps:P161 wd:Q34851 . ?item p:P161 ?statement_2 . ?statement_2 ps:P161 wd:Q151973 . }",\n        "startIndex": 36,\n        "stopIndex": 41\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item p:P161 ?statement_1 . ?statement_1 ps:P161 wd:Q34851 . ?item p:P161 ?statement_2 . ?statement_2 ps:P161 wd:Q151973 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Built-in function \\"notexists{?itemp:p19/pwdt:p214?birthplace_}\\"  not yet implemented; if you need it, just add it to SparqlQleverVisitor.cpp::visitTypesafe(Parser::BuiltInCallContext following the already implemented functions there",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 81,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?item WHERE { ?item p:P19 ?birthPlace; p:P20 ?deathPlace. FILTER NOT EXISTS { ?item p:P19/pwdt:P214 ?birthPlace_ } FILTER NOT EXISTS { ?item p:P20/pwdt:P214 ?deathPlace_ } FILTER(EXISTS { ?item p:P19/psdt:P569 ?birthTime }) FILTER(EXISTS { ?item p:P20/psdt:P570 ?deathTime }) BIND(wd:Q1741 AS ?birthPlace) VALUES ?deathPlace { wd:Q64 wd:Q31910788 wd:Q56036 wd:Q56037 } }",\n        "startIndex": 379,\n        "stopIndex": 427\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?item WHERE { ?item p:P19 ?birthPlace; p:P20 ?deathPlace. FILTER NOT EXISTS { ?item p:P19/pwdt:P214 ?birthPlace_ } FILTER NOT EXISTS { ?item p:P20/pwdt:P214 ?deathPlace_ } FILTER(EXISTS { ?item p:P19/psdt:P569 ?birthTime }) FILTER(EXISTS { ?item p:P20/psdt:P570 ?deathTime }) BIND(wd:Q1741 AS ?birthPlace) VALUES ?deathPlace { wd:Q64 wd:Q31910788 wd:Q56036 wd:Q56037 } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 69,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?n WHERE { wd:Q2608065 wdt:P2769 ?n }",\n        "startIndex": 69,\n        "stopIndex": 79\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?n WHERE { wd:Q2608065 wdt:P2769 ?n }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 80,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT ?musician (COUNT(?book) AS ?count) WHERE { ?musician wdt:P106/wdt:Q639669. ?book wdt:P50 ?musician. ?book wdt:P31 wd:Q571. } GROUP BY ?musician ORDER BY DESC(?count) LIMIT 1",\n        "startIndex": 378,\n        "stopIndex": 378\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT ?musician (COUNT(?book) AS ?count) WHERE { ?musician wdt:P106/wdt:Q639669. ?book wdt:P50 ?musician. ?book wdt:P31 wd:Q571. } GROUP BY ?musician ORDER BY DESC(?count) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 33,\n        "query": "SELECT DISTINCT ?runtime WHERE { wd:Q171048 wdt:P2047 ?runtime }",\n        "startIndex": 33,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?runtime WHERE { wd:Q171048 wdt:P2047 ?runtime }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 96,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 [ UNION { &lt;http://www.wikidata.org/entity/Q5280538&gt; ; &lt;http://www.wikidata.org/entity/Q806349&gt; } ] ; wdt:P1303 [ UNION { &lt;http://www.wikidata.org/entity/Q119621&gt; ; &lt;http://www.wikidata.org/entity/Q8338&gt; } ] }",\n        "startIndex": 394,\n        "stopIndex": 398\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 [ UNION { &lt;http://www.wikidata.org/entity/Q5280538&gt; ; &lt;http://www.wikidata.org/entity/Q806349&gt; } ] ; wdt:P1303 [ UNION { &lt;http://www.wikidata.org/entity/Q119621&gt; ; &lt;http://www.wikidata.org/entity/Q8338&gt; } ] }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 ; wdt:P161 wd:Q40523 ; wdt:P57 wd:Q315087 . }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 ; wdt:P161 wd:Q40523 ; wdt:P57 wd:Q315087 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"Q11631\\": mismatched input \'Q11631\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 51,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?item WHERE { ?item p:P106 ps:P106 Q11631. { ?item p:P27 ps:P27 dbr:Q2184 } UNION { ?item p:P27 ps:P27 dbr:Q15180 } }",\n        "startIndex": 349,\n        "stopIndex": 354\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?item WHERE { ?item p:P106 ps:P106 Q11631. { ?item p:P27 ps:P27 dbr:Q2184 } UNION { ?item p:P27 ps:P27 dbr:Q15180 } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"MAX\\": mismatched input \'MAX\' expecting {\'{\', WHERE, FROM}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 22,\n        "query": "SELECT ?uri ?uriLabel MAX(?elevation) AS ?maxElevation WHERE { ?uri wdt:P31 wd:Q8502; wdt:P131 wd:Q38; wdt:P2044 ?elevation. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } } GROUP BY ?uri ORDER BY DESC(?maxElevation) LIMIT 1",\n        "startIndex": 22,\n        "stopIndex": 24\n    },\n    "query": "SELECT ?uri ?uriLabel MAX(?elevation) AS ?maxElevation WHERE { ?uri wdt:P31 wd:Q8502; wdt:P131 wd:Q38; wdt:P2044 ?elevation. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } } GROUP BY ?uri ORDER BY DESC(?maxElevation) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Not supported: Function \\"&lt;https://www.wikidata.org/wiki/Entity:sttype&gt;\\" is currently not supported by QLever.",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 225,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX bias: &lt;https://www.wikidata.org/wiki/Entity:&gt; SELECT DISTINCT ?item ?itemLabel WHERE { ?item p:P17/ps:P17 wd:Q35 . FILTER(bias:sttype(?item) = wd:Q11424) SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" } }",\n        "startIndex": 523,\n        "stopIndex": 540\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX bias: &lt;https://www.wikidata.org/wiki/Entity:&gt; SELECT DISTINCT ?item ?itemLabel WHERE { ?item p:P17/ps:P17 wd:Q35 . FILTER(bias:sttype(?item) = wd:Q11424) SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: token recognition error at: \'`\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 56,\n        "query": "SELECT DISTINCT ?item WHERE { wd:Q37079 wdt:P26 ?item } ``` This query fetches all entities (?item) that are spouses of Tom Cruise (wd:Q37079) in Wikidata. &lt;sparql&gt; SELECT DISTINCT ?item WHERE { wd:Q37079 wdt:P26 ?item }",\n        "startIndex": 56,\n        "stopIndex": 56\n    },\n    "query": "SELECT DISTINCT ?item WHERE { wd:Q37079 wdt:P26 ?item } ``` This query fetches all entities (?item) that are spouses of Tom Cruise (wd:Q37079) in Wikidata. &lt;sparql&gt; SELECT DISTINCT ?item WHERE { wd:Q37079 wdt:P26 ?item }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix p was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 183,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?item ?population ?populationEnd WHERE { ?item wd:P31 wd:Q5107 . ?item p:P1082 ?populationStatement . ?populationStatement ps:P1082 ?population . ?populationStatement pq:P582 ?populationEnd . FILTER(DATATYPE(?population) = &lt;http://www.w3.org/2001/XMLSchema#integer&gt;) }",\n        "startIndex": 183,\n        "stopIndex": 189\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?item ?population ?populationEnd WHERE { ?item wd:P31 wd:Q5107 . ?item p:P1082 ?populationStatement . ?populationStatement ps:P1082 ?population . ?populationStatement pq:P582 ?populationEnd . FILTER(DATATYPE(?population) = &lt;http://www.w3.org/2001/XMLSchema#integer&gt;) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 169,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?author ?authorLabel WHERE { wd:Q726382 wdt:P50 ?author . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" . ?author rdfs:label ?authorLabel . } }",\n        "startIndex": 169,\n        "stopIndex": 182\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?author ?authorLabel WHERE { wd:Q726382 wdt:P50 ?author . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" . ?author rdfs:label ?authorLabel . } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 81,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?date WHERE { wd:Q11806 wdt:P569 ?date }",\n        "startIndex": 81,\n        "stopIndex": 89\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?date WHERE { wd:Q11806 wdt:P569 ?date }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 40,\n        "query": "SELECT DISTINCT ?rocket WHERE { ?rocket wdt:P31 wd:Q41291 ; p:P448 [ps:P448 wd:Q177477]. }",\n        "startIndex": 40,\n        "stopIndex": 46\n    },\n    "query": "SELECT DISTINCT ?rocket WHERE { ?rocket wdt:P31 wd:Q41291 ; p:P448 [ps:P448 wd:Q177477]. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 51,\n        "query": "SELECT (COUNT(DISTINCT ?item) AS ?c) WHERE { ?item wdt:P31 wd:Q4830453. ?item p:P452 ?stmt. ?stmt ps:P452 ?industry. ?industry rdfs:label ?industryLabel. FILTER(REGEX(LCASE(?industryLabel), \\"advertising\\")) }",\n        "startIndex": 51,\n        "stopIndex": 57\n    },\n    "query": "SELECT (COUNT(DISTINCT ?item) AS ?c) WHERE { ?item wdt:P31 wd:Q4830453. ?item p:P452 ?stmt. ?stmt ps:P452 ?industry. ?industry rdfs:label ?industryLabel. FILTER(REGEX(LCASE(?industryLabel), \\"advertising\\")) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P161 wd:Q37079 ; wdt:P31 wd:Q11424 . }",\n        "startIndex": 34,\n        "stopIndex": 41\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P161 wd:Q37079 ; wdt:P31 wd:Q11424 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 29,\n        "query": "SELECT DISTINCT ?uri WHERE { wd:Q9696 wdt:P20 ?uri }",\n        "startIndex": 29,\n        "stopIndex": 36\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { wd:Q9696 wdt:P20 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 29,\n        "query": "SELECT DISTINCT ?uri WHERE { wd:Q125006 p:P177 ?uri }",\n        "startIndex": 29,\n        "stopIndex": 38\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { wd:Q125006 p:P177 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix p was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item p:P106 wd:Q10843402 ; p:P19 wd:Q649 . }",\n        "startIndex": 36,\n        "stopIndex": 41\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item p:P106 wd:Q10843402 ; p:P19 wd:Q649 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 38,\n        "query": "SELECT ?item ?itemLabel WHERE { ?item wdt:P31 wd:Q8502; p:P2044 ?statement. ?statement ps:P2044 ?elevation. } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1",\n        "startIndex": 38,\n        "stopIndex": 44\n    },\n    "query": "SELECT ?item ?itemLabel WHERE { ?item wdt:P31 wd:Q8502; p:P2044 ?statement. ?statement ps:P2044 ?elevation. } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 2,\n        "total": 2\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 20,\n        "query": "SELECT ?uri WHERE { wd:Q1163227 wdt:P50 ?uri }",\n        "startIndex": 20,\n        "stopIndex": 30\n    },\n    "query": "SELECT ?uri WHERE { wd:Q1163227 wdt:P50 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 80,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?val WHERE { wd:Q189080 wdt:P136 ?val }",\n        "startIndex": 80,\n        "stopIndex": 89\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?val WHERE { wd:Q189080 wdt:P136 ?val }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 2,\n        "total": 2\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 31,\n        "query": "SELECT DISTINCT ?place WHERE { wd:Q40912 p:P19 ?place. }",\n        "startIndex": 31,\n        "stopIndex": 39\n    },\n    "query": "SELECT DISTINCT ?place WHERE { wd:Q40912 p:P19 ?place. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 202,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?city ?cityLabel ?population WHERE { ?city wdt:P31 wd:Q515 . ?city wdt:P1082 ?population . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" . } } ORDER BY ASC(?population) LIMIT 1",\n        "startIndex": 202,\n        "stopIndex": 215\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?city ?cityLabel ?population WHERE { ?city wdt:P31 wd:Q515 . ?city wdt:P1082 ?population . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" . } } ORDER BY ASC(?population) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q1445650 ; wdt:P17 wd:Q34 . }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q1445650 ; wdt:P17 wd:Q34 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 82,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?value WHERE { wd:Q91 wdt:P20 ?value. }",\n        "startIndex": 82,\n        "stopIndex": 87\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?value WHERE { wd:Q91 wdt:P20 ?value. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 33,\n        "query": "SELECT DISTINCT ?capital WHERE { wd:Q5451 p:P17 ?countryStatement . ?countryStatement ps:P17 ?country . ?country p:P36 ?capitalStatement . ?capitalStatement ps:P36 ?capital . }",\n        "startIndex": 33,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?capital WHERE { wd:Q5451 p:P17 ?countryStatement . ?countryStatement ps:P17 ?country . ?country p:P36 ?capitalStatement . ?capitalStatement ps:P36 ?capital . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?film WHERE { ?film wdt:P57 wd:Q43203 ; wdt:P161 wd:Q43203 . }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?film WHERE { ?film wdt:P57 wd:Q43203 ; wdt:P161 wd:Q43203 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P38 wd:Q861690 }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P38 wd:Q861690 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q7278 ; wdt:P17 wd:Q41 ; wdt:P1142 wd:Q3781399 }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q7278 ; wdt:P17 wd:Q41 ; wdt:P1142 wd:Q3781399 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 30,\n        "query": "SELECT DISTINCT ?date WHERE { wd:Q162371 p:P161 ?actor . ?actor wdt:P569 ?date . }",\n        "startIndex": 30,\n        "stopIndex": 39\n    },\n    "query": "SELECT DISTINCT ?date WHERE { wd:Q162371 p:P161 ?actor . ?actor wdt:P569 ?date . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q33999 . ?item wdt:P19 wd:Q183 . }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q33999 . ?item wdt:P19 wd:Q183 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 210,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?item ?itemLabel WHERE { ?item wdt:P31 wd:Q482994 ; wdt:P175 wd:Q15862 ; wdt:P577 ?date . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" . } } ORDER BY ?date LIMIT 1",\n        "startIndex": 210,\n        "stopIndex": 223\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?item ?itemLabel WHERE { ?item wdt:P31 wd:Q482994 ; wdt:P175 wd:Q15862 ; wdt:P577 ?date . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" . } } ORDER BY ?date LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix p was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item p:P19 ?birthPlace; p:P20 ?deathPlace. FILTER NOT EXISTS { ?item p:P19/pwdt:P214 ?birthPlace_ } FILTER NOT EXISTS { ?item p:P20/pwdt:P214 ?deathPlace_ } FILTER(EXISTS { ?item p:P19/psdt:P569 ?birthTime }) FILTER(EXISTS { ?item p:P20/psdt:P570 ?deathTime }) BIND(wd:Q1741 AS ?birthPlace) VALUES ?deathPlace { wd:Q64 wd:Q31910788 wd:Q56036 wd:Q56037 } }",\n        "startIndex": 36,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item p:P19 ?birthPlace; p:P20 ?deathPlace. FILTER NOT EXISTS { ?item p:P19/pwdt:P214 ?birthPlace_ } FILTER NOT EXISTS { ?item p:P20/pwdt:P214 ?deathPlace_ } FILTER(EXISTS { ?item p:P19/psdt:P569 ?birthTime }) FILTER(EXISTS { ?item p:P20/psdt:P570 ?deathTime }) BIND(wd:Q1741 AS ?birthPlace) VALUES ?deathPlace { wd:Q64 wd:Q31910788 wd:Q56036 wd:Q56037 } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix p was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 164,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?bridge WHERE { ?bridge wdt:P31 wd:Q12280 . ?bridge p:P177 ?crosses . FILTER(wd:Q1471 = ?crosses || wd:Q1142326 = ?crosses) }",\n        "startIndex": 164,\n        "stopIndex": 169\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?bridge WHERE { ?bridge wdt:P31 wd:Q12280 . ?bridge p:P177 ?crosses . FILTER(wd:Q1471 = ?crosses || wd:Q1142326 = ?crosses) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 80,\n        "query": "SELECT ?musician (COUNT(?book) AS ?count) WHERE { ?musician wdt:P106/wdt:Q639669. ?book wdt:P50 ?musician. ?book wdt:P31 wd:Q571. } GROUP BY ?musician ORDER BY DESC(?count) LIMIT 1",\n        "startIndex": 80,\n        "stopIndex": 80\n    },\n    "query": "SELECT ?musician (COUNT(?book) AS ?count) WHERE { ?musician wdt:P106/wdt:Q639669. ?book wdt:P50 ?musician. ?book wdt:P31 wd:Q571. } GROUP BY ?musician ORDER BY DESC(?count) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q15416 ; wdt:P170 wd:Q25014 }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q15416 ; wdt:P170 wd:Q25014 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q36180 ; wdt:P166 wd:Q37922 . }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q36180 ; wdt:P166 wd:Q37922 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?discoverer WHERE { wd:Q596 wdt:P61 ?discoverer }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?discoverer WHERE { wd:Q596 wdt:P61 ?discoverer }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 96,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 [ UNION { &lt;http://www.wikidata.org/entity/Q5280538&gt; ; &lt;http://www.wikidata.org/entity/Q806349&gt; } ] ; wdt:P1303 [ UNION { &lt;http://www.wikidata.org/entity/Q119621&gt; ; &lt;http://www.wikidata.org/entity/Q8338&gt; } ] }",\n        "startIndex": 96,\n        "stopIndex": 100\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 [ UNION { &lt;http://www.wikidata.org/entity/Q5280538&gt; ; &lt;http://www.wikidata.org/entity/Q806349&gt; } ] ; wdt:P1303 [ UNION { &lt;http://www.wikidata.org/entity/Q119621&gt; ; &lt;http://www.wikidata.org/entity/Q8338&gt; } ] }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 93,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q3665646; p:P2048 ?height. FILTER (?height &gt; \\"2\\"^^&lt;http://www.wikidata.org/entities/quantity/2780&gt;) }",\n        "startIndex": 93,\n        "stopIndex": 103\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q3665646; p:P2048 ?height. FILTER (?height &gt; \\"2\\"^^&lt;http://www.wikidata.org/entities/quantity/2780&gt;) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q11424. ?item wdt:P161 wd:Q40523. ?item wdt:P161 wd:Q48410. }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q11424. ?item wdt:P161 wd:Q40523. ?item wdt:P161 wd:Q48410. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P106 wd:Q937857 ; wdt:P19 wd:Q233 }",\n        "startIndex": 36,\n        "stopIndex": 43\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P106 wd:Q937857 ; wdt:P19 wd:Q233 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 33,\n        "query": "SELECT DISTINCT ?capital WHERE { wd:Q1009 wdt:P36 ?capital }",\n        "startIndex": 33,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?capital WHERE { wd:Q1009 wdt:P36 ?capital }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"Q11631\\": mismatched input \'Q11631\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 51,\n        "query": "SELECT DISTINCT ?item WHERE { ?item p:P106 ps:P106 Q11631. { ?item p:P27 ps:P27 dbr:Q2184 } UNION { ?item p:P27 ps:P27 dbr:Q15180 } }",\n        "startIndex": 51,\n        "stopIndex": 56\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item p:P106 ps:P106 Q11631. { ?item p:P27 ps:P27 dbr:Q2184 } UNION { ?item p:P27 ps:P27 dbr:Q15180 } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 20,\n        "query": "SELECT ?num WHERE { wd:Q408 wdt:P36 ?x . ?x wdt:P1082 ?num . }",\n        "startIndex": 20,\n        "stopIndex": 26\n    },\n    "query": "SELECT ?num WHERE { wd:Q408 wdt:P36 ?x . ?x wdt:P1082 ?num . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; p:P161 [ps:P161 wd:Q219512] }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; p:P161 [ps:P161 wd:Q219512] }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix p was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 196,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX bias: &lt;https://www.wikidata.org/wiki/Entity:&gt; SELECT DISTINCT ?item ?itemLabel WHERE { ?item p:P17/ps:P17 wd:Q35 . FILTER(bias:sttype(?item) = wd:Q11424) SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" } }",\n        "startIndex": 196,\n        "stopIndex": 200\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX bias: &lt;https://www.wikidata.org/wiki/Entity:&gt; SELECT DISTINCT ?item ?itemLabel WHERE { ?item p:P17/ps:P17 wd:Q35 . FILTER(bias:sttype(?item) = wd:Q11424) SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 47,\n        "query": "SELECT DISTINCT ?country WHERE { VALUES ?hmt { wd:Q5451 wd:Q26235529 wd:Q105981852 } ?hmt wdt:P17 ?country }",\n        "startIndex": 47,\n        "stopIndex": 54\n    },\n    "query": "SELECT DISTINCT ?country WHERE { VALUES ?hmt { wd:Q5451 wd:Q26235529 wd:Q105981852 } ?hmt wdt:P17 ?country }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: token recognition error at: \'`\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 55,\n        "query": "SELECT ?Almamater WHERE { wd:Q567 wdt:P69 ?Almamater } ``` &lt;sparql&gt; SELECT ?Almamater WHERE { wd:Q567 wdt:P69 ?Almamater }",\n        "startIndex": 55,\n        "stopIndex": 55\n    },\n    "query": "SELECT ?Almamater WHERE { wd:Q567 wdt:P69 ?Almamater } ``` &lt;sparql&gt; SELECT ?Almamater WHERE { wd:Q567 wdt:P69 ?Almamater }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 29,\n        "query": "SELECT DISTINCT ?uri WHERE { wd:Q111135 wdt:P170 ?uri }",\n        "startIndex": 29,\n        "stopIndex": 38\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { wd:Q111135 wdt:P170 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: token recognition error at: \'`\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 55,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT ?Almamater WHERE { wd:Q567 wdt:P69 ?Almamater } ``` &lt;sparql&gt; SELECT ?Almamater WHERE { wd:Q567 wdt:P69 ?Almamater }",\n        "startIndex": 353,\n        "stopIndex": 353\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT ?Almamater WHERE { wd:Q567 wdt:P69 ?Almamater } ``` &lt;sparql&gt; SELECT ?Almamater WHERE { wd:Q567 wdt:P69 ?Almamater }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>Wrong Property</t>
+  </si>
+  <si>
+    <t>Missing P31</t>
+  </si>
+  <si>
+    <t>Structural Error</t>
+  </si>
+  <si>
+    <t>Wrong Entity</t>
   </si>
   <si>
     <t>Query Bad Formed</t>
   </si>
   <si>
-    <t>Wrong Property</t>
-  </si>
-  <si>
-    <t>Wrong Entity</t>
-  </si>
-  <si>
-    <t>Missing P31</t>
-  </si>
-  <si>
-    <t>Structural Error</t>
+    <t>Error Category 2</t>
+  </si>
+  <si>
+    <t>Error Category 3</t>
+  </si>
+  <si>
+    <t>Error Category 4</t>
   </si>
   <si>
     <t>Property treated as Entity</t>
@@ -1932,13 +2364,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1963,8 +2395,17 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1981,7 +2422,7 @@
         <v>308</v>
       </c>
       <c r="F2" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1990,7 +2431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2007,7 +2448,7 @@
         <v>309</v>
       </c>
       <c r="F3" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -2016,7 +2457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2030,19 +2471,22 @@
         <v>310</v>
       </c>
       <c r="E4" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="F4" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2059,7 +2503,7 @@
         <v>311</v>
       </c>
       <c r="F5" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -2068,7 +2512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2079,22 +2523,22 @@
         <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E6" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="F6" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2105,22 +2549,28 @@
         <v>213</v>
       </c>
       <c r="D7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E7" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="F7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="I7" t="s">
+        <v>444</v>
+      </c>
+      <c r="J7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2131,22 +2581,22 @@
         <v>214</v>
       </c>
       <c r="D8" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E8" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="F8" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2157,22 +2607,22 @@
         <v>215</v>
       </c>
       <c r="D9" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E9" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="F9" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2183,22 +2633,22 @@
         <v>216</v>
       </c>
       <c r="D10" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E10" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="F10" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2209,22 +2659,22 @@
         <v>217</v>
       </c>
       <c r="D11" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E11" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="F11" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2235,22 +2685,22 @@
         <v>218</v>
       </c>
       <c r="D12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E12" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="F12" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2264,19 +2714,19 @@
         <v>310</v>
       </c>
       <c r="E13" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="F13" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2287,22 +2737,28 @@
         <v>220</v>
       </c>
       <c r="D14" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E14" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="F14" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I14" t="s">
+        <v>444</v>
+      </c>
+      <c r="J14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2313,22 +2769,22 @@
         <v>221</v>
       </c>
       <c r="D15" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="E15" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="F15" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2339,22 +2795,25 @@
         <v>222</v>
       </c>
       <c r="D16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E16" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="F16" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+      <c r="I16" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2365,22 +2824,22 @@
         <v>223</v>
       </c>
       <c r="D17" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="E17" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="F17" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2391,22 +2850,22 @@
         <v>224</v>
       </c>
       <c r="D18" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="E18" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="F18" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2417,13 +2876,13 @@
         <v>225</v>
       </c>
       <c r="D19" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E19" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="F19" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -2432,7 +2891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2443,13 +2902,13 @@
         <v>226</v>
       </c>
       <c r="D20" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="E20" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="F20" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2458,7 +2917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2469,22 +2928,28 @@
         <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="E21" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="F21" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="I21" t="s">
+        <v>441</v>
+      </c>
+      <c r="J21" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2495,13 +2960,13 @@
         <v>228</v>
       </c>
       <c r="D22" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="E22" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="F22" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2510,7 +2975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2521,22 +2986,31 @@
         <v>229</v>
       </c>
       <c r="D23" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="E23" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="F23" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="I23" t="s">
+        <v>441</v>
+      </c>
+      <c r="J23" t="s">
+        <v>444</v>
+      </c>
+      <c r="K23" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2547,22 +3021,25 @@
         <v>230</v>
       </c>
       <c r="D24" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="E24" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="F24" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="I24" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2576,19 +3053,25 @@
         <v>310</v>
       </c>
       <c r="E25" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="F25" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I25" t="s">
+        <v>444</v>
+      </c>
+      <c r="J25" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2599,10 +3082,10 @@
         <v>232</v>
       </c>
       <c r="D26" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="E26" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="F26" t="s">
         <v>431</v>
@@ -2611,10 +3094,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="I26" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2625,22 +3111,22 @@
         <v>233</v>
       </c>
       <c r="D27" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="E27" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="F27" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2651,13 +3137,13 @@
         <v>234</v>
       </c>
       <c r="D28" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="E28" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="F28" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -2666,7 +3152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2677,22 +3163,22 @@
         <v>235</v>
       </c>
       <c r="D29" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E29" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="F29" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2703,13 +3189,13 @@
         <v>236</v>
       </c>
       <c r="D30" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E30" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F30" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -2718,7 +3204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2732,19 +3218,22 @@
         <v>310</v>
       </c>
       <c r="E31" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="F31" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I31" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2755,22 +3244,22 @@
         <v>238</v>
       </c>
       <c r="D32" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="E32" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="F32" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2781,13 +3270,13 @@
         <v>239</v>
       </c>
       <c r="D33" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E33" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F33" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -2796,7 +3285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2807,22 +3296,28 @@
         <v>240</v>
       </c>
       <c r="D34" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="E34" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="F34" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="I34" t="s">
+        <v>444</v>
+      </c>
+      <c r="J34" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2833,22 +3328,28 @@
         <v>241</v>
       </c>
       <c r="D35" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E35" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="F35" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="I35" t="s">
+        <v>444</v>
+      </c>
+      <c r="J35" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2859,22 +3360,25 @@
         <v>242</v>
       </c>
       <c r="D36" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E36" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="F36" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I36" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2885,22 +3389,28 @@
         <v>243</v>
       </c>
       <c r="D37" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="E37" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="F37" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I37" t="s">
+        <v>444</v>
+      </c>
+      <c r="J37" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2911,22 +3421,28 @@
         <v>244</v>
       </c>
       <c r="D38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E38" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="F38" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I38" t="s">
+        <v>444</v>
+      </c>
+      <c r="J38" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2937,22 +3453,22 @@
         <v>245</v>
       </c>
       <c r="D39" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="E39" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="F39" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2963,22 +3479,22 @@
         <v>246</v>
       </c>
       <c r="D40" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="E40" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="F40" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2992,19 +3508,19 @@
         <v>310</v>
       </c>
       <c r="E41" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="F41" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -3015,22 +3531,22 @@
         <v>248</v>
       </c>
       <c r="D42" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E42" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="F42" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -3041,22 +3557,28 @@
         <v>249</v>
       </c>
       <c r="D43" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="E43" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="F43" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I43" t="s">
+        <v>444</v>
+      </c>
+      <c r="J43" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -3067,13 +3589,13 @@
         <v>250</v>
       </c>
       <c r="D44" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="E44" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="F44" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -3082,7 +3604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -3093,22 +3615,28 @@
         <v>251</v>
       </c>
       <c r="D45" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E45" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="F45" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I45" t="s">
+        <v>444</v>
+      </c>
+      <c r="J45" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -3119,13 +3647,13 @@
         <v>252</v>
       </c>
       <c r="D46" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="E46" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="F46" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -3134,7 +3662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -3145,13 +3673,13 @@
         <v>253</v>
       </c>
       <c r="D47" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="E47" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="F47" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
@@ -3160,7 +3688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -3171,13 +3699,13 @@
         <v>254</v>
       </c>
       <c r="D48" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="E48" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="F48" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -3186,7 +3714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -3197,13 +3725,13 @@
         <v>255</v>
       </c>
       <c r="D49" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="E49" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="F49" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -3212,7 +3740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -3223,22 +3751,22 @@
         <v>256</v>
       </c>
       <c r="D50" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="E50" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="F50" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -3249,22 +3777,22 @@
         <v>257</v>
       </c>
       <c r="D51" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="E51" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="F51" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -3275,22 +3803,22 @@
         <v>258</v>
       </c>
       <c r="D52" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="E52" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="F52" t="s">
+        <v>428</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
         <v>443</v>
       </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -3301,22 +3829,25 @@
         <v>259</v>
       </c>
       <c r="D53" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="E53" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="F53" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="I53" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -3327,22 +3858,28 @@
         <v>260</v>
       </c>
       <c r="D54" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E54" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="F54" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I54" t="s">
+        <v>444</v>
+      </c>
+      <c r="J54" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -3353,22 +3890,28 @@
         <v>261</v>
       </c>
       <c r="D55" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="E55" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="F55" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+      <c r="I55" t="s">
+        <v>441</v>
+      </c>
+      <c r="J55" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -3379,13 +3922,13 @@
         <v>262</v>
       </c>
       <c r="D56" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="E56" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="F56" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
@@ -3394,7 +3937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3405,22 +3948,22 @@
         <v>263</v>
       </c>
       <c r="D57" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="E57" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="F57" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -3431,22 +3974,22 @@
         <v>264</v>
       </c>
       <c r="D58" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="E58" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="F58" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3457,13 +4000,13 @@
         <v>265</v>
       </c>
       <c r="D59" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="E59" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="F59" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
@@ -3472,7 +4015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -3483,13 +4026,13 @@
         <v>266</v>
       </c>
       <c r="D60" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="E60" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="F60" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -3498,7 +4041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -3509,22 +4052,22 @@
         <v>267</v>
       </c>
       <c r="D61" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="E61" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="F61" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -3535,22 +4078,22 @@
         <v>268</v>
       </c>
       <c r="D62" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="E62" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="F62" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3561,13 +4104,13 @@
         <v>269</v>
       </c>
       <c r="D63" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="E63" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="F63" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -3576,7 +4119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3587,22 +4130,25 @@
         <v>270</v>
       </c>
       <c r="D64" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="E64" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="F64" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+      <c r="I64" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3613,22 +4159,22 @@
         <v>271</v>
       </c>
       <c r="D65" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="E65" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="F65" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3642,19 +4188,19 @@
         <v>310</v>
       </c>
       <c r="E66" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="F66" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3665,22 +4211,22 @@
         <v>273</v>
       </c>
       <c r="D67" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E67" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="F67" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -3694,19 +4240,25 @@
         <v>310</v>
       </c>
       <c r="E68" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="F68" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+      <c r="I68" t="s">
+        <v>441</v>
+      </c>
+      <c r="J68" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -3717,13 +4269,13 @@
         <v>275</v>
       </c>
       <c r="D69" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="E69" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="F69" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
@@ -3732,7 +4284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -3743,13 +4295,13 @@
         <v>276</v>
       </c>
       <c r="D70" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="E70" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="F70" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
@@ -3758,7 +4310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -3769,22 +4321,22 @@
         <v>277</v>
       </c>
       <c r="D71" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="E71" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="F71" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -3795,13 +4347,13 @@
         <v>278</v>
       </c>
       <c r="D72" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="E72" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="F72" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
@@ -3810,7 +4362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -3821,22 +4373,25 @@
         <v>279</v>
       </c>
       <c r="D73" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="E73" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="F73" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="I73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -3847,13 +4402,13 @@
         <v>280</v>
       </c>
       <c r="D74" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="E74" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="F74" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
@@ -3862,7 +4417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -3873,22 +4428,31 @@
         <v>281</v>
       </c>
       <c r="D75" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="E75" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="F75" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="I75" t="s">
+        <v>441</v>
+      </c>
+      <c r="J75" t="s">
+        <v>444</v>
+      </c>
+      <c r="K75" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -3902,19 +4466,22 @@
         <v>310</v>
       </c>
       <c r="E76" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F76" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+      <c r="I76" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -3925,22 +4492,25 @@
         <v>283</v>
       </c>
       <c r="D77" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="E77" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="F77" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="I77" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -3954,19 +4524,22 @@
         <v>310</v>
       </c>
       <c r="E78" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="F78" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+      <c r="I78" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -3980,19 +4553,19 @@
         <v>310</v>
       </c>
       <c r="E79" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="F79" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -4003,22 +4576,22 @@
         <v>286</v>
       </c>
       <c r="D80" t="s">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="E80" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="F80" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -4029,22 +4602,28 @@
         <v>287</v>
       </c>
       <c r="D81" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="E81" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="F81" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="I81" t="s">
+        <v>444</v>
+      </c>
+      <c r="J81" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -4058,19 +4637,28 @@
         <v>310</v>
       </c>
       <c r="E82" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="F82" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+      <c r="I82" t="s">
+        <v>441</v>
+      </c>
+      <c r="J82" t="s">
+        <v>444</v>
+      </c>
+      <c r="K82" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -4081,22 +4669,22 @@
         <v>289</v>
       </c>
       <c r="D83" t="s">
-        <v>310</v>
+        <v>361</v>
       </c>
       <c r="E83" t="s">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="F83" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -4107,13 +4695,13 @@
         <v>290</v>
       </c>
       <c r="D84" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="E84" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="F84" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
@@ -4122,7 +4710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -4133,22 +4721,25 @@
         <v>291</v>
       </c>
       <c r="D85" t="s">
-        <v>310</v>
+        <v>363</v>
       </c>
       <c r="E85" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="F85" t="s">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I85" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -4159,22 +4750,22 @@
         <v>292</v>
       </c>
       <c r="D86" t="s">
-        <v>310</v>
+        <v>364</v>
       </c>
       <c r="E86" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="F86" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -4185,22 +4776,25 @@
         <v>293</v>
       </c>
       <c r="D87" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="E87" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="F87" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I87" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -4211,22 +4805,31 @@
         <v>294</v>
       </c>
       <c r="D88" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="E88" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="F88" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="I88" t="s">
+        <v>441</v>
+      </c>
+      <c r="J88" t="s">
+        <v>444</v>
+      </c>
+      <c r="K88" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -4237,13 +4840,13 @@
         <v>295</v>
       </c>
       <c r="D89" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="E89" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="F89" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
@@ -4252,7 +4855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -4263,13 +4866,13 @@
         <v>296</v>
       </c>
       <c r="D90" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="E90" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="F90" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
@@ -4278,7 +4881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -4289,13 +4892,13 @@
         <v>297</v>
       </c>
       <c r="D91" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="E91" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="F91" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
@@ -4304,7 +4907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -4315,22 +4918,22 @@
         <v>298</v>
       </c>
       <c r="D92" t="s">
-        <v>310</v>
+        <v>369</v>
       </c>
       <c r="E92" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="F92" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -4341,13 +4944,13 @@
         <v>299</v>
       </c>
       <c r="D93" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="E93" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="F93" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -4356,7 +4959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -4367,22 +4970,25 @@
         <v>300</v>
       </c>
       <c r="D94" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E94" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="F94" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+      <c r="I94" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -4393,22 +4999,25 @@
         <v>301</v>
       </c>
       <c r="D95" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E95" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="F95" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I95" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -4419,22 +5028,28 @@
         <v>302</v>
       </c>
       <c r="D96" t="s">
-        <v>310</v>
+        <v>371</v>
       </c>
       <c r="E96" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="F96" t="s">
-        <v>467</v>
+        <v>428</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I96" t="s">
+        <v>444</v>
+      </c>
+      <c r="J96" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -4445,22 +5060,31 @@
         <v>303</v>
       </c>
       <c r="D97" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="E97" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="F97" t="s">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="I97" t="s">
+        <v>441</v>
+      </c>
+      <c r="J97" t="s">
+        <v>444</v>
+      </c>
+      <c r="K97" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -4471,22 +5095,25 @@
         <v>304</v>
       </c>
       <c r="D98" t="s">
-        <v>310</v>
+        <v>372</v>
       </c>
       <c r="E98" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="F98" t="s">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+      <c r="I98" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -4497,22 +5124,25 @@
         <v>305</v>
       </c>
       <c r="D99" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="E99" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="F99" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+      <c r="I99" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -4523,22 +5153,28 @@
         <v>306</v>
       </c>
       <c r="D100" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="E100" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="F100" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="I100" t="s">
+        <v>444</v>
+      </c>
+      <c r="J100" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -4549,23 +5185,23 @@
         <v>307</v>
       </c>
       <c r="D101" t="s">
-        <v>310</v>
+        <v>374</v>
       </c>
       <c r="E101" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="F101" t="s">
-        <v>471</v>
+        <v>428</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>472</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>